--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9E0E51-C07B-184B-B863-1CEF3B5EF3A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2E8EFC-9574-FA4D-B876-194F83CE1250}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23520" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-67100" yWindow="-5140" windowWidth="33460" windowHeight="26640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="139">
   <si>
     <t>Q117</t>
   </si>
@@ -433,9 +433,6 @@
     <t>PRR</t>
   </si>
   <si>
-    <t>Intangibles per share</t>
-  </si>
-  <si>
     <t>Price to R&amp;D ratio</t>
   </si>
   <si>
@@ -452,6 +449,12 @@
   </si>
   <si>
     <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
   </si>
 </sst>
 </file>
@@ -807,13 +810,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:colOff>196362</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:colOff>196362</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -830,8 +833,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="1308100"/>
-          <a:ext cx="0" cy="10261600"/>
+          <a:off x="5755054" y="1314938"/>
+          <a:ext cx="0" cy="10489224"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -862,14 +865,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>219809</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>219809</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -886,8 +889,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19761200" y="139700"/>
-          <a:ext cx="0" cy="9918700"/>
+          <a:off x="20725424" y="139700"/>
+          <a:ext cx="0" cy="9977315"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1179,11 +1182,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1205,16 +1208,16 @@
         <v>67</v>
       </c>
       <c r="C2" s="4">
-        <v>1438.77</v>
+        <v>1867.52</v>
       </c>
       <c r="D2" s="80">
-        <v>44099</v>
+        <v>44221</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="7">
-        <v>-0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I2" s="16"/>
       <c r="L2" s="2"/>
@@ -1227,8 +1230,8 @@
         <v>17</v>
       </c>
       <c r="C3" s="8">
-        <f>Reports!W25</f>
-        <v>687.024</v>
+        <f>Reports!X25</f>
+        <v>685.851</v>
       </c>
       <c r="D3" s="58" t="s">
         <v>137</v>
@@ -1253,15 +1256,15 @@
       </c>
       <c r="C4" s="10">
         <f>C2*C3</f>
-        <v>988469.52047999995</v>
+        <v>1280840.45952</v>
       </c>
       <c r="D4" s="58"/>
       <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="7">
-        <f>5%</f>
-        <v>0.05</v>
+        <f>6%</f>
+        <v>0.06</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>117</v>
@@ -1276,8 +1279,8 @@
         <v>33</v>
       </c>
       <c r="C5" s="8">
-        <f>Reports!W37</f>
-        <v>117062</v>
+        <f>Reports!X37</f>
+        <v>118704</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>137</v>
@@ -1287,7 +1290,7 @@
       </c>
       <c r="F5" s="11">
         <f>NPV(F4,G29:GF29)</f>
-        <v>2485676.2006388796</v>
+        <v>2521401.0347628403</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>118</v>
@@ -1303,7 +1306,7 @@
       </c>
       <c r="C6" s="10">
         <f>C4-C5</f>
-        <v>871407.52047999995</v>
+        <v>1162136.45952</v>
       </c>
       <c r="D6" s="58"/>
       <c r="E6" s="12" t="s">
@@ -1311,7 +1314,7 @@
       </c>
       <c r="F6" s="13">
         <f>F5+C5</f>
-        <v>2602738.2006388796</v>
+        <v>2640105.0347628403</v>
       </c>
       <c r="I6" s="25"/>
     </row>
@@ -1324,7 +1327,7 @@
       </c>
       <c r="C7" s="55">
         <f>C6/C3</f>
-        <v>1268.3800281795104</v>
+        <v>1694.4445069264316</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="14" t="s">
@@ -1332,11 +1335,11 @@
       </c>
       <c r="F7" s="51">
         <f>F6/C3</f>
-        <v>3788.4239861182136</v>
+        <v>3849.3857044209899</v>
       </c>
       <c r="G7" s="78">
         <f>F7/C2-1</f>
-        <v>1.6330990958375651</v>
+        <v>1.0612286371342687</v>
       </c>
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.15">
@@ -1447,27 +1450,27 @@
       </c>
       <c r="F10" s="46">
         <f>SUM(Reports!R3:U3)</f>
-        <v>134931</v>
+        <v>134811</v>
       </c>
       <c r="G10" s="46">
-        <f>F10*1.15</f>
-        <v>155170.65</v>
+        <f>SUM(Reports!V3:Y3)</f>
+        <v>142452.4</v>
       </c>
       <c r="H10" s="46">
-        <f t="shared" ref="H10:K10" si="1">G10*1.15</f>
-        <v>178446.24749999997</v>
+        <f>G10*1.05</f>
+        <v>149575.01999999999</v>
       </c>
       <c r="I10" s="46">
-        <f t="shared" si="1"/>
-        <v>205213.18462499994</v>
+        <f t="shared" ref="I10:K10" si="1">H10*1.05</f>
+        <v>157053.77100000001</v>
       </c>
       <c r="J10" s="46">
         <f t="shared" si="1"/>
-        <v>235995.16231874991</v>
+        <v>164906.45955000003</v>
       </c>
       <c r="K10" s="46">
         <f t="shared" si="1"/>
-        <v>271394.4366665624</v>
+        <v>173151.78252750004</v>
       </c>
       <c r="L10" s="46"/>
       <c r="M10" s="46"/>
@@ -1583,7 +1586,7 @@
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -1594,27 +1597,27 @@
       </c>
       <c r="F11" s="46">
         <f>SUM(Reports!R4:U4)</f>
-        <v>6539</v>
+        <v>8918</v>
       </c>
       <c r="G11" s="46">
-        <f>F11*1.5</f>
-        <v>9808.5</v>
+        <f>SUM(Reports!V4:Y4)</f>
+        <v>13018.3</v>
       </c>
       <c r="H11" s="46">
-        <f t="shared" ref="H11:K11" si="2">G11*1.5</f>
-        <v>14712.75</v>
+        <f>G11*1.45</f>
+        <v>18876.535</v>
       </c>
       <c r="I11" s="46">
-        <f t="shared" si="2"/>
-        <v>22069.125</v>
+        <f t="shared" ref="I11:K11" si="2">H11*1.45</f>
+        <v>27370.975749999998</v>
       </c>
       <c r="J11" s="46">
         <f t="shared" si="2"/>
-        <v>33103.6875</v>
+        <v>39687.914837499993</v>
       </c>
       <c r="K11" s="46">
         <f t="shared" si="2"/>
-        <v>49655.53125</v>
+        <v>57547.47651437499</v>
       </c>
       <c r="L11" s="46"/>
       <c r="M11" s="46"/>
@@ -1750,27 +1753,27 @@
       </c>
       <c r="F12" s="46">
         <f>SUM(Reports!R5:U5)</f>
-        <v>19392</v>
+        <v>17014</v>
       </c>
       <c r="G12" s="46">
-        <f>F12*1.25</f>
-        <v>24240</v>
+        <f>SUM(Reports!V5:Y5)</f>
+        <v>22406.6</v>
       </c>
       <c r="H12" s="46">
-        <f t="shared" ref="H12:K12" si="3">G12*1.25</f>
-        <v>30300</v>
+        <f>G12*1.3</f>
+        <v>29128.579999999998</v>
       </c>
       <c r="I12" s="46">
-        <f t="shared" si="3"/>
-        <v>37875</v>
+        <f t="shared" ref="I12:K12" si="3">H12*1.3</f>
+        <v>37867.154000000002</v>
       </c>
       <c r="J12" s="46">
         <f t="shared" si="3"/>
-        <v>47343.75</v>
+        <v>49227.300200000005</v>
       </c>
       <c r="K12" s="46">
         <f t="shared" si="3"/>
-        <v>59179.6875</v>
+        <v>63995.490260000006</v>
       </c>
       <c r="L12" s="46"/>
       <c r="M12" s="46"/>
@@ -1906,27 +1909,27 @@
       </c>
       <c r="F13" s="46">
         <f>SUM(Reports!R6:U6)</f>
-        <v>995</v>
+        <v>1114</v>
       </c>
       <c r="G13" s="46">
-        <f>F13*1.05</f>
-        <v>1044.75</v>
+        <f>SUM(Reports!V6:Y6)</f>
+        <v>849.4</v>
       </c>
       <c r="H13" s="46">
-        <f t="shared" ref="H13:K13" si="4">G13*1.05</f>
-        <v>1096.9875</v>
+        <f>G13*0.8</f>
+        <v>679.52</v>
       </c>
       <c r="I13" s="46">
-        <f t="shared" si="4"/>
-        <v>1151.836875</v>
+        <f t="shared" ref="I13:K13" si="4">H13*0.8</f>
+        <v>543.61599999999999</v>
       </c>
       <c r="J13" s="46">
         <f t="shared" si="4"/>
-        <v>1209.4287187499999</v>
+        <v>434.89280000000002</v>
       </c>
       <c r="K13" s="46">
         <f t="shared" si="4"/>
-        <v>1269.9001546874999</v>
+        <v>347.91424000000006</v>
       </c>
       <c r="L13" s="46"/>
       <c r="M13" s="46"/>
@@ -2160,63 +2163,63 @@
       </c>
       <c r="G18" s="63">
         <f t="shared" si="5"/>
-        <v>190263.9</v>
+        <v>178726.69999999998</v>
       </c>
       <c r="H18" s="63">
         <f t="shared" ref="H18:I18" si="6">SUM(H10:H13)</f>
-        <v>224555.98499999996</v>
+        <v>198259.65499999997</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" si="6"/>
-        <v>266309.14649999992</v>
+        <v>222835.51675000001</v>
       </c>
       <c r="J18" s="63">
         <f>SUM(J10:J13)</f>
-        <v>317652.02853749995</v>
+        <v>254256.56738750002</v>
       </c>
       <c r="K18" s="63">
         <f>SUM(K10:K13)</f>
-        <v>381499.55557124992</v>
+        <v>295042.66354187502</v>
       </c>
       <c r="L18" s="63">
-        <f t="shared" ref="L18:U18" si="7">K18*1.05</f>
-        <v>400574.53334981244</v>
+        <f>K18*1.1</f>
+        <v>324546.92989606253</v>
       </c>
       <c r="M18" s="63">
-        <f t="shared" si="7"/>
-        <v>420603.26001730305</v>
+        <f t="shared" ref="M18:U18" si="7">L18*1.1</f>
+        <v>357001.62288566882</v>
       </c>
       <c r="N18" s="63">
         <f t="shared" si="7"/>
-        <v>441633.42301816825</v>
+        <v>392701.78517423576</v>
       </c>
       <c r="O18" s="63">
         <f t="shared" si="7"/>
-        <v>463715.09416907671</v>
+        <v>431971.96369165939</v>
       </c>
       <c r="P18" s="63">
         <f t="shared" si="7"/>
-        <v>486900.84887753054</v>
+        <v>475169.16006082535</v>
       </c>
       <c r="Q18" s="63">
         <f t="shared" si="7"/>
-        <v>511245.89132140711</v>
+        <v>522686.0760669079</v>
       </c>
       <c r="R18" s="63">
         <f t="shared" si="7"/>
-        <v>536808.18588747748</v>
+        <v>574954.68367359869</v>
       </c>
       <c r="S18" s="63">
         <f t="shared" si="7"/>
-        <v>563648.59518185141</v>
+        <v>632450.15204095864</v>
       </c>
       <c r="T18" s="63">
         <f t="shared" si="7"/>
-        <v>591831.02494094404</v>
+        <v>695695.1672450545</v>
       </c>
       <c r="U18" s="63">
         <f t="shared" si="7"/>
-        <v>621422.5761879913</v>
+        <v>765264.68396955996</v>
       </c>
       <c r="V18" s="18"/>
     </row>
@@ -2246,63 +2249,63 @@
       </c>
       <c r="G19" s="29">
         <f t="shared" ref="G19:H19" si="8">G18-G20</f>
-        <v>84514.190639885826</v>
+        <v>79389.429083697338</v>
       </c>
       <c r="H19" s="29">
         <f t="shared" si="8"/>
-        <v>99746.548481437305</v>
+        <v>88065.861568421504</v>
       </c>
       <c r="I19" s="29">
         <f t="shared" ref="I19:Q19" si="9">I18-I20</f>
-        <v>118293.07596683491</v>
+        <v>98982.325832419985</v>
       </c>
       <c r="J19" s="29">
         <f t="shared" si="9"/>
-        <v>141099.30521220644</v>
+        <v>112939.38580902712</v>
       </c>
       <c r="K19" s="29">
         <f t="shared" si="9"/>
-        <v>169460.02982478723</v>
+        <v>131056.34812214886</v>
       </c>
       <c r="L19" s="29">
         <f t="shared" si="9"/>
-        <v>177933.03131602661</v>
+        <v>144161.98293436377</v>
       </c>
       <c r="M19" s="29">
         <f t="shared" si="9"/>
-        <v>186829.68288182793</v>
+        <v>158578.18122780015</v>
       </c>
       <c r="N19" s="29">
         <f t="shared" si="9"/>
-        <v>196171.16702591933</v>
+        <v>174435.99935058018</v>
       </c>
       <c r="O19" s="29">
         <f t="shared" si="9"/>
-        <v>205979.72537721533</v>
+        <v>191879.59928563822</v>
       </c>
       <c r="P19" s="29">
         <f t="shared" si="9"/>
-        <v>216278.71164607612</v>
+        <v>211067.55921420205</v>
       </c>
       <c r="Q19" s="29">
         <f t="shared" si="9"/>
-        <v>227092.64722837991</v>
+        <v>232174.31513562228</v>
       </c>
       <c r="R19" s="29">
         <f t="shared" ref="R19:U19" si="10">R18-R20</f>
-        <v>238447.27958979894</v>
+        <v>255391.7466491845</v>
       </c>
       <c r="S19" s="29">
         <f t="shared" si="10"/>
-        <v>250369.64356928889</v>
+        <v>280930.921314103</v>
       </c>
       <c r="T19" s="29">
         <f t="shared" si="10"/>
-        <v>262888.12574775337</v>
+        <v>309024.01344551326</v>
       </c>
       <c r="U19" s="29">
         <f t="shared" si="10"/>
-        <v>276032.53203514108</v>
+        <v>339926.41479006462</v>
       </c>
       <c r="V19" s="8"/>
     </row>
@@ -2332,63 +2335,63 @@
       </c>
       <c r="G20" s="29">
         <f t="shared" ref="G20:U20" si="11">G18*F33</f>
-        <v>105749.70936011417</v>
+        <v>99337.270916302645</v>
       </c>
       <c r="H20" s="29">
         <f t="shared" si="11"/>
-        <v>124809.43651856265</v>
+        <v>110193.79343157847</v>
       </c>
       <c r="I20" s="29">
         <f t="shared" si="11"/>
-        <v>148016.07053316501</v>
+        <v>123853.19091758002</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" si="11"/>
-        <v>176552.72332529351</v>
+        <v>141317.1815784729</v>
       </c>
       <c r="K20" s="29">
         <f t="shared" si="11"/>
-        <v>212039.52574646269</v>
+        <v>163986.31541972616</v>
       </c>
       <c r="L20" s="29">
         <f t="shared" si="11"/>
-        <v>222641.50203378583</v>
+        <v>180384.94696169876</v>
       </c>
       <c r="M20" s="29">
         <f t="shared" si="11"/>
-        <v>233773.57713547512</v>
+        <v>198423.44165786868</v>
       </c>
       <c r="N20" s="29">
         <f t="shared" si="11"/>
-        <v>245462.25599224892</v>
+        <v>218265.78582365558</v>
       </c>
       <c r="O20" s="29">
         <f t="shared" si="11"/>
-        <v>257735.36879186137</v>
+        <v>240092.36440602117</v>
       </c>
       <c r="P20" s="29">
         <f t="shared" si="11"/>
-        <v>270622.13723145443</v>
+        <v>264101.6008466233</v>
       </c>
       <c r="Q20" s="29">
         <f t="shared" si="11"/>
-        <v>284153.2440930272</v>
+        <v>290511.76093128562</v>
       </c>
       <c r="R20" s="29">
         <f t="shared" si="11"/>
-        <v>298360.90629767854</v>
+        <v>319562.93702441419</v>
       </c>
       <c r="S20" s="29">
         <f t="shared" si="11"/>
-        <v>313278.95161256252</v>
+        <v>351519.23072685563</v>
       </c>
       <c r="T20" s="29">
         <f t="shared" si="11"/>
-        <v>328942.89919319068</v>
+        <v>386671.15379954124</v>
       </c>
       <c r="U20" s="29">
         <f t="shared" si="11"/>
-        <v>345390.04415285023</v>
+        <v>425338.26917949534</v>
       </c>
       <c r="V20" s="8"/>
     </row>
@@ -2417,11 +2420,11 @@
         <v>26018</v>
       </c>
       <c r="G21" s="29">
-        <f>F21*1.2</f>
+        <f t="shared" ref="G21:K21" si="12">F21*1.2</f>
         <v>31221.599999999999</v>
       </c>
       <c r="H21" s="29">
-        <f t="shared" ref="H21:K21" si="12">G21*1.2</f>
+        <f t="shared" si="12"/>
         <v>37465.919999999998</v>
       </c>
       <c r="I21" s="29">
@@ -2437,11 +2440,11 @@
         <v>64741.109759999999</v>
       </c>
       <c r="L21" s="29">
-        <f t="shared" ref="L21:U21" si="13">K21*1.05</f>
+        <f>K21*1.05</f>
         <v>67978.165248000005</v>
       </c>
       <c r="M21" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="M21:U21" si="13">L21*1.05</f>
         <v>71377.073510400005</v>
       </c>
       <c r="N21" s="29">
@@ -2523,44 +2526,44 @@
         <v>45944.340479999992</v>
       </c>
       <c r="L22" s="29">
-        <f t="shared" ref="L22:U22" si="15">K22*0.98</f>
-        <v>45025.453670399991</v>
+        <f>K22*1.05</f>
+        <v>48241.557503999997</v>
       </c>
       <c r="M22" s="29">
-        <f t="shared" si="15"/>
-        <v>44124.944596991991</v>
+        <f t="shared" ref="M22:U22" si="15">L22*1.05</f>
+        <v>50653.635379200001</v>
       </c>
       <c r="N22" s="29">
         <f t="shared" si="15"/>
-        <v>43242.445705052152</v>
+        <v>53186.31714816</v>
       </c>
       <c r="O22" s="29">
         <f t="shared" si="15"/>
-        <v>42377.596790951109</v>
+        <v>55845.633005568001</v>
       </c>
       <c r="P22" s="29">
         <f t="shared" si="15"/>
-        <v>41530.044855132088</v>
+        <v>58637.914655846405</v>
       </c>
       <c r="Q22" s="29">
         <f t="shared" si="15"/>
-        <v>40699.443958029442</v>
+        <v>61569.810388638725</v>
       </c>
       <c r="R22" s="29">
         <f t="shared" si="15"/>
-        <v>39885.45507886885</v>
+        <v>64648.300908070662</v>
       </c>
       <c r="S22" s="29">
         <f t="shared" si="15"/>
-        <v>39087.745977291474</v>
+        <v>67880.715953474195</v>
       </c>
       <c r="T22" s="29">
         <f t="shared" si="15"/>
-        <v>38305.991057745647</v>
+        <v>71274.751751147909</v>
       </c>
       <c r="U22" s="29">
         <f t="shared" si="15"/>
-        <v>37539.871236590734</v>
+        <v>74838.489338705302</v>
       </c>
       <c r="V22" s="8"/>
     </row>
@@ -2696,43 +2699,43 @@
       </c>
       <c r="L24" s="29">
         <f t="shared" si="19"/>
-        <v>147756.5694598</v>
+        <v>150972.6732934</v>
       </c>
       <c r="M24" s="29">
         <f t="shared" si="19"/>
-        <v>149559.90963796401</v>
+        <v>156088.60042017201</v>
       </c>
       <c r="N24" s="29">
         <f t="shared" si="19"/>
-        <v>151565.10659093273</v>
+        <v>161508.97803404057</v>
       </c>
       <c r="O24" s="29">
         <f t="shared" si="19"/>
-        <v>153780.01936212849</v>
+        <v>167248.05557674539</v>
       </c>
       <c r="P24" s="29">
         <f t="shared" si="19"/>
-        <v>156212.94462305104</v>
+        <v>173320.81442376535</v>
       </c>
       <c r="Q24" s="29">
         <f t="shared" si="19"/>
-        <v>158872.63766116338</v>
+        <v>179743.00409177266</v>
       </c>
       <c r="R24" s="29">
         <f t="shared" ref="R24:U24" si="20">SUM(R21:R23)</f>
-        <v>161768.33443504217</v>
+        <v>186531.18026424397</v>
       </c>
       <c r="S24" s="29">
         <f t="shared" si="20"/>
-        <v>164909.77474979847</v>
+        <v>193702.74472598117</v>
       </c>
       <c r="T24" s="29">
         <f t="shared" si="20"/>
-        <v>168307.22660843251</v>
+        <v>201275.98730183477</v>
       </c>
       <c r="U24" s="29">
         <f t="shared" si="20"/>
-        <v>171971.51179757537</v>
+        <v>209270.12989968996</v>
       </c>
       <c r="V24" s="8"/>
     </row>
@@ -2762,63 +2765,63 @@
       </c>
       <c r="G25" s="29">
         <f t="shared" ref="G25:H25" si="21">G20-G24</f>
-        <v>39955.009360114171</v>
+        <v>33542.570916302648</v>
       </c>
       <c r="H25" s="29">
         <f t="shared" si="21"/>
-        <v>44614.166518562648</v>
+        <v>29998.523431578462</v>
       </c>
       <c r="I25" s="29">
         <f t="shared" ref="I25:Q25" si="22">I20-I24</f>
-        <v>50167.62753316501</v>
+        <v>26004.747917580025</v>
       </c>
       <c r="J25" s="29">
         <f t="shared" si="22"/>
-        <v>57036.237025293507</v>
+        <v>21800.695278472893</v>
       </c>
       <c r="K25" s="29">
         <f>K20-K24</f>
-        <v>65891.881076462683</v>
+        <v>17838.670749726152</v>
       </c>
       <c r="L25" s="29">
         <f t="shared" si="22"/>
-        <v>74884.932573985832</v>
+        <v>29412.27366829876</v>
       </c>
       <c r="M25" s="29">
         <f t="shared" si="22"/>
-        <v>84213.667497511109</v>
+        <v>42334.841237696673</v>
       </c>
       <c r="N25" s="29">
         <f t="shared" si="22"/>
-        <v>93897.149401316186</v>
+        <v>56756.807789615006</v>
       </c>
       <c r="O25" s="29">
         <f t="shared" si="22"/>
-        <v>103955.34942973289</v>
+        <v>72844.308829275775</v>
       </c>
       <c r="P25" s="29">
         <f t="shared" si="22"/>
-        <v>114409.19260840339</v>
+        <v>90780.786422857956</v>
       </c>
       <c r="Q25" s="29">
         <f t="shared" si="22"/>
-        <v>125280.60643186382</v>
+        <v>110768.75683951296</v>
       </c>
       <c r="R25" s="29">
         <f t="shared" ref="R25:U25" si="23">R20-R24</f>
-        <v>136592.57186263637</v>
+        <v>133031.75676017022</v>
       </c>
       <c r="S25" s="29">
         <f t="shared" si="23"/>
-        <v>148369.17686276406</v>
+        <v>157816.48600087446</v>
       </c>
       <c r="T25" s="29">
         <f t="shared" si="23"/>
-        <v>160635.67258475817</v>
+        <v>185395.16649770646</v>
       </c>
       <c r="U25" s="29">
         <f t="shared" si="23"/>
-        <v>173418.53235527486</v>
+        <v>216068.13927980539</v>
       </c>
       <c r="V25" s="8"/>
     </row>
@@ -2852,59 +2855,59 @@
       </c>
       <c r="H26" s="29">
         <f t="shared" si="24"/>
-        <v>7698.7700228048525</v>
+        <v>7426.2413889428635</v>
       </c>
       <c r="I26" s="29">
         <f t="shared" si="24"/>
-        <v>9922.0698258129705</v>
+        <v>9016.7938938150201</v>
       </c>
       <c r="J26" s="29">
         <f t="shared" si="24"/>
-        <v>12475.881963569534</v>
+        <v>10505.20942079931</v>
       </c>
       <c r="K26" s="29">
         <f t="shared" si="24"/>
-        <v>15430.147020596214</v>
+        <v>11878.210370518378</v>
       </c>
       <c r="L26" s="29">
         <f t="shared" si="24"/>
-        <v>18886.333214721217</v>
+        <v>13141.17781812877</v>
       </c>
       <c r="M26" s="29">
         <f t="shared" si="24"/>
-        <v>22871.612010741272</v>
+        <v>14949.69950630194</v>
       </c>
       <c r="N26" s="29">
         <f t="shared" si="24"/>
-        <v>27422.736389841997</v>
+        <v>17384.292487921881</v>
       </c>
       <c r="O26" s="29">
         <f t="shared" si="24"/>
-        <v>32578.831535966219</v>
+        <v>20535.2892497172</v>
       </c>
       <c r="P26" s="29">
         <f t="shared" si="24"/>
-        <v>38381.534227008429</v>
+        <v>24503.922168074398</v>
       </c>
       <c r="Q26" s="29">
         <f t="shared" si="24"/>
-        <v>44875.140117513438</v>
+        <v>29403.522283189024</v>
       </c>
       <c r="R26" s="29">
         <f t="shared" si="24"/>
-        <v>52106.759345861967</v>
+        <v>35360.844145903859</v>
       </c>
       <c r="S26" s="29">
         <f t="shared" si="24"/>
-        <v>60126.480922223156</v>
+        <v>42517.529684412009</v>
       </c>
       <c r="T26" s="29">
         <f t="shared" si="24"/>
-        <v>68987.546378085113</v>
+        <v>51031.725351036686</v>
       </c>
       <c r="U26" s="29">
         <f t="shared" si="24"/>
-        <v>78746.533184005952</v>
+        <v>61079.868254608271</v>
       </c>
       <c r="V26" s="8"/>
     </row>
@@ -2934,63 +2937,63 @@
       </c>
       <c r="G27" s="29">
         <f t="shared" ref="G27:H27" si="25">G25+G26</f>
-        <v>45711.059360114174</v>
+        <v>39298.620916302651</v>
       </c>
       <c r="H27" s="29">
         <f t="shared" si="25"/>
-        <v>52312.936541367497</v>
+        <v>37424.764820521326</v>
       </c>
       <c r="I27" s="29">
         <f t="shared" ref="I27" si="26">I25+I26</f>
-        <v>60089.697358977981</v>
+        <v>35021.541811395044</v>
       </c>
       <c r="J27" s="29">
         <f t="shared" ref="J27" si="27">J25+J26</f>
-        <v>69512.118988863047</v>
+        <v>32305.904699272203</v>
       </c>
       <c r="K27" s="29">
         <f>K25+K26</f>
-        <v>81322.028097058894</v>
+        <v>29716.881120244529</v>
       </c>
       <c r="L27" s="29">
         <f t="shared" ref="L27" si="28">L25+L26</f>
-        <v>93771.265788707053</v>
+        <v>42553.451486427526</v>
       </c>
       <c r="M27" s="29">
         <f t="shared" ref="M27" si="29">M25+M26</f>
-        <v>107085.27950825238</v>
+        <v>57284.540743998616</v>
       </c>
       <c r="N27" s="29">
         <f t="shared" ref="N27" si="30">N25+N26</f>
-        <v>121319.88579115819</v>
+        <v>74141.100277536883</v>
       </c>
       <c r="O27" s="29">
         <f t="shared" ref="O27" si="31">O25+O26</f>
-        <v>136534.18096569911</v>
+        <v>93379.598078992974</v>
       </c>
       <c r="P27" s="29">
         <f t="shared" ref="P27" si="32">P25+P26</f>
-        <v>152790.72683541183</v>
+        <v>115284.70859093235</v>
       </c>
       <c r="Q27" s="29">
         <f t="shared" ref="Q27:R27" si="33">Q25+Q26</f>
-        <v>170155.74654937728</v>
+        <v>140172.27912270199</v>
       </c>
       <c r="R27" s="29">
         <f t="shared" si="33"/>
-        <v>188699.33120849833</v>
+        <v>168392.60090607408</v>
       </c>
       <c r="S27" s="29">
         <f t="shared" ref="S27:U27" si="34">S25+S26</f>
-        <v>208495.65778498721</v>
+        <v>200334.01568528646</v>
       </c>
       <c r="T27" s="29">
         <f t="shared" si="34"/>
-        <v>229623.2189628433</v>
+        <v>236426.89184874314</v>
       </c>
       <c r="U27" s="29">
         <f t="shared" si="34"/>
-        <v>252165.06553928083</v>
+        <v>277148.00753441366</v>
       </c>
       <c r="V27" s="8"/>
     </row>
@@ -3020,63 +3023,63 @@
       </c>
       <c r="G28" s="29">
         <f t="shared" ref="G28:Q28" si="35">G27*0.15</f>
-        <v>6856.6589040171257</v>
+        <v>5894.7931374453974</v>
       </c>
       <c r="H28" s="29">
         <f t="shared" si="35"/>
-        <v>7846.9404812051243</v>
+        <v>5613.7147230781984</v>
       </c>
       <c r="I28" s="29">
         <f t="shared" si="35"/>
-        <v>9013.454603846696</v>
+        <v>5253.2312717092564</v>
       </c>
       <c r="J28" s="29">
         <f t="shared" si="35"/>
-        <v>10426.817848329456</v>
+        <v>4845.8857048908303</v>
       </c>
       <c r="K28" s="29">
         <f t="shared" si="35"/>
-        <v>12198.304214558833</v>
+        <v>4457.5321680366787</v>
       </c>
       <c r="L28" s="29">
         <f t="shared" si="35"/>
-        <v>14065.689868306057</v>
+        <v>6383.0177229641286</v>
       </c>
       <c r="M28" s="29">
         <f t="shared" si="35"/>
-        <v>16062.791926237856</v>
+        <v>8592.6811115997916</v>
       </c>
       <c r="N28" s="29">
         <f t="shared" si="35"/>
-        <v>18197.982868673727</v>
+        <v>11121.165041630533</v>
       </c>
       <c r="O28" s="29">
         <f t="shared" si="35"/>
-        <v>20480.127144854865</v>
+        <v>14006.939711848945</v>
       </c>
       <c r="P28" s="29">
         <f t="shared" si="35"/>
-        <v>22918.609025311773</v>
+        <v>17292.706288639853</v>
       </c>
       <c r="Q28" s="29">
         <f t="shared" si="35"/>
-        <v>25523.36198240659</v>
+        <v>21025.841868405299</v>
       </c>
       <c r="R28" s="29">
         <f t="shared" ref="R28:U28" si="36">R27*0.15</f>
-        <v>28304.89968127475</v>
+        <v>25258.890135911111</v>
       </c>
       <c r="S28" s="29">
         <f t="shared" si="36"/>
-        <v>31274.34866774808</v>
+        <v>30050.102352792968</v>
       </c>
       <c r="T28" s="29">
         <f t="shared" si="36"/>
-        <v>34443.482844426493</v>
+        <v>35464.033777311466</v>
       </c>
       <c r="U28" s="29">
         <f t="shared" si="36"/>
-        <v>37824.759830892122</v>
+        <v>41572.201130162044</v>
       </c>
       <c r="V28" s="8"/>
     </row>
@@ -3106,731 +3109,731 @@
       </c>
       <c r="G29" s="31">
         <f t="shared" si="37"/>
-        <v>38854.40045609705</v>
+        <v>33403.827778857252</v>
       </c>
       <c r="H29" s="31">
         <f t="shared" ref="H29" si="38">H27-H28</f>
-        <v>44465.996060162375</v>
+        <v>31811.050097443127</v>
       </c>
       <c r="I29" s="31">
         <f t="shared" ref="I29:Q29" si="39">I27-I28</f>
-        <v>51076.242755131287</v>
+        <v>29768.310539685786</v>
       </c>
       <c r="J29" s="31">
         <f t="shared" si="39"/>
-        <v>59085.301140533593</v>
+        <v>27460.018994381375</v>
       </c>
       <c r="K29" s="31">
         <f t="shared" si="39"/>
-        <v>69123.723882500053</v>
+        <v>25259.348952207849</v>
       </c>
       <c r="L29" s="31">
         <f t="shared" si="39"/>
-        <v>79705.575920400996</v>
+        <v>36170.433763463399</v>
       </c>
       <c r="M29" s="31">
         <f t="shared" si="39"/>
-        <v>91022.487582014524</v>
+        <v>48691.859632398824</v>
       </c>
       <c r="N29" s="31">
         <f t="shared" si="39"/>
-        <v>103121.90292248446</v>
+        <v>63019.935235906349</v>
       </c>
       <c r="O29" s="31">
         <f t="shared" si="39"/>
-        <v>116054.05382084424</v>
+        <v>79372.658367144031</v>
       </c>
       <c r="P29" s="31">
         <f t="shared" si="39"/>
-        <v>129872.11781010006</v>
+        <v>97992.002302292502</v>
       </c>
       <c r="Q29" s="31">
         <f t="shared" si="39"/>
-        <v>144632.38456697069</v>
+        <v>119146.43725429669</v>
       </c>
       <c r="R29" s="31">
         <f t="shared" ref="R29:U29" si="40">R27-R28</f>
-        <v>160394.43152722358</v>
+        <v>143133.71077016296</v>
       </c>
       <c r="S29" s="31">
         <f t="shared" si="40"/>
-        <v>177221.30911723914</v>
+        <v>170283.91333249348</v>
       </c>
       <c r="T29" s="31">
         <f t="shared" si="40"/>
-        <v>195179.7361184168</v>
+        <v>200962.85807143166</v>
       </c>
       <c r="U29" s="31">
         <f t="shared" si="40"/>
-        <v>214340.30570838871</v>
+        <v>235575.80640425161</v>
       </c>
       <c r="V29" s="17">
         <f>U29*($F$2+1)</f>
-        <v>210053.49959422092</v>
+        <v>236753.68543627285</v>
       </c>
       <c r="W29" s="17">
         <f t="shared" ref="W29:CD29" si="41">V29*($F$2+1)</f>
-        <v>205852.42960233649</v>
+        <v>237937.4538634542</v>
       </c>
       <c r="X29" s="17">
         <f t="shared" si="41"/>
-        <v>201735.38101028974</v>
+        <v>239127.14113277144</v>
       </c>
       <c r="Y29" s="17">
         <f t="shared" si="41"/>
-        <v>197700.67339008395</v>
+        <v>240322.77683843527</v>
       </c>
       <c r="Z29" s="17">
         <f t="shared" si="41"/>
-        <v>193746.65992228227</v>
+        <v>241524.39072262743</v>
       </c>
       <c r="AA29" s="17">
         <f t="shared" si="41"/>
-        <v>189871.72672383662</v>
+        <v>242732.01267624056</v>
       </c>
       <c r="AB29" s="17">
         <f t="shared" si="41"/>
-        <v>186074.29218935987</v>
+        <v>243945.67273962175</v>
       </c>
       <c r="AC29" s="17">
         <f t="shared" si="41"/>
-        <v>182352.80634557267</v>
+        <v>245165.40110331983</v>
       </c>
       <c r="AD29" s="17">
         <f t="shared" si="41"/>
-        <v>178705.75021866121</v>
+        <v>246391.2281088364</v>
       </c>
       <c r="AE29" s="17">
         <f t="shared" si="41"/>
-        <v>175131.63521428799</v>
+        <v>247623.18424938055</v>
       </c>
       <c r="AF29" s="17">
         <f t="shared" si="41"/>
-        <v>171629.00251000223</v>
+        <v>248861.30017062742</v>
       </c>
       <c r="AG29" s="17">
         <f t="shared" si="41"/>
-        <v>168196.42245980218</v>
+        <v>250105.60667148052</v>
       </c>
       <c r="AH29" s="17">
         <f t="shared" si="41"/>
-        <v>164832.49401060614</v>
+        <v>251356.1347048379</v>
       </c>
       <c r="AI29" s="17">
         <f t="shared" si="41"/>
-        <v>161535.84413039402</v>
+        <v>252612.91537836206</v>
       </c>
       <c r="AJ29" s="17">
         <f t="shared" si="41"/>
-        <v>158305.12724778615</v>
+        <v>253875.97995525383</v>
       </c>
       <c r="AK29" s="17">
         <f t="shared" si="41"/>
-        <v>155139.02470283041</v>
+        <v>255145.35985503008</v>
       </c>
       <c r="AL29" s="17">
         <f t="shared" si="41"/>
-        <v>152036.2442087738</v>
+        <v>256421.0866543052</v>
       </c>
       <c r="AM29" s="17">
         <f t="shared" si="41"/>
-        <v>148995.51932459831</v>
+        <v>257703.1920875767</v>
       </c>
       <c r="AN29" s="17">
         <f t="shared" si="41"/>
-        <v>146015.60893810634</v>
+        <v>258991.70804801455</v>
       </c>
       <c r="AO29" s="17">
         <f t="shared" si="41"/>
-        <v>143095.2967593442</v>
+        <v>260286.66658825459</v>
       </c>
       <c r="AP29" s="17">
         <f t="shared" si="41"/>
-        <v>140233.39082415731</v>
+        <v>261588.09992119583</v>
       </c>
       <c r="AQ29" s="17">
         <f t="shared" si="41"/>
-        <v>137428.72300767415</v>
+        <v>262896.04042080179</v>
       </c>
       <c r="AR29" s="17">
         <f t="shared" si="41"/>
-        <v>134680.14854752066</v>
+        <v>264210.52062290575</v>
       </c>
       <c r="AS29" s="17">
         <f t="shared" si="41"/>
-        <v>131986.54557657024</v>
+        <v>265531.57322602026</v>
       </c>
       <c r="AT29" s="17">
         <f t="shared" si="41"/>
-        <v>129346.81466503882</v>
+        <v>266859.23109215032</v>
       </c>
       <c r="AU29" s="17">
         <f t="shared" si="41"/>
-        <v>126759.87837173804</v>
+        <v>268193.52724761103</v>
       </c>
       <c r="AV29" s="17">
         <f t="shared" si="41"/>
-        <v>124224.68080430328</v>
+        <v>269534.49488384905</v>
       </c>
       <c r="AW29" s="17">
         <f t="shared" si="41"/>
-        <v>121740.18718821721</v>
+        <v>270882.16735826829</v>
       </c>
       <c r="AX29" s="17">
         <f t="shared" si="41"/>
-        <v>119305.38344445286</v>
+        <v>272236.57819505961</v>
       </c>
       <c r="AY29" s="17">
         <f t="shared" si="41"/>
-        <v>116919.2757755638</v>
+        <v>273597.76108603488</v>
       </c>
       <c r="AZ29" s="17">
         <f t="shared" si="41"/>
-        <v>114580.89026005252</v>
+        <v>274965.74989146501</v>
       </c>
       <c r="BA29" s="17">
         <f t="shared" si="41"/>
-        <v>112289.27245485147</v>
+        <v>276340.57864092232</v>
       </c>
       <c r="BB29" s="17">
         <f t="shared" si="41"/>
-        <v>110043.48700575443</v>
+        <v>277722.2815341269</v>
       </c>
       <c r="BC29" s="17">
         <f t="shared" si="41"/>
-        <v>107842.61726563935</v>
+        <v>279110.8929417975</v>
       </c>
       <c r="BD29" s="17">
         <f t="shared" si="41"/>
-        <v>105685.76492032656</v>
+        <v>280506.44740650646</v>
       </c>
       <c r="BE29" s="17">
         <f t="shared" si="41"/>
-        <v>103572.04962192003</v>
+        <v>281908.97964353894</v>
       </c>
       <c r="BF29" s="17">
         <f t="shared" si="41"/>
-        <v>101500.60862948162</v>
+        <v>283318.5245417566</v>
       </c>
       <c r="BG29" s="17">
         <f t="shared" si="41"/>
-        <v>99470.596456891988</v>
+        <v>284735.11716446537</v>
       </c>
       <c r="BH29" s="17">
         <f t="shared" si="41"/>
-        <v>97481.184527754143</v>
+        <v>286158.79275028768</v>
       </c>
       <c r="BI29" s="17">
         <f t="shared" si="41"/>
-        <v>95531.560837199053</v>
+        <v>287589.58671403909</v>
       </c>
       <c r="BJ29" s="17">
         <f t="shared" si="41"/>
-        <v>93620.929620455077</v>
+        <v>289027.53464760928</v>
       </c>
       <c r="BK29" s="17">
         <f t="shared" si="41"/>
-        <v>91748.511028045978</v>
+        <v>290472.67232084728</v>
       </c>
       <c r="BL29" s="17">
         <f t="shared" si="41"/>
-        <v>89913.540807485057</v>
+        <v>291925.0356824515</v>
       </c>
       <c r="BM29" s="17">
         <f t="shared" si="41"/>
-        <v>88115.269991335357</v>
+        <v>293384.66086086375</v>
       </c>
       <c r="BN29" s="17">
         <f t="shared" si="41"/>
-        <v>86352.964591508644</v>
+        <v>294851.58416516805</v>
       </c>
       <c r="BO29" s="17">
         <f t="shared" si="41"/>
-        <v>84625.905299678474</v>
+        <v>296325.84208599385</v>
       </c>
       <c r="BP29" s="17">
         <f t="shared" si="41"/>
-        <v>82933.387193684903</v>
+        <v>297807.47129642381</v>
       </c>
       <c r="BQ29" s="17">
         <f t="shared" si="41"/>
-        <v>81274.719449811208</v>
+        <v>299296.50865290588</v>
       </c>
       <c r="BR29" s="17">
         <f t="shared" si="41"/>
-        <v>79649.225060814977</v>
+        <v>300792.99119617039</v>
       </c>
       <c r="BS29" s="17">
         <f t="shared" si="41"/>
-        <v>78056.240559598678</v>
+        <v>302296.95615215122</v>
       </c>
       <c r="BT29" s="17">
         <f t="shared" si="41"/>
-        <v>76495.115748406708</v>
+        <v>303808.44093291194</v>
       </c>
       <c r="BU29" s="17">
         <f t="shared" si="41"/>
-        <v>74965.213433438577</v>
+        <v>305327.48313757649</v>
       </c>
       <c r="BV29" s="17">
         <f t="shared" si="41"/>
-        <v>73465.909164769808</v>
+        <v>306854.12055326434</v>
       </c>
       <c r="BW29" s="17">
         <f t="shared" si="41"/>
-        <v>71996.590981474408</v>
+        <v>308388.39115603064</v>
       </c>
       <c r="BX29" s="17">
         <f t="shared" si="41"/>
-        <v>70556.659161844917</v>
+        <v>309930.33311181079</v>
       </c>
       <c r="BY29" s="17">
         <f t="shared" si="41"/>
-        <v>69145.525978608013</v>
+        <v>311479.98477736983</v>
       </c>
       <c r="BZ29" s="17">
         <f t="shared" si="41"/>
-        <v>67762.615459035849</v>
+        <v>313037.38470125664</v>
       </c>
       <c r="CA29" s="17">
         <f t="shared" si="41"/>
-        <v>66407.363149855126</v>
+        <v>314602.5716247629</v>
       </c>
       <c r="CB29" s="17">
         <f t="shared" si="41"/>
-        <v>65079.215886858023</v>
+        <v>316175.58448288671</v>
       </c>
       <c r="CC29" s="17">
         <f t="shared" si="41"/>
-        <v>63777.631569120858</v>
+        <v>317756.46240530111</v>
       </c>
       <c r="CD29" s="17">
         <f t="shared" si="41"/>
-        <v>62502.078937738443</v>
+        <v>319345.24471732759</v>
       </c>
       <c r="CE29" s="17">
         <f t="shared" ref="CE29:DR29" si="42">CD29*($F$2+1)</f>
-        <v>61252.037358983674</v>
+        <v>320941.97094091418</v>
       </c>
       <c r="CF29" s="17">
         <f t="shared" si="42"/>
-        <v>60026.996611804003</v>
+        <v>322546.68079561874</v>
       </c>
       <c r="CG29" s="17">
         <f t="shared" si="42"/>
-        <v>58826.45667956792</v>
+        <v>324159.41419959679</v>
       </c>
       <c r="CH29" s="17">
         <f t="shared" si="42"/>
-        <v>57649.927545976563</v>
+        <v>325780.21127059474</v>
       </c>
       <c r="CI29" s="17">
         <f t="shared" si="42"/>
-        <v>56496.928995057031</v>
+        <v>327409.11232694768</v>
       </c>
       <c r="CJ29" s="17">
         <f t="shared" si="42"/>
-        <v>55366.990415155888</v>
+        <v>329046.15788858238</v>
       </c>
       <c r="CK29" s="17">
         <f t="shared" si="42"/>
-        <v>54259.650606852767</v>
+        <v>330691.38867802528</v>
       </c>
       <c r="CL29" s="17">
         <f t="shared" si="42"/>
-        <v>53174.457594715714</v>
+        <v>332344.84562141536</v>
       </c>
       <c r="CM29" s="17">
         <f t="shared" si="42"/>
-        <v>52110.968442821395</v>
+        <v>334006.56984952238</v>
       </c>
       <c r="CN29" s="17">
         <f t="shared" si="42"/>
-        <v>51068.749073964966</v>
+        <v>335676.60269876994</v>
       </c>
       <c r="CO29" s="17">
         <f t="shared" si="42"/>
-        <v>50047.374092485668</v>
+        <v>337354.98571226373</v>
       </c>
       <c r="CP29" s="17">
         <f t="shared" si="42"/>
-        <v>49046.426610635957</v>
+        <v>339041.76064082503</v>
       </c>
       <c r="CQ29" s="17">
         <f t="shared" si="42"/>
-        <v>48065.498078423239</v>
+        <v>340736.96944402909</v>
       </c>
       <c r="CR29" s="17">
         <f t="shared" si="42"/>
-        <v>47104.188116854777</v>
+        <v>342440.65429124923</v>
       </c>
       <c r="CS29" s="17">
         <f t="shared" si="42"/>
-        <v>46162.10435451768</v>
+        <v>344152.85756270547</v>
       </c>
       <c r="CT29" s="17">
         <f t="shared" si="42"/>
-        <v>45238.862267427328</v>
+        <v>345873.62185051898</v>
       </c>
       <c r="CU29" s="17">
         <f t="shared" si="42"/>
-        <v>44334.085022078783</v>
+        <v>347602.98995977151</v>
       </c>
       <c r="CV29" s="17">
         <f t="shared" si="42"/>
-        <v>43447.403321637204</v>
+        <v>349341.00490957033</v>
       </c>
       <c r="CW29" s="17">
         <f t="shared" si="42"/>
-        <v>42578.455255204462</v>
+        <v>351087.70993411815</v>
       </c>
       <c r="CX29" s="17">
         <f t="shared" si="42"/>
-        <v>41726.88615010037</v>
+        <v>352843.14848378871</v>
       </c>
       <c r="CY29" s="17">
         <f t="shared" si="42"/>
-        <v>40892.348427098361</v>
+        <v>354607.3642262076</v>
       </c>
       <c r="CZ29" s="17">
         <f t="shared" si="42"/>
-        <v>40074.501458556391</v>
+        <v>356380.40104733862</v>
       </c>
       <c r="DA29" s="17">
         <f t="shared" si="42"/>
-        <v>39273.01142938526</v>
+        <v>358162.30305257527</v>
       </c>
       <c r="DB29" s="17">
         <f t="shared" si="42"/>
-        <v>38487.551200797556</v>
+        <v>359953.11456783809</v>
       </c>
       <c r="DC29" s="17">
         <f t="shared" si="42"/>
-        <v>37717.800176781602</v>
+        <v>361752.88014067721</v>
       </c>
       <c r="DD29" s="17">
         <f t="shared" si="42"/>
-        <v>36963.444173245967</v>
+        <v>363561.64454138058</v>
       </c>
       <c r="DE29" s="17">
         <f t="shared" si="42"/>
-        <v>36224.175289781044</v>
+        <v>365379.45276408741</v>
       </c>
       <c r="DF29" s="17">
         <f t="shared" si="42"/>
-        <v>35499.691783985421</v>
+        <v>367206.35002790781</v>
       </c>
       <c r="DG29" s="17">
         <f t="shared" si="42"/>
-        <v>34789.697948305715</v>
+        <v>369042.3817780473</v>
       </c>
       <c r="DH29" s="17">
         <f t="shared" si="42"/>
-        <v>34093.903989339597</v>
+        <v>370887.59368693753</v>
       </c>
       <c r="DI29" s="17">
         <f t="shared" si="42"/>
-        <v>33412.025909552802</v>
+        <v>372742.03165537218</v>
       </c>
       <c r="DJ29" s="17">
         <f t="shared" si="42"/>
-        <v>32743.785391361744</v>
+        <v>374605.74181364902</v>
       </c>
       <c r="DK29" s="17">
         <f t="shared" si="42"/>
-        <v>32088.909683534508</v>
+        <v>376478.77052271721</v>
       </c>
       <c r="DL29" s="17">
         <f t="shared" si="42"/>
-        <v>31447.131489863816</v>
+        <v>378361.16437533073</v>
       </c>
       <c r="DM29" s="17">
         <f t="shared" si="42"/>
-        <v>30818.188860066537</v>
+        <v>380252.97019720735</v>
       </c>
       <c r="DN29" s="17">
         <f t="shared" si="42"/>
-        <v>30201.825082865205</v>
+        <v>382154.23504819337</v>
       </c>
       <c r="DO29" s="17">
         <f t="shared" si="42"/>
-        <v>29597.7885812079</v>
+        <v>384065.00622343429</v>
       </c>
       <c r="DP29" s="17">
         <f t="shared" si="42"/>
-        <v>29005.832809583742</v>
+        <v>385985.33125455142</v>
       </c>
       <c r="DQ29" s="17">
         <f t="shared" si="42"/>
-        <v>28425.716153392066</v>
+        <v>387915.25791082415</v>
       </c>
       <c r="DR29" s="17">
         <f t="shared" si="42"/>
-        <v>27857.201830324226</v>
+        <v>389854.83420037822</v>
       </c>
       <c r="DS29" s="17">
         <f t="shared" ref="DS29" si="43">DR29*($F$2+1)</f>
-        <v>27300.05779371774</v>
+        <v>391804.10837138008</v>
       </c>
       <c r="DT29" s="17">
         <f t="shared" ref="DT29" si="44">DS29*($F$2+1)</f>
-        <v>26754.056637843387</v>
+        <v>393763.12891323696</v>
       </c>
       <c r="DU29" s="17">
         <f t="shared" ref="DU29" si="45">DT29*($F$2+1)</f>
-        <v>26218.975505086517</v>
+        <v>395731.9445578031</v>
       </c>
       <c r="DV29" s="17">
         <f t="shared" ref="DV29" si="46">DU29*($F$2+1)</f>
-        <v>25694.595994984786</v>
+        <v>397710.60428059206</v>
       </c>
       <c r="DW29" s="17">
         <f t="shared" ref="DW29" si="47">DV29*($F$2+1)</f>
-        <v>25180.70407508509</v>
+        <v>399699.15730199497</v>
       </c>
       <c r="DX29" s="17">
         <f t="shared" ref="DX29" si="48">DW29*($F$2+1)</f>
-        <v>24677.089993583388</v>
+        <v>401697.65308850491</v>
       </c>
       <c r="DY29" s="17">
         <f t="shared" ref="DY29" si="49">DX29*($F$2+1)</f>
-        <v>24183.548193711718</v>
+        <v>403706.1413539474</v>
       </c>
       <c r="DZ29" s="17">
         <f t="shared" ref="DZ29" si="50">DY29*($F$2+1)</f>
-        <v>23699.877229837482</v>
+        <v>405724.67206071707</v>
       </c>
       <c r="EA29" s="17">
         <f t="shared" ref="EA29" si="51">DZ29*($F$2+1)</f>
-        <v>23225.879685240732</v>
+        <v>407753.29542102059</v>
       </c>
       <c r="EB29" s="17">
         <f t="shared" ref="EB29" si="52">EA29*($F$2+1)</f>
-        <v>22761.362091535917</v>
+        <v>409792.06189812563</v>
       </c>
       <c r="EC29" s="17">
         <f t="shared" ref="EC29" si="53">EB29*($F$2+1)</f>
-        <v>22306.134849705199</v>
+        <v>411841.02220761619</v>
       </c>
       <c r="ED29" s="17">
         <f t="shared" ref="ED29" si="54">EC29*($F$2+1)</f>
-        <v>21860.012152711093</v>
+        <v>413900.22731865424</v>
       </c>
       <c r="EE29" s="17">
         <f t="shared" ref="EE29" si="55">ED29*($F$2+1)</f>
-        <v>21422.81190965687</v>
+        <v>415969.72845524747</v>
       </c>
       <c r="EF29" s="17">
         <f t="shared" ref="EF29" si="56">EE29*($F$2+1)</f>
-        <v>20994.355671463731</v>
+        <v>418049.57709752367</v>
       </c>
       <c r="EG29" s="17">
         <f t="shared" ref="EG29" si="57">EF29*($F$2+1)</f>
-        <v>20574.468558034456</v>
+        <v>420139.82498301123</v>
       </c>
       <c r="EH29" s="17">
         <f t="shared" ref="EH29" si="58">EG29*($F$2+1)</f>
-        <v>20162.979186873767</v>
+        <v>422240.52410792623</v>
       </c>
       <c r="EI29" s="17">
         <f t="shared" ref="EI29" si="59">EH29*($F$2+1)</f>
-        <v>19759.719603136291</v>
+        <v>424351.72672846582</v>
       </c>
       <c r="EJ29" s="17">
         <f t="shared" ref="EJ29" si="60">EI29*($F$2+1)</f>
-        <v>19364.525211073564</v>
+        <v>426473.4853621081</v>
       </c>
       <c r="EK29" s="17">
         <f t="shared" ref="EK29" si="61">EJ29*($F$2+1)</f>
-        <v>18977.23470685209</v>
+        <v>428605.85278891859</v>
       </c>
       <c r="EL29" s="17">
         <f t="shared" ref="EL29" si="62">EK29*($F$2+1)</f>
-        <v>18597.690012715047</v>
+        <v>430748.88205286313</v>
       </c>
       <c r="EM29" s="17">
         <f t="shared" ref="EM29" si="63">EL29*($F$2+1)</f>
-        <v>18225.736212460746</v>
+        <v>432902.62646312738</v>
       </c>
       <c r="EN29" s="17">
         <f t="shared" ref="EN29" si="64">EM29*($F$2+1)</f>
-        <v>17861.22148821153</v>
+        <v>435067.13959544298</v>
       </c>
       <c r="EO29" s="17">
         <f t="shared" ref="EO29" si="65">EN29*($F$2+1)</f>
-        <v>17503.997058447298</v>
+        <v>437242.47529342014</v>
       </c>
       <c r="EP29" s="17">
         <f t="shared" ref="EP29" si="66">EO29*($F$2+1)</f>
-        <v>17153.91711727835</v>
+        <v>439428.68766988721</v>
       </c>
       <c r="EQ29" s="17">
         <f t="shared" ref="EQ29" si="67">EP29*($F$2+1)</f>
-        <v>16810.838774932781</v>
+        <v>441625.83110823657</v>
       </c>
       <c r="ER29" s="17">
         <f t="shared" ref="ER29" si="68">EQ29*($F$2+1)</f>
-        <v>16474.621999434126</v>
+        <v>443833.9602637777</v>
       </c>
       <c r="ES29" s="17">
         <f t="shared" ref="ES29" si="69">ER29*($F$2+1)</f>
-        <v>16145.129559445444</v>
+        <v>446053.13006509654</v>
       </c>
       <c r="ET29" s="17">
         <f t="shared" ref="ET29" si="70">ES29*($F$2+1)</f>
-        <v>15822.226968256535</v>
+        <v>448283.395715422</v>
       </c>
       <c r="EU29" s="17">
         <f t="shared" ref="EU29" si="71">ET29*($F$2+1)</f>
-        <v>15505.782428891403</v>
+        <v>450524.81269399903</v>
       </c>
       <c r="EV29" s="17">
         <f t="shared" ref="EV29" si="72">EU29*($F$2+1)</f>
-        <v>15195.666780313575</v>
+        <v>452777.43675746897</v>
       </c>
       <c r="EW29" s="17">
         <f t="shared" ref="EW29" si="73">EV29*($F$2+1)</f>
-        <v>14891.753444707303</v>
+        <v>455041.32394125627</v>
       </c>
       <c r="EX29" s="17">
         <f t="shared" ref="EX29" si="74">EW29*($F$2+1)</f>
-        <v>14593.918375813157</v>
+        <v>457316.53056096251</v>
       </c>
       <c r="EY29" s="17">
         <f t="shared" ref="EY29" si="75">EX29*($F$2+1)</f>
-        <v>14302.040008296894</v>
+        <v>459603.1132137673</v>
       </c>
       <c r="EZ29" s="17">
         <f t="shared" ref="EZ29" si="76">EY29*($F$2+1)</f>
-        <v>14015.999208130956</v>
+        <v>461901.12877983606</v>
       </c>
       <c r="FA29" s="17">
         <f t="shared" ref="FA29" si="77">EZ29*($F$2+1)</f>
-        <v>13735.679223968336</v>
+        <v>464210.6344237352</v>
       </c>
       <c r="FB29" s="17">
         <f t="shared" ref="FB29" si="78">FA29*($F$2+1)</f>
-        <v>13460.96563948897</v>
+        <v>466531.68759585381</v>
       </c>
       <c r="FC29" s="17">
         <f t="shared" ref="FC29" si="79">FB29*($F$2+1)</f>
-        <v>13191.746326699191</v>
+        <v>468864.34603383305</v>
       </c>
       <c r="FD29" s="17">
         <f t="shared" ref="FD29" si="80">FC29*($F$2+1)</f>
-        <v>12927.911400165207</v>
+        <v>471208.66776400217</v>
       </c>
       <c r="FE29" s="17">
         <f t="shared" ref="FE29" si="81">FD29*($F$2+1)</f>
-        <v>12669.353172161902</v>
+        <v>473564.71110282216</v>
       </c>
       <c r="FF29" s="17">
         <f t="shared" ref="FF29" si="82">FE29*($F$2+1)</f>
-        <v>12415.966108718663</v>
+        <v>475932.5346583362</v>
       </c>
       <c r="FG29" s="17">
         <f t="shared" ref="FG29" si="83">FF29*($F$2+1)</f>
-        <v>12167.64678654429</v>
+        <v>478312.19733162783</v>
       </c>
       <c r="FH29" s="17">
         <f t="shared" ref="FH29" si="84">FG29*($F$2+1)</f>
-        <v>11924.293850813405</v>
+        <v>480703.75831828592</v>
       </c>
       <c r="FI29" s="17">
         <f t="shared" ref="FI29" si="85">FH29*($F$2+1)</f>
-        <v>11685.807973797137</v>
+        <v>483107.27710987732</v>
       </c>
       <c r="FJ29" s="17">
         <f t="shared" ref="FJ29" si="86">FI29*($F$2+1)</f>
-        <v>11452.091814321193</v>
+        <v>485522.81349542667</v>
       </c>
       <c r="FK29" s="17">
         <f t="shared" ref="FK29" si="87">FJ29*($F$2+1)</f>
-        <v>11223.049978034769</v>
+        <v>487950.42756290373</v>
       </c>
       <c r="FL29" s="17">
         <f t="shared" ref="FL29" si="88">FK29*($F$2+1)</f>
-        <v>10998.588978474074</v>
+        <v>490390.1797007182</v>
       </c>
       <c r="FM29" s="17">
         <f t="shared" ref="FM29" si="89">FL29*($F$2+1)</f>
-        <v>10778.617198904592</v>
+        <v>492842.13059922174</v>
       </c>
       <c r="FN29" s="17">
         <f t="shared" ref="FN29" si="90">FM29*($F$2+1)</f>
-        <v>10563.0448549265</v>
+        <v>495306.34125221777</v>
       </c>
       <c r="FO29" s="17">
         <f t="shared" ref="FO29" si="91">FN29*($F$2+1)</f>
-        <v>10351.783957827971</v>
+        <v>497782.87295847881</v>
       </c>
       <c r="FP29" s="17">
         <f t="shared" ref="FP29" si="92">FO29*($F$2+1)</f>
-        <v>10144.748278671412</v>
+        <v>500271.78732327116</v>
       </c>
       <c r="FQ29" s="17">
         <f t="shared" ref="FQ29" si="93">FP29*($F$2+1)</f>
-        <v>9941.8533130979831</v>
+        <v>502773.14625988744</v>
       </c>
       <c r="FR29" s="17">
         <f t="shared" ref="FR29" si="94">FQ29*($F$2+1)</f>
-        <v>9743.0162468360231</v>
+        <v>505287.01199118682</v>
       </c>
       <c r="FS29" s="17">
         <f t="shared" ref="FS29" si="95">FR29*($F$2+1)</f>
-        <v>9548.1559218993025</v>
+        <v>507813.44705114269</v>
       </c>
       <c r="FT29" s="17">
         <f t="shared" ref="FT29" si="96">FS29*($F$2+1)</f>
-        <v>9357.1928034613156</v>
+        <v>510352.51428639836</v>
       </c>
       <c r="FU29" s="17">
         <f t="shared" ref="FU29" si="97">FT29*($F$2+1)</f>
-        <v>9170.0489473920898</v>
+        <v>512904.27685783029</v>
       </c>
       <c r="FV29" s="17">
         <f t="shared" ref="FV29" si="98">FU29*($F$2+1)</f>
-        <v>8986.6479684442475</v>
+        <v>515468.79824211937</v>
       </c>
       <c r="FW29" s="17">
         <f t="shared" ref="FW29" si="99">FV29*($F$2+1)</f>
-        <v>8806.9150090753628</v>
+        <v>518046.14223332994</v>
       </c>
       <c r="FX29" s="17">
         <f t="shared" ref="FX29" si="100">FW29*($F$2+1)</f>
-        <v>8630.7767088938563</v>
+        <v>520636.37294449651</v>
       </c>
       <c r="FY29" s="17">
         <f t="shared" ref="FY29" si="101">FX29*($F$2+1)</f>
-        <v>8458.1611747159786</v>
+        <v>523239.55480921891</v>
       </c>
       <c r="FZ29" s="17">
         <f t="shared" ref="FZ29" si="102">FY29*($F$2+1)</f>
-        <v>8288.9979512216596</v>
+        <v>525855.75258326496</v>
       </c>
       <c r="GA29" s="17">
         <f t="shared" ref="GA29" si="103">FZ29*($F$2+1)</f>
-        <v>8123.2179921972265</v>
+        <v>528485.03134618117</v>
       </c>
       <c r="GB29" s="17">
         <f t="shared" ref="GB29" si="104">GA29*($F$2+1)</f>
-        <v>7960.7536323532822</v>
+        <v>531127.45650291198</v>
       </c>
       <c r="GC29" s="17">
         <f t="shared" ref="GC29" si="105">GB29*($F$2+1)</f>
-        <v>7801.5385597062168</v>
+        <v>533783.09378542646</v>
       </c>
       <c r="GD29" s="17">
         <f t="shared" ref="GD29" si="106">GC29*($F$2+1)</f>
-        <v>7645.5077885120927</v>
+        <v>536452.00925435359</v>
       </c>
       <c r="GE29" s="17">
         <f t="shared" ref="GE29" si="107">GD29*($F$2+1)</f>
-        <v>7492.5976327418512</v>
+        <v>539134.26930062531</v>
       </c>
       <c r="GF29" s="17">
         <f t="shared" ref="GF29" si="108">GE29*($F$2+1)</f>
-        <v>7342.7456800870141</v>
+        <v>541829.94064712839</v>
       </c>
     </row>
     <row r="30" spans="1:188" x14ac:dyDescent="0.15">
@@ -3859,63 +3862,63 @@
       </c>
       <c r="G30" s="64">
         <f t="shared" ref="G30:H30" si="109">G29/G31</f>
-        <v>55.890011214275518</v>
+        <v>48.049649132267042</v>
       </c>
       <c r="H30" s="64">
         <f t="shared" si="109"/>
-        <v>63.961996306300655</v>
+        <v>45.758522221772814</v>
       </c>
       <c r="I30" s="64">
         <f t="shared" ref="I30:Q30" si="110">I29/I31</f>
-        <v>73.470488460963836</v>
+        <v>42.820148821315762</v>
       </c>
       <c r="J30" s="64">
         <f t="shared" si="110"/>
-        <v>84.991097651207568</v>
+        <v>39.499792855492679</v>
       </c>
       <c r="K30" s="64">
         <f t="shared" si="110"/>
-        <v>99.430840718562095</v>
+        <v>36.334244760754338</v>
       </c>
       <c r="L30" s="64">
         <f t="shared" si="110"/>
-        <v>114.65227824233379</v>
+        <v>52.029266310502393</v>
       </c>
       <c r="M30" s="64">
         <f t="shared" si="110"/>
-        <v>130.93106036878129</v>
+        <v>70.040678763624001</v>
       </c>
       <c r="N30" s="64">
         <f t="shared" si="110"/>
-        <v>148.33543287554906</v>
+        <v>90.650861825485194</v>
       </c>
       <c r="O30" s="64">
         <f t="shared" si="110"/>
-        <v>166.93765167830023</v>
+        <v>114.17339385429683</v>
       </c>
       <c r="P30" s="64">
         <f t="shared" si="110"/>
-        <v>186.81420986098854</v>
+        <v>140.95634067942547</v>
       </c>
       <c r="Q30" s="64">
         <f t="shared" si="110"/>
-        <v>208.04607716259159</v>
+        <v>171.38588257996574</v>
       </c>
       <c r="R30" s="64">
         <f t="shared" ref="R30:U30" si="111">R29/R31</f>
-        <v>230.71895259053386</v>
+        <v>205.89031373999626</v>
       </c>
       <c r="S30" s="64">
         <f t="shared" si="111"/>
-        <v>254.92353086654828</v>
+        <v>244.94445195512833</v>
       </c>
       <c r="T30" s="64">
         <f t="shared" si="111"/>
-        <v>280.75578344809765</v>
+        <v>289.07450017035774</v>
       </c>
       <c r="U30" s="64">
         <f t="shared" si="111"/>
-        <v>308.31725490782247</v>
+        <v>338.86340561663599</v>
       </c>
       <c r="V30" s="19"/>
     </row>
@@ -4140,63 +4143,63 @@
       </c>
       <c r="G34" s="44">
         <f t="shared" si="125"/>
-        <v>0.20999784699101706</v>
+        <v>0.18767520978288443</v>
       </c>
       <c r="H34" s="44">
         <f t="shared" si="125"/>
-        <v>0.19867725422042373</v>
+        <v>0.15130926880498438</v>
       </c>
       <c r="I34" s="44">
         <f t="shared" si="125"/>
-        <v>0.1883811659963584</v>
+        <v>0.11669929595090019</v>
       </c>
       <c r="J34" s="44">
         <f t="shared" si="125"/>
-        <v>0.17955571474828524</v>
+        <v>8.574289939676373E-2</v>
       </c>
       <c r="K34" s="44">
         <f t="shared" si="125"/>
-        <v>0.17271810704418117</v>
+        <v>6.0461326289492141E-2</v>
       </c>
       <c r="L34" s="44">
         <f t="shared" si="125"/>
-        <v>0.18694381779031011</v>
+        <v>9.0625641344745309E-2</v>
       </c>
       <c r="M34" s="44">
         <f t="shared" si="125"/>
-        <v>0.20022114782003039</v>
+        <v>0.11858445038849186</v>
       </c>
       <c r="N34" s="44">
         <f t="shared" si="125"/>
-        <v>0.21261332251443607</v>
+        <v>0.1445290292338062</v>
       </c>
       <c r="O34" s="44">
         <f t="shared" si="125"/>
-        <v>0.22417935222921465</v>
+        <v>0.16863202927973325</v>
       </c>
       <c r="P34" s="44">
         <f t="shared" si="125"/>
-        <v>0.2349743132963413</v>
+        <v>0.19104940735471407</v>
       </c>
       <c r="Q34" s="44">
         <f t="shared" si="125"/>
-        <v>0.2450496102923263</v>
+        <v>0.21192214966394798</v>
       </c>
       <c r="R34" s="44">
         <f t="shared" ref="R34:U34" si="126">IFERROR(R25/R18,0)</f>
-        <v>0.25445322082191213</v>
+        <v>0.2313778120915217</v>
       </c>
       <c r="S34" s="44">
         <f t="shared" si="126"/>
-        <v>0.26322992398285905</v>
+        <v>0.24953189669034023</v>
       </c>
       <c r="T34" s="44">
         <f t="shared" si="126"/>
-        <v>0.27142151359974281</v>
+        <v>0.2664890820384298</v>
       </c>
       <c r="U34" s="44">
         <f t="shared" si="126"/>
-        <v>0.2790669972421676</v>
+        <v>0.28234432322033032</v>
       </c>
       <c r="V34" s="21"/>
     </row>
@@ -4331,64 +4334,64 @@
         <v>0.18300089899794614</v>
       </c>
       <c r="G37" s="65">
-        <f t="shared" si="129"/>
-        <v>0.17550615666915848</v>
+        <f>G18/F18-1</f>
+        <v>0.10422595253835154</v>
       </c>
       <c r="H37" s="65">
         <f t="shared" si="129"/>
-        <v>0.1802343219076239</v>
+        <v>0.10928951857780622</v>
       </c>
       <c r="I37" s="65">
         <f t="shared" si="129"/>
-        <v>0.18593653382251185</v>
+        <v>0.12395795680165</v>
       </c>
       <c r="J37" s="65">
         <f t="shared" si="129"/>
-        <v>0.19279428706178536</v>
+        <v>0.14100557709905548</v>
       </c>
       <c r="K37" s="65">
         <f t="shared" si="129"/>
-        <v>0.20099832929671524</v>
+        <v>0.16041314713501542</v>
       </c>
       <c r="L37" s="65">
         <f t="shared" si="129"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="M37" s="65">
         <f t="shared" si="129"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="N37" s="65">
         <f t="shared" si="129"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="O37" s="65">
         <f t="shared" si="129"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="P37" s="65">
         <f t="shared" si="129"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="Q37" s="65">
         <f t="shared" si="129"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="R37" s="65">
         <f t="shared" si="129"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="S37" s="65">
         <f t="shared" si="129"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="T37" s="65">
         <f t="shared" si="129"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="U37" s="65">
         <f t="shared" si="129"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="V37" s="20"/>
     </row>
@@ -4518,43 +4521,43 @@
       </c>
       <c r="L39" s="44">
         <f t="shared" si="131"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="M39" s="44">
         <f t="shared" si="131"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="N39" s="44">
         <f t="shared" si="131"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="O39" s="44">
         <f t="shared" si="131"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="P39" s="44">
         <f t="shared" si="131"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="Q39" s="44">
         <f t="shared" si="131"/>
-        <v>-2.0000000000000129E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="R39" s="44">
         <f t="shared" si="131"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="S39" s="44">
         <f t="shared" si="131"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="T39" s="44">
         <f t="shared" si="131"/>
-        <v>-1.9999999999999907E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="U39" s="44">
         <f t="shared" si="131"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="V39" s="21"/>
     </row>
@@ -4684,43 +4687,43 @@
       </c>
       <c r="L41" s="56">
         <f t="shared" si="133"/>
-        <v>1.1008899893206747E-2</v>
+        <v>3.3014754594881568E-2</v>
       </c>
       <c r="M41" s="56">
         <f t="shared" si="133"/>
-        <v>1.2204805409038899E-2</v>
+        <v>3.3886444580799813E-2</v>
       </c>
       <c r="N41" s="56">
         <f t="shared" si="133"/>
-        <v>1.3407315889817362E-2</v>
+        <v>3.472628750131368E-2</v>
       </c>
       <c r="O41" s="56">
         <f t="shared" si="133"/>
-        <v>1.4613606132800161E-2</v>
+        <v>3.5534108459872815E-2</v>
       </c>
       <c r="P41" s="56">
         <f t="shared" si="133"/>
-        <v>1.5820815155403123E-2</v>
+        <v>3.6309892070663485E-2</v>
       </c>
       <c r="Q41" s="56">
         <f t="shared" si="133"/>
-        <v>1.7026073252317753E-2</v>
+        <v>3.7053770427741162E-2</v>
       </c>
       <c r="R41" s="56">
         <f t="shared" si="133"/>
-        <v>1.8226529228114297E-2</v>
+        <v>3.7766010459052035E-2</v>
       </c>
       <c r="S41" s="56">
         <f t="shared" si="133"/>
-        <v>1.9419377257776871E-2</v>
+        <v>3.8447000933451436E-2</v>
       </c>
       <c r="T41" s="56">
         <f t="shared" si="133"/>
-        <v>2.0601882840411756E-2</v>
+        <v>3.9097239363164338E-2</v>
       </c>
       <c r="U41" s="56">
         <f t="shared" si="133"/>
-        <v>2.1771407342287441E-2</v>
+        <v>3.9717319015641461E-2</v>
       </c>
       <c r="V41" s="14"/>
     </row>
@@ -4773,63 +4776,63 @@
       </c>
       <c r="G43" s="66">
         <f>F43+G29</f>
-        <v>153975.40045609704</v>
+        <v>148524.82777885726</v>
       </c>
       <c r="H43" s="66">
         <f t="shared" ref="H43:U43" si="134">G43+H29</f>
-        <v>198441.39651625941</v>
+        <v>180335.87787630039</v>
       </c>
       <c r="I43" s="66">
         <f t="shared" si="134"/>
-        <v>249517.63927139068</v>
+        <v>210104.18841598619</v>
       </c>
       <c r="J43" s="66">
         <f t="shared" si="134"/>
-        <v>308602.94041192427</v>
+        <v>237564.20741036755</v>
       </c>
       <c r="K43" s="66">
         <f t="shared" si="134"/>
-        <v>377726.66429442435</v>
+        <v>262823.55636257539</v>
       </c>
       <c r="L43" s="66">
         <f t="shared" si="134"/>
-        <v>457432.24021482538</v>
+        <v>298993.99012603879</v>
       </c>
       <c r="M43" s="66">
         <f t="shared" si="134"/>
-        <v>548454.7277968399</v>
+        <v>347685.8497584376</v>
       </c>
       <c r="N43" s="66">
         <f t="shared" si="134"/>
-        <v>651576.63071932434</v>
+        <v>410705.78499434394</v>
       </c>
       <c r="O43" s="66">
         <f t="shared" si="134"/>
-        <v>767630.68454016862</v>
+        <v>490078.44336148794</v>
       </c>
       <c r="P43" s="66">
         <f t="shared" si="134"/>
-        <v>897502.8023502687</v>
+        <v>588070.44566378044</v>
       </c>
       <c r="Q43" s="66">
         <f t="shared" si="134"/>
-        <v>1042135.1869172393</v>
+        <v>707216.88291807717</v>
       </c>
       <c r="R43" s="66">
         <f t="shared" si="134"/>
-        <v>1202529.618444463</v>
+        <v>850350.59368824016</v>
       </c>
       <c r="S43" s="66">
         <f t="shared" si="134"/>
-        <v>1379750.9275617022</v>
+        <v>1020634.5070207337</v>
       </c>
       <c r="T43" s="66">
         <f t="shared" si="134"/>
-        <v>1574930.663680119</v>
+        <v>1221597.3650921653</v>
       </c>
       <c r="U43" s="66">
         <f t="shared" si="134"/>
-        <v>1789270.9693885078</v>
+        <v>1457173.1714964169</v>
       </c>
       <c r="V43" s="18"/>
     </row>
@@ -5977,27 +5980,25 @@
       </c>
       <c r="B59" s="72">
         <f>(B47/B31)/$C$2</f>
-        <v>1.9908489433566903E-2</v>
+        <v>1.5337847703014185E-2</v>
       </c>
       <c r="C59" s="72">
         <f>(C47/C31)/$C$2</f>
-        <v>1.9890562777397282E-2</v>
+        <v>1.5324036694244715E-2</v>
       </c>
       <c r="D59" s="72">
         <f>(D47/D31)/$C$2</f>
-        <v>1.9468077910528722E-2</v>
+        <v>1.4998546979594013E-2</v>
       </c>
       <c r="E59" s="72">
         <f>(E47/E31)/$C$2</f>
-        <v>1.9939858059560063E-2</v>
+        <v>1.5362014639925266E-2</v>
       </c>
       <c r="F59" s="72">
         <f>(F47/F31)/$C$2</f>
-        <v>2.2597931930620773E-2</v>
-      </c>
-      <c r="G59" s="77" t="s">
-        <v>131</v>
-      </c>
+        <v>1.7409841138953934E-2</v>
+      </c>
+      <c r="G59" s="77"/>
       <c r="I59" s="72"/>
       <c r="J59" s="72"/>
       <c r="K59" s="72"/>
@@ -6262,26 +6263,26 @@
       </c>
       <c r="G61" s="72">
         <f t="shared" si="135"/>
-        <v>0.2444717905583651</v>
+        <v>6.9894809326147778E-2</v>
       </c>
       <c r="H61" s="72">
         <f t="shared" ref="H61:K61" si="136">H29/H21-1</f>
-        <v>0.1868384937607932</v>
+        <v>-0.15093369928075628</v>
       </c>
       <c r="I61" s="72">
         <f t="shared" si="136"/>
-        <v>0.13606006817064875</v>
+        <v>-0.33788025358143736</v>
       </c>
       <c r="J61" s="72">
         <f t="shared" si="136"/>
-        <v>9.5167531595929056E-2</v>
+        <v>-0.49101856740773842</v>
       </c>
       <c r="K61" s="72">
         <f t="shared" si="136"/>
-        <v>6.769445470963853E-2</v>
+        <v>-0.60984065540664822</v>
       </c>
       <c r="L61" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N61" s="69"/>
       <c r="O61" s="69"/>
@@ -6399,46 +6400,46 @@
       </c>
       <c r="B62" s="76" t="str">
         <f>ROUND($C$4/B21,0)&amp;"x"</f>
-        <v>80x</v>
+        <v>104x</v>
       </c>
       <c r="C62" s="76" t="str">
         <f>ROUND($C$4/C21,0)&amp;"x"</f>
-        <v>71x</v>
+        <v>92x</v>
       </c>
       <c r="D62" s="76" t="str">
         <f>ROUND($C$4/D21,0)&amp;"x"</f>
-        <v>59x</v>
+        <v>77x</v>
       </c>
       <c r="E62" s="76" t="str">
         <f>ROUND($C$4/E21,0)&amp;"x"</f>
-        <v>46x</v>
+        <v>60x</v>
       </c>
       <c r="F62" s="76" t="str">
         <f>ROUND($C$4/F21,0)&amp;"x"</f>
-        <v>38x</v>
+        <v>49x</v>
       </c>
       <c r="G62" s="76" t="str">
         <f t="shared" ref="G62:J62" si="137">ROUND($C$4/G21,0)&amp;"x"</f>
-        <v>32x</v>
+        <v>41x</v>
       </c>
       <c r="H62" s="76" t="str">
         <f t="shared" si="137"/>
-        <v>26x</v>
+        <v>34x</v>
       </c>
       <c r="I62" s="76" t="str">
         <f t="shared" si="137"/>
-        <v>22x</v>
+        <v>28x</v>
       </c>
       <c r="J62" s="76" t="str">
         <f t="shared" si="137"/>
-        <v>18x</v>
+        <v>24x</v>
       </c>
       <c r="K62" s="76" t="str">
         <f>ROUND($C$4/K21,0)&amp;"x"</f>
-        <v>15x</v>
+        <v>20x</v>
       </c>
       <c r="L62" s="77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N62" s="69"/>
       <c r="O62" s="69"/>
@@ -6591,27 +6592,27 @@
       </c>
       <c r="F64" s="71">
         <f t="shared" ref="F64:G65" si="139">F10/E10-1</f>
-        <v>0.16118622042839559</v>
+        <v>0.16015352707808028</v>
       </c>
       <c r="G64" s="71">
         <f t="shared" si="139"/>
-        <v>0.14999999999999991</v>
+        <v>5.6682318208454818E-2</v>
       </c>
       <c r="H64" s="71">
         <f>H10/G10-1</f>
-        <v>0.14999999999999991</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="I64" s="71">
         <f>I10/H10-1</f>
-        <v>0.14999999999999991</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="J64" s="71">
         <f>J10/I10-1</f>
-        <v>0.14999999999999991</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="K64" s="71">
         <f>K10/J10-1</f>
-        <v>0.14999999999999991</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="L64" s="47"/>
       <c r="M64" s="47"/>
@@ -6626,7 +6627,7 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65" s="60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B65" s="47"/>
       <c r="C65" s="71"/>
@@ -6634,27 +6635,27 @@
       <c r="E65" s="71"/>
       <c r="F65" s="71">
         <f t="shared" si="139"/>
-        <v>2.8262141603276771</v>
+        <v>4.2182562902282035</v>
       </c>
       <c r="G65" s="71">
         <f t="shared" ref="G65" si="140">G11/F11-1</f>
-        <v>0.5</v>
+        <v>0.45977797712491575</v>
       </c>
       <c r="H65" s="71">
         <f t="shared" ref="H65" si="141">H11/G11-1</f>
-        <v>0.5</v>
+        <v>0.45000000000000018</v>
       </c>
       <c r="I65" s="71">
         <f t="shared" ref="I65" si="142">I11/H11-1</f>
-        <v>0.5</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="J65" s="71">
         <f t="shared" ref="J65" si="143">J11/I11-1</f>
-        <v>0.5</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="K65" s="71">
         <f t="shared" ref="K65" si="144">K11/J11-1</f>
-        <v>0.5</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="L65" s="47"/>
       <c r="M65" s="47"/>
@@ -6686,27 +6687,27 @@
       </c>
       <c r="F66" s="71">
         <f t="shared" ref="F66:G66" si="146">F12/E12-1</f>
-        <v>6.6080263881253432E-2</v>
+        <v>-6.4650907091808651E-2</v>
       </c>
       <c r="G66" s="71">
         <f t="shared" si="146"/>
-        <v>0.25</v>
+        <v>0.31695074644410481</v>
       </c>
       <c r="H66" s="71">
         <f t="shared" ref="H66:H67" si="147">H12/G12-1</f>
-        <v>0.25</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I66" s="71">
         <f t="shared" ref="I66:I67" si="148">I12/H12-1</f>
-        <v>0.25</v>
+        <v>0.30000000000000027</v>
       </c>
       <c r="J66" s="71">
         <f t="shared" ref="J66:J67" si="149">J12/I12-1</f>
-        <v>0.25</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="K66" s="71">
         <f t="shared" ref="K66:K67" si="150">K12/J12-1</f>
-        <v>0.25</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="L66" s="47"/>
       <c r="M66" s="47"/>
@@ -6738,27 +6739,27 @@
       </c>
       <c r="F67" s="71">
         <f t="shared" ref="F67" si="152">F13/E13-1</f>
-        <v>0.38386648122392208</v>
+        <v>0.54937413073713492</v>
       </c>
       <c r="G67" s="71">
         <f>G13/F13-1</f>
-        <v>5.0000000000000044E-2</v>
+        <v>-0.23752244165170555</v>
       </c>
       <c r="H67" s="71">
         <f t="shared" si="147"/>
-        <v>5.0000000000000044E-2</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="I67" s="71">
         <f t="shared" si="148"/>
-        <v>5.0000000000000044E-2</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="J67" s="71">
         <f t="shared" si="149"/>
-        <v>5.0000000000000044E-2</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="K67" s="71">
         <f t="shared" si="150"/>
-        <v>5.0000000000000044E-2</v>
+        <v>-0.19999999999999984</v>
       </c>
       <c r="L67" s="47"/>
       <c r="M67" s="47"/>
@@ -6858,13 +6859,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W60"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U55" sqref="U55"/>
+      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6884,7 +6885,7 @@
     <col min="23" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="84" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="81" t="s">
         <v>64</v>
       </c>
@@ -6949,13 +6950,19 @@
         <v>76</v>
       </c>
       <c r="V1" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="W1" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="W1" s="93" t="s">
+      <c r="X1" s="93" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" s="82" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y1" s="93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="81"/>
       <c r="B2" s="82" t="s">
         <v>54</v>
@@ -7023,8 +7030,14 @@
       <c r="W2" s="94">
         <v>44012</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X2" s="94">
+        <v>44104</v>
+      </c>
+      <c r="Y2" s="94">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -7083,7 +7096,7 @@
         <v>32494</v>
       </c>
       <c r="T3" s="29">
-        <v>33916</v>
+        <v>33796</v>
       </c>
       <c r="U3" s="29">
         <v>37934</v>
@@ -7094,10 +7107,17 @@
       <c r="W3" s="8">
         <v>29867</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X3" s="8">
+        <v>37095</v>
+      </c>
+      <c r="Y3" s="8">
+        <f>U3*1.1</f>
+        <v>41727.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -7123,7 +7143,9 @@
       <c r="S4" s="29">
         <v>2100</v>
       </c>
-      <c r="T4" s="29"/>
+      <c r="T4" s="29">
+        <v>2379</v>
+      </c>
       <c r="U4" s="29">
         <v>2614</v>
       </c>
@@ -7133,8 +7155,15 @@
       <c r="W4" s="8">
         <v>3007</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X4" s="8">
+        <v>3444</v>
+      </c>
+      <c r="Y4" s="8">
+        <f>U4*1.45</f>
+        <v>3790.2999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>58</v>
       </c>
@@ -7193,7 +7222,7 @@
         <v>4080</v>
       </c>
       <c r="T5" s="29">
-        <v>6428</v>
+        <v>4050</v>
       </c>
       <c r="U5" s="29">
         <v>5264</v>
@@ -7204,8 +7233,15 @@
       <c r="W5" s="8">
         <v>5124</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X5" s="8">
+        <v>5478</v>
+      </c>
+      <c r="Y5" s="8">
+        <f>U5*1.4</f>
+        <v>7369.5999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>77</v>
       </c>
@@ -7267,7 +7303,8 @@
         <v>270</v>
       </c>
       <c r="T6" s="29">
-        <v>155</v>
+        <f>155+119</f>
+        <v>274</v>
       </c>
       <c r="U6" s="29">
         <f>172+91</f>
@@ -7281,8 +7318,16 @@
         <f>148+151</f>
         <v>299</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X6" s="8">
+        <f>178-22</f>
+        <v>156</v>
+      </c>
+      <c r="Y6" s="8">
+        <f>U6*0.8</f>
+        <v>210.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -7305,7 +7350,7 @@
       <c r="U7" s="29"/>
       <c r="V7" s="87"/>
     </row>
-    <row r="8" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>94</v>
       </c>
@@ -7331,7 +7376,7 @@
       <c r="U8" s="29"/>
       <c r="V8" s="87"/>
     </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>95</v>
       </c>
@@ -7357,17 +7402,17 @@
       <c r="U9" s="53"/>
       <c r="V9" s="88"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B10" s="29"/>
       <c r="F10" s="28"/>
       <c r="I10" s="29"/>
     </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="31">
-        <f t="shared" ref="B11:W11" si="0">SUM(B3:B6)</f>
+        <f t="shared" ref="B11:V11" si="0">SUM(B3:B6)</f>
         <v>17258</v>
       </c>
       <c r="C11" s="31">
@@ -7439,7 +7484,7 @@
         <v>38944</v>
       </c>
       <c r="T11" s="31">
-        <f t="shared" si="0"/>
+        <f>SUM(T3:T6)</f>
         <v>40499</v>
       </c>
       <c r="U11" s="31">
@@ -7454,8 +7499,16 @@
         <f>SUM(W3:W6)</f>
         <v>38297</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X11" s="31">
+        <f>SUM(X3:X6)</f>
+        <v>46173</v>
+      </c>
+      <c r="Y11" s="31">
+        <f>SUM(Y3:Y6)</f>
+        <v>53097.700000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
@@ -7525,8 +7578,11 @@
       <c r="W12" s="95">
         <v>18553</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X12" s="95">
+        <v>21117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -7618,8 +7674,12 @@
         <f>W11-W12</f>
         <v>19744</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X13" s="34">
+        <f>X11-X12</f>
+        <v>25056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -7689,8 +7749,11 @@
       <c r="W14" s="95">
         <v>6875</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X14" s="95">
+        <v>6856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -7760,8 +7823,11 @@
       <c r="W15" s="95">
         <v>3901</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X15" s="95">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
@@ -7834,8 +7900,11 @@
       <c r="W16" s="95">
         <v>2585</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X16" s="95">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
@@ -7927,8 +7996,12 @@
         <f t="shared" si="10"/>
         <v>13361</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X17" s="34">
+        <f t="shared" ref="X17" si="11">SUM(X14:X16)</f>
+        <v>13843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
@@ -7953,75 +8026,79 @@
         <v>5342</v>
       </c>
       <c r="G18" s="34">
-        <f t="shared" ref="G18:H18" si="11">G13-G17</f>
+        <f t="shared" ref="G18:H18" si="12">G13-G17</f>
         <v>5968</v>
       </c>
       <c r="H18" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5767</v>
       </c>
       <c r="I18" s="34">
-        <f t="shared" ref="I18:P18" si="12">I13-I17</f>
+        <f t="shared" ref="I18:P18" si="13">I13-I17</f>
         <v>6639</v>
       </c>
       <c r="J18" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6568</v>
       </c>
       <c r="K18" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4132</v>
       </c>
       <c r="L18" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7782</v>
       </c>
       <c r="M18" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7664</v>
       </c>
       <c r="N18" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7001</v>
       </c>
       <c r="O18" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2807</v>
       </c>
       <c r="P18" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8310</v>
       </c>
       <c r="Q18" s="34">
-        <f t="shared" ref="Q18:S18" si="13">Q13-Q17</f>
+        <f t="shared" ref="Q18:S18" si="14">Q13-Q17</f>
         <v>8203</v>
       </c>
       <c r="R18" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8305</v>
       </c>
       <c r="S18" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9180</v>
       </c>
       <c r="T18" s="34">
-        <f t="shared" ref="T18" si="14">T13-T17</f>
+        <f t="shared" ref="T18" si="15">T13-T17</f>
         <v>9177</v>
       </c>
       <c r="U18" s="34">
-        <f t="shared" ref="U18:W18" si="15">U13-U17</f>
+        <f t="shared" ref="U18:W18" si="16">U13-U17</f>
         <v>9266</v>
       </c>
       <c r="V18" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7977</v>
       </c>
       <c r="W18" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6383</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X18" s="34">
+        <f t="shared" ref="X18" si="17">X13-X17</f>
+        <v>11213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>12</v>
       </c>
@@ -8091,8 +8168,11 @@
       <c r="W19" s="95">
         <v>1894</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X19" s="95">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
@@ -8117,27 +8197,27 @@
         <v>5129</v>
       </c>
       <c r="G20" s="34">
-        <f t="shared" ref="G20:I20" si="16">G18+G19</f>
+        <f t="shared" ref="G20:I20" si="18">G18+G19</f>
         <v>6119</v>
       </c>
       <c r="H20" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6045</v>
       </c>
       <c r="I20" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6857</v>
       </c>
       <c r="J20" s="35">
-        <f t="shared" ref="J20:K20" si="17">J18+J19</f>
+        <f t="shared" ref="J20:K20" si="19">J18+J19</f>
         <v>6819</v>
       </c>
       <c r="K20" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4377</v>
       </c>
       <c r="L20" s="34">
-        <f t="shared" ref="L20:N20" si="18">L18+L19</f>
+        <f t="shared" ref="L20:N20" si="20">L18+L19</f>
         <v>7979</v>
       </c>
       <c r="M20" s="34">
@@ -8145,11 +8225,11 @@
         <v>8018</v>
       </c>
       <c r="N20" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10543</v>
       </c>
       <c r="O20" s="34">
-        <f t="shared" ref="O20" si="19">O18+O19</f>
+        <f t="shared" ref="O20" si="21">O18+O19</f>
         <v>4215</v>
       </c>
       <c r="P20" s="34">
@@ -8165,27 +8245,31 @@
         <v>9843</v>
       </c>
       <c r="S20" s="34">
-        <f t="shared" ref="S20:V20" si="20">S18+S19</f>
+        <f t="shared" ref="S20:V20" si="22">S18+S19</f>
         <v>12147</v>
       </c>
       <c r="T20" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8628</v>
       </c>
       <c r="U20" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10704</v>
       </c>
       <c r="V20" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7757</v>
       </c>
       <c r="W20" s="34">
-        <f t="shared" ref="W20" si="21">W18+W19</f>
+        <f t="shared" ref="W20:X20" si="23">W18+W19</f>
         <v>8277</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X20" s="34">
+        <f t="shared" si="23"/>
+        <v>13359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
@@ -8256,8 +8340,11 @@
       <c r="W21" s="29">
         <v>1318</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X21" s="95">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>114</v>
       </c>
@@ -8287,7 +8374,7 @@
       <c r="U22" s="48"/>
       <c r="V22" s="91"/>
     </row>
-    <row r="23" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>15</v>
       </c>
@@ -8312,39 +8399,39 @@
         <v>4207</v>
       </c>
       <c r="G23" s="31">
-        <f t="shared" ref="G23:H23" si="22">G20-G21</f>
+        <f t="shared" ref="G23:H23" si="24">G20-G21</f>
         <v>4877</v>
       </c>
       <c r="H23" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5061</v>
       </c>
       <c r="I23" s="31">
-        <f t="shared" ref="I23:O23" si="23">I20-I21</f>
+        <f t="shared" ref="I23:O23" si="25">I20-I21</f>
         <v>5333</v>
       </c>
       <c r="J23" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5426</v>
       </c>
       <c r="K23" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3524</v>
       </c>
       <c r="L23" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6732</v>
       </c>
       <c r="M23" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6235.9623742161293</v>
       </c>
       <c r="N23" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9401</v>
       </c>
       <c r="O23" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3195</v>
       </c>
       <c r="P23" s="31">
@@ -8360,27 +8447,31 @@
         <v>8354</v>
       </c>
       <c r="S23" s="31">
-        <f t="shared" ref="S23:T23" si="24">S20-S21</f>
+        <f t="shared" ref="S23:T23" si="26">S20-S21</f>
         <v>9947</v>
       </c>
       <c r="T23" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7068</v>
       </c>
       <c r="U23" s="31">
-        <f t="shared" ref="U23:W23" si="25">U20-U21</f>
+        <f t="shared" ref="U23:W23" si="27">U20-U21</f>
         <v>10671</v>
       </c>
       <c r="V23" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6836</v>
       </c>
       <c r="W23" s="31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6959</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X23" s="31">
+        <f t="shared" ref="X23" si="28">X20-X21</f>
+        <v>11247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
@@ -8392,79 +8483,83 @@
         <v>7.1522174343835268</v>
       </c>
       <c r="F24" s="37">
-        <f t="shared" ref="F24:H24" si="26">IFERROR(F23/F25,0)</f>
+        <f t="shared" ref="F24:H24" si="29">IFERROR(F23/F25,0)</f>
         <v>6.1326530612244898</v>
       </c>
       <c r="G24" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>7.0886627906976747</v>
       </c>
       <c r="H24" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>7.3454281567489117</v>
       </c>
       <c r="I24" s="36">
-        <f t="shared" ref="I24:L24" si="27">IFERROR(I23/I25,0)</f>
+        <f t="shared" ref="I24:L24" si="30">IFERROR(I23/I25,0)</f>
         <v>7.7178002894356004</v>
       </c>
       <c r="J24" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7.8410404624277454</v>
       </c>
       <c r="K24" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.0851370851370854</v>
       </c>
       <c r="L24" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.6863309352517994</v>
       </c>
       <c r="M24" s="36">
-        <f t="shared" ref="M24" si="28">IFERROR(M23/M25,0)</f>
+        <f t="shared" ref="M24" si="31">IFERROR(M23/M25,0)</f>
         <v>8.9855365622710792</v>
       </c>
       <c r="N24" s="37">
-        <f t="shared" ref="N24:T24" si="29">IFERROR(N23/N25,0)</f>
+        <f t="shared" ref="N24:T24" si="32">IFERROR(N23/N25,0)</f>
         <v>13.526618705035972</v>
       </c>
       <c r="O24" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>4.5905172413793105</v>
       </c>
       <c r="P24" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>13.206896551724139</v>
       </c>
       <c r="Q24" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>12.766461358911911</v>
       </c>
       <c r="R24" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>12.033236479031505</v>
       </c>
       <c r="S24" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>14.149359886201992</v>
       </c>
       <c r="T24" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>10.126074498567336</v>
       </c>
       <c r="U24" s="36">
-        <f t="shared" ref="U24:W24" si="30">IFERROR(U23/U25,0)</f>
+        <f t="shared" ref="U24:W24" si="33">IFERROR(U23/U25,0)</f>
         <v>15.34967217783813</v>
       </c>
       <c r="V24" s="37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>9.8748026411774639</v>
       </c>
       <c r="W24" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>10.129194904399265</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X24" s="36">
+        <f t="shared" ref="X24" si="34">IFERROR(X23/X25,0)</f>
+        <v>16.398605528022852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>17</v>
       </c>
@@ -8540,8 +8635,11 @@
       <c r="W25" s="29">
         <v>687.024</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X25" s="8">
+        <v>685.851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -8556,286 +8654,298 @@
       <c r="M26" s="29"/>
       <c r="Q26" s="29"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="42">
-        <f t="shared" ref="B27:Q27" si="31">IFERROR(B13/B11,0)</f>
+        <f t="shared" ref="B27:Q27" si="35">IFERROR(B13/B11,0)</f>
         <v>0.63170703441882026</v>
       </c>
       <c r="C27" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.62864556890618828</v>
       </c>
       <c r="D27" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.62318607764390899</v>
       </c>
       <c r="E27" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.61610952224670634</v>
       </c>
       <c r="F27" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.62245149824751933</v>
       </c>
       <c r="G27" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.62186046511627902</v>
       </c>
       <c r="H27" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.61253396285243422</v>
       </c>
       <c r="I27" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.59096838551258446</v>
       </c>
       <c r="J27" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.60424242424242425</v>
       </c>
       <c r="K27" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.60119184928873515</v>
       </c>
       <c r="L27" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.59858850640933314</v>
       </c>
       <c r="M27" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.55861151502026418</v>
       </c>
       <c r="N27" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.56761702947408976</v>
       </c>
       <c r="O27" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.57488440456869894</v>
       </c>
       <c r="P27" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.57673384706579722</v>
       </c>
       <c r="Q27" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.54379264690905382</v>
       </c>
       <c r="R27" s="43">
-        <f t="shared" ref="R27:S27" si="32">IFERROR(R13/R11,0)</f>
+        <f t="shared" ref="R27:S27" si="36">IFERROR(R13/R11,0)</f>
         <v>0.55937147417375277</v>
       </c>
       <c r="S27" s="42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.55587510271158591</v>
       </c>
       <c r="T27" s="42">
-        <f t="shared" ref="T27:U27" si="33">IFERROR(T13/T11,0)</f>
+        <f t="shared" ref="T27:U27" si="37">IFERROR(T13/T11,0)</f>
         <v>0.56621151139534309</v>
       </c>
       <c r="U27" s="42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.54378730330982095</v>
       </c>
       <c r="V27" s="43">
-        <f t="shared" ref="V27:W27" si="34">IFERROR(V13/V11,0)</f>
+        <f t="shared" ref="V27:W27" si="38">IFERROR(V13/V11,0)</f>
         <v>0.53881289632887097</v>
       </c>
       <c r="W27" s="42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.51554952085019712</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X27" s="42">
+        <f t="shared" ref="X27" si="39">IFERROR(X13/X11,0)</f>
+        <v>0.54265479825872265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="44">
-        <f t="shared" ref="B28:Q28" si="35">IFERROR(B18/B11,0)</f>
+        <f t="shared" ref="B28:Q28" si="40">IFERROR(B18/B11,0)</f>
         <v>0.25767759879476188</v>
       </c>
       <c r="C28" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.2721836746206352</v>
       </c>
       <c r="D28" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.25210174029451138</v>
       </c>
       <c r="E28" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.25223873599324864</v>
       </c>
       <c r="F28" s="45">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.26371130967073109</v>
       </c>
       <c r="G28" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.27758139534883719</v>
       </c>
       <c r="H28" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.25687051801701483</v>
       </c>
       <c r="I28" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.25471915285451197</v>
       </c>
       <c r="J28" s="45">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.26537373737373737</v>
       </c>
       <c r="K28" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.15886197616301423</v>
       </c>
       <c r="L28" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.28021028373901774</v>
       </c>
       <c r="M28" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.23710670420443647</v>
       </c>
       <c r="N28" s="45">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.2247800680665254</v>
       </c>
       <c r="O28" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>8.5954006797929999E-2</v>
       </c>
       <c r="P28" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.24629519857735627</v>
       </c>
       <c r="Q28" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.2088552805784703</v>
       </c>
       <c r="R28" s="45">
-        <f t="shared" ref="R28:S28" si="36">IFERROR(R18/R11,0)</f>
+        <f t="shared" ref="R28:S28" si="41">IFERROR(R18/R11,0)</f>
         <v>0.22854233743361127</v>
       </c>
       <c r="S28" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.23572308956450289</v>
       </c>
       <c r="T28" s="44">
-        <f t="shared" ref="T28:U28" si="37">IFERROR(T18/T11,0)</f>
+        <f t="shared" ref="T28:U28" si="42">IFERROR(T18/T11,0)</f>
         <v>0.22659818760957059</v>
       </c>
       <c r="U28" s="44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0.20110689093868692</v>
       </c>
       <c r="V28" s="45">
-        <f t="shared" ref="V28:W28" si="38">IFERROR(V18/V11,0)</f>
+        <f t="shared" ref="V28:W28" si="43">IFERROR(V18/V11,0)</f>
         <v>0.1938093734055735</v>
       </c>
       <c r="W28" s="44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0.1666710186176463</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X28" s="44">
+        <f t="shared" ref="X28" si="44">IFERROR(X18/X11,0)</f>
+        <v>0.24284755159941956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="44">
-        <f t="shared" ref="B29:Q29" si="39">IFERROR(B21/B20,0)</f>
+        <f t="shared" ref="B29:Q29" si="45">IFERROR(B21/B20,0)</f>
         <v>0.23653344917463076</v>
       </c>
       <c r="C29" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.20682001614205003</v>
       </c>
       <c r="D29" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.18646493559599264</v>
       </c>
       <c r="E29" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>5.326923076923077E-2</v>
       </c>
       <c r="F29" s="45">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.17976213686878534</v>
       </c>
       <c r="G29" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.20297434221277988</v>
       </c>
       <c r="H29" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.16277915632754342</v>
       </c>
       <c r="I29" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.22225463030479803</v>
       </c>
       <c r="J29" s="45">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.20428215280832968</v>
       </c>
       <c r="K29" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.19488233950194198</v>
       </c>
       <c r="L29" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.15628524877804237</v>
       </c>
       <c r="M29" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.22225463030479803</v>
       </c>
       <c r="N29" s="45">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.10831831546998008</v>
       </c>
       <c r="O29" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.24199288256227758</v>
       </c>
       <c r="P29" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>8.8366557572151144E-2</v>
       </c>
       <c r="Q29" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.11159650516282764</v>
       </c>
       <c r="R29" s="45">
-        <f t="shared" ref="R29:S29" si="40">IFERROR(R21/R20,0)</f>
+        <f t="shared" ref="R29:S29" si="46">IFERROR(R21/R20,0)</f>
         <v>0.15127501777913238</v>
       </c>
       <c r="S29" s="44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.18111467852144564</v>
       </c>
       <c r="T29" s="44">
-        <f t="shared" ref="T29:U29" si="41">IFERROR(T21/T20,0)</f>
+        <f t="shared" ref="T29:U29" si="47">IFERROR(T21/T20,0)</f>
         <v>0.1808066759388039</v>
       </c>
       <c r="U29" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>3.0829596412556052E-3</v>
       </c>
       <c r="V29" s="45">
-        <f t="shared" ref="V29:W29" si="42">IFERROR(V21/V20,0)</f>
+        <f t="shared" ref="V29:W29" si="48">IFERROR(V21/V20,0)</f>
         <v>0.11873146835116669</v>
       </c>
       <c r="W29" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.15923643832306392</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X29" s="44">
+        <f t="shared" ref="X29" si="49">IFERROR(X21/X20,0)</f>
+        <v>0.15809566584325174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -8851,8 +8961,9 @@
       <c r="Q30" s="29"/>
       <c r="V30" s="27"/>
       <c r="W30" s="26"/>
-    </row>
-    <row r="31" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X30" s="26"/>
+    </row>
+    <row r="31" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>18</v>
       </c>
@@ -8861,79 +8972,87 @@
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
       <c r="F31" s="39">
-        <f t="shared" ref="F31:W31" si="43">IFERROR((F11/B11)-1,0)</f>
+        <f t="shared" ref="F31:Y31" si="50">IFERROR((F11/B11)-1,0)</f>
         <v>0.17377448139993046</v>
       </c>
       <c r="G31" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.21283917188469559</v>
       </c>
       <c r="H31" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.20219544846050863</v>
       </c>
       <c r="I31" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.22199821838811018</v>
       </c>
       <c r="J31" s="39">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.22179987164930637</v>
       </c>
       <c r="K31" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.20976744186046514</v>
       </c>
       <c r="L31" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.23700503318337707</v>
       </c>
       <c r="M31" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.24013965623081646</v>
       </c>
       <c r="N31" s="39">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.25842424242424245</v>
       </c>
       <c r="O31" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.25555555555555554</v>
       </c>
       <c r="P31" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.21489269768111763</v>
       </c>
       <c r="Q31" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.21510998360300704</v>
       </c>
       <c r="R31" s="39">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.16673088036987083</v>
       </c>
       <c r="S31" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.19251615273907574</v>
       </c>
       <c r="T31" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.2003260225251926</v>
       </c>
       <c r="U31" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.17310825949689379</v>
       </c>
       <c r="V31" s="39">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.13263986350752632</v>
       </c>
       <c r="W31" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>-1.6613599013968749E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X31" s="38">
+        <f t="shared" si="50"/>
+        <v>0.14010222474628997</v>
+      </c>
+      <c r="Y31" s="38">
+        <f t="shared" si="50"/>
+        <v>0.15241888225718947</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>61</v>
       </c>
@@ -8942,79 +9061,83 @@
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
       <c r="F32" s="41">
-        <f t="shared" ref="F32:W35" si="44">F14/B14-1</f>
+        <f t="shared" ref="F32:X35" si="51">F14/B14-1</f>
         <v>0.22302942244823831</v>
       </c>
       <c r="G32" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.20580853352456074</v>
       </c>
       <c r="H32" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.11331269349845208</v>
       </c>
       <c r="I32" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>3.1908831908831869E-2</v>
       </c>
       <c r="J32" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.17077517077517079</v>
       </c>
       <c r="K32" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.24055902468034485</v>
       </c>
       <c r="L32" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.16935483870967749</v>
       </c>
       <c r="M32" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.18884594146880174</v>
       </c>
       <c r="N32" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.27828513444951808</v>
       </c>
       <c r="O32" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.22579098753595406</v>
       </c>
       <c r="P32" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.24423305588585009</v>
       </c>
       <c r="Q32" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.4013005109150023</v>
       </c>
       <c r="R32" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.19646755308592967</v>
       </c>
       <c r="S32" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.21490027375831056</v>
       </c>
       <c r="T32" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.25267584097859319</v>
       </c>
       <c r="U32" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.19688432217434548</v>
       </c>
       <c r="V32" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.1311992038480676</v>
       </c>
       <c r="W32" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.10655078062127799</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X32" s="40">
+        <f t="shared" si="51"/>
+        <v>4.607873054623135E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>62</v>
       </c>
@@ -9023,79 +9146,83 @@
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
       <c r="F33" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.15593220338983049</v>
       </c>
       <c r="G33" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.16105769230769229</v>
       </c>
       <c r="H33" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.15384615384615374</v>
       </c>
       <c r="I33" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.16386711459499814</v>
       </c>
       <c r="J33" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.1076665270213657</v>
       </c>
       <c r="K33" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.19958592132505171</v>
       </c>
       <c r="L33" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.18596491228070167</v>
       </c>
       <c r="M33" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.38229634381013478</v>
       </c>
       <c r="N33" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.36308623298033282</v>
       </c>
       <c r="O33" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.30479806696582679</v>
       </c>
       <c r="P33" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.26528599605522674</v>
       </c>
       <c r="Q33" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.18329466357308588</v>
       </c>
       <c r="R33" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>8.3518312985571663E-2</v>
       </c>
       <c r="S33" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.11428571428571432</v>
       </c>
       <c r="T33" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.19745388412574694</v>
       </c>
       <c r="U33" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.12509803921568619</v>
       </c>
       <c r="V33" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.15236875800256078</v>
       </c>
       <c r="W33" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>-7.3836657169990549E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X33" s="40">
+        <f t="shared" si="51"/>
+        <v>-8.2013451941852944E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>63</v>
       </c>
@@ -9104,153 +9231,161 @@
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
       <c r="F34" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>-7.5748320097739796E-2</v>
       </c>
       <c r="G34" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="H34" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.2349356804333107</v>
       </c>
       <c r="I34" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.28753180661577615</v>
       </c>
       <c r="J34" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.19035029742233966</v>
       </c>
       <c r="K34" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>1.7315270935960592</v>
       </c>
       <c r="L34" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>-0.1255482456140351</v>
       </c>
       <c r="M34" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>-0.12252964426877466</v>
       </c>
       <c r="N34" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.12992781787895624</v>
       </c>
       <c r="O34" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.59445446348061326</v>
       </c>
       <c r="P34" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.29655172413793096</v>
       </c>
       <c r="Q34" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.13795045045045051</v>
       </c>
       <c r="R34" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>2.604422604422596E-2</v>
       </c>
       <c r="S34" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>-0.71115509684716527</v>
       </c>
       <c r="T34" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.25290135396518365</v>
       </c>
       <c r="U34" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.39980207817911917</v>
       </c>
       <c r="V34" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.3793103448275863</v>
       </c>
       <c r="W34" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.26529613313754274</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X34" s="40">
+        <f t="shared" si="51"/>
+        <v>6.3681976071015001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F35" s="57">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.12579395817195982</v>
       </c>
       <c r="G35" s="56">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.1713878778287703</v>
       </c>
       <c r="H35" s="56">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.15223665223665228</v>
       </c>
       <c r="I35" s="56">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.12923592320577248</v>
       </c>
       <c r="J35" s="57">
-        <f t="shared" ref="J35:W35" si="45">J17/F17-1</f>
+        <f t="shared" ref="J35:X35" si="52">J17/F17-1</f>
         <v>0.15412137057933117</v>
       </c>
       <c r="K35" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>0.55430964604161037</v>
       </c>
       <c r="L35" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>0.10732623669380081</v>
       </c>
       <c r="M35" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>0.18575992697398447</v>
       </c>
       <c r="N35" s="57">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>0.27316084416358644</v>
       </c>
       <c r="O35" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>0.38783137766188625</v>
       </c>
       <c r="P35" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>0.26091382040262379</v>
       </c>
       <c r="Q35" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>0.26587759815242484</v>
       </c>
       <c r="R35" s="57">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>0.12586626709121562</v>
       </c>
       <c r="S35" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>-0.21913947516753307</v>
       </c>
       <c r="T35" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>0.23365324244326846</v>
       </c>
       <c r="U35" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>0.20022805017103762</v>
       </c>
       <c r="V35" s="57">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>0.18116785892530363</v>
       </c>
       <c r="W35" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>7.1623355790824572E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X35" s="56">
+        <f t="shared" si="52"/>
+        <v>6.4708448451360479E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
       <c r="J36" s="57"/>
       <c r="K36" s="56"/>
       <c r="L36" s="56"/>
@@ -9264,7 +9399,7 @@
       <c r="T36" s="56"/>
       <c r="U36" s="56"/>
     </row>
-    <row r="37" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>33</v>
       </c>
@@ -9280,51 +9415,51 @@
         <v>70056</v>
       </c>
       <c r="G37" s="31">
-        <f t="shared" ref="G37:K37" si="46">G38-G39</f>
+        <f t="shared" ref="G37:K37" si="53">G38-G39</f>
         <v>74257</v>
       </c>
       <c r="H37" s="31">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>79118</v>
       </c>
       <c r="I37" s="31">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>82398</v>
       </c>
       <c r="J37" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>88502</v>
       </c>
       <c r="K37" s="31">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>90758</v>
       </c>
       <c r="L37" s="31">
-        <f t="shared" ref="L37:P37" si="47">L38-L39</f>
+        <f t="shared" ref="L37:P37" si="54">L38-L39</f>
         <v>96179</v>
       </c>
       <c r="M37" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>97902</v>
       </c>
       <c r="N37" s="32">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>98912</v>
       </c>
       <c r="O37" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>98273</v>
       </c>
       <c r="P37" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>102430</v>
       </c>
       <c r="Q37" s="31">
-        <f t="shared" ref="Q37:R37" si="48">Q38-Q39</f>
+        <f t="shared" ref="Q37:R37" si="55">Q38-Q39</f>
         <v>105128</v>
       </c>
       <c r="R37" s="32">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>109422</v>
       </c>
       <c r="S37" s="31">
@@ -9347,8 +9482,12 @@
         <f>W38-W39</f>
         <v>117062</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X37" s="31">
+        <f>X38-X39</f>
+        <v>118704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
@@ -9431,8 +9570,12 @@
         <f>17742+103338</f>
         <v>121080</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X38" s="6">
+        <f>112467+20139</f>
+        <v>132606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
@@ -9501,11 +9644,14 @@
       <c r="W39" s="29">
         <v>4018</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X39" s="95">
+        <v>13902</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="V40" s="27"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A41" s="24" t="s">
         <v>78</v>
       </c>
@@ -9588,8 +9734,12 @@
         <f>1697+20824</f>
         <v>22521</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X41" s="6">
+        <f>1520+20870</f>
+        <v>22390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" s="24" t="s">
         <v>79</v>
       </c>
@@ -9653,8 +9803,11 @@
       <c r="W42" s="29">
         <v>278492</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X42" s="95">
+        <v>299243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A43" s="24" t="s">
         <v>80</v>
       </c>
@@ -9719,14 +9872,17 @@
       <c r="W43" s="29">
         <v>71170</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X43" s="95">
+        <v>86323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E44" s="47"/>
       <c r="I44" s="47"/>
       <c r="M44" s="47"/>
       <c r="V44" s="27"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A45" s="24" t="s">
         <v>81</v>
       </c>
@@ -9735,11 +9891,11 @@
         <v>54679</v>
       </c>
       <c r="F45" s="35">
-        <f t="shared" ref="F45:O45" si="49">F42-F38-F41</f>
+        <f t="shared" ref="F45:O45" si="56">F42-F38-F41</f>
         <v>54960</v>
       </c>
       <c r="G45" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>56539</v>
       </c>
       <c r="H45" s="34">
@@ -9747,31 +9903,31 @@
         <v>57497</v>
       </c>
       <c r="I45" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>61360</v>
       </c>
       <c r="J45" s="35">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>60633</v>
       </c>
       <c r="K45" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>64371</v>
       </c>
       <c r="L45" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>69779</v>
       </c>
       <c r="M45" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>75985</v>
       </c>
       <c r="N45" s="35">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>83379</v>
       </c>
       <c r="O45" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>88799</v>
       </c>
       <c r="P45" s="34">
@@ -9787,27 +9943,31 @@
         <v>111855</v>
       </c>
       <c r="S45" s="34">
-        <f t="shared" ref="S45:T45" si="50">S42-S38-S41</f>
+        <f t="shared" ref="S45:T45" si="57">S42-S38-S41</f>
         <v>116143</v>
       </c>
       <c r="T45" s="34">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>122051</v>
       </c>
       <c r="U45" s="34">
-        <f t="shared" ref="U45:W45" si="51">U42-U38-U41</f>
+        <f t="shared" ref="U45:W45" si="58">U42-U38-U41</f>
         <v>133631</v>
       </c>
       <c r="V45" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>133600</v>
       </c>
       <c r="W45" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>134891</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X45" s="34">
+        <f t="shared" ref="X45" si="59">X42-X38-X41</f>
+        <v>144247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A46" s="24" t="s">
         <v>82</v>
       </c>
@@ -9816,11 +9976,11 @@
         <v>120331</v>
       </c>
       <c r="F46" s="35">
-        <f t="shared" ref="F46:P46" si="52">F42-F43</f>
+        <f t="shared" ref="F46:P46" si="60">F42-F43</f>
         <v>123569</v>
       </c>
       <c r="G46" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>127879</v>
       </c>
       <c r="H46" s="34">
@@ -9832,70 +9992,74 @@
         <v>139007</v>
       </c>
       <c r="J46" s="35">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>144949</v>
       </c>
       <c r="K46" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>148286</v>
       </c>
       <c r="L46" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>157100</v>
       </c>
       <c r="M46" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>152502</v>
       </c>
       <c r="N46" s="35">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>160825</v>
       </c>
       <c r="O46" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>162000</v>
       </c>
       <c r="P46" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>169840</v>
       </c>
       <c r="Q46" s="34">
-        <f t="shared" ref="Q46:S46" si="53">Q42-Q43</f>
+        <f t="shared" ref="Q46:S46" si="61">Q42-Q43</f>
         <v>177628</v>
       </c>
       <c r="R46" s="35">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>183472</v>
       </c>
       <c r="S46" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>192192</v>
       </c>
       <c r="T46" s="34">
-        <f t="shared" ref="T46:U46" si="54">T42-T43</f>
+        <f t="shared" ref="T46:U46" si="62">T42-T43</f>
         <v>194969</v>
       </c>
       <c r="U46" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>201442</v>
       </c>
       <c r="V46" s="35">
-        <f t="shared" ref="V46:W46" si="55">V42-V43</f>
+        <f t="shared" ref="V46:W46" si="63">V42-V43</f>
         <v>203659</v>
       </c>
       <c r="W46" s="34">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>207322</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X46" s="34">
+        <f t="shared" ref="X46" si="64">X42-X43</f>
+        <v>212920</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E47" s="47"/>
       <c r="I47" s="47"/>
       <c r="M47" s="47"/>
       <c r="V47" s="27"/>
       <c r="W47" s="26"/>
     </row>
-    <row r="48" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="30" t="s">
         <v>83</v>
       </c>
@@ -9903,55 +10067,55 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="31">
-        <f t="shared" ref="E48:T48" si="56">SUM(B23:E23)</f>
+        <f t="shared" ref="E48:T48" si="65">SUM(B23:E23)</f>
         <v>16348</v>
       </c>
       <c r="F48" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>17040</v>
       </c>
       <c r="G48" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>17986</v>
       </c>
       <c r="H48" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>19068</v>
       </c>
       <c r="I48" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>19478</v>
       </c>
       <c r="J48" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>20697</v>
       </c>
       <c r="K48" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>19344</v>
       </c>
       <c r="L48" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>21015</v>
       </c>
       <c r="M48" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>21917.962374216128</v>
       </c>
       <c r="N48" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>25892.962374216128</v>
       </c>
       <c r="O48" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>25563.962374216128</v>
       </c>
       <c r="P48" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>28023.962374216128</v>
       </c>
       <c r="Q48" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>30736</v>
       </c>
       <c r="R48" s="32">
@@ -9959,11 +10123,11 @@
         <v>29689</v>
       </c>
       <c r="S48" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>36441</v>
       </c>
       <c r="T48" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>34317</v>
       </c>
       <c r="U48" s="31">
@@ -9975,11 +10139,15 @@
         <v>34522</v>
       </c>
       <c r="W48" s="31">
-        <f t="shared" ref="W48" si="57">SUM(T23:W23)</f>
+        <f t="shared" ref="W48:X48" si="66">SUM(T23:W23)</f>
         <v>31534</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X48" s="31">
+        <f t="shared" si="66"/>
+        <v>35713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A49" s="24" t="s">
         <v>84</v>
       </c>
@@ -9988,39 +10156,39 @@
         <v>4.0912150651120659E-2</v>
       </c>
       <c r="F49" s="43">
-        <f t="shared" ref="F49:N49" si="58">F48/F46</f>
+        <f t="shared" ref="F49:N49" si="67">F48/F46</f>
         <v>0.1378986639043773</v>
       </c>
       <c r="G49" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0.14064858186254192</v>
       </c>
       <c r="H49" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0.14218921276928928</v>
       </c>
       <c r="I49" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0.1401224398771285</v>
       </c>
       <c r="J49" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0.14278815307452966</v>
       </c>
       <c r="K49" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0.13045061570208921</v>
       </c>
       <c r="L49" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0.13376830044557605</v>
       </c>
       <c r="M49" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0.14372245855278049</v>
       </c>
       <c r="N49" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0.16100085418446217</v>
       </c>
       <c r="O49" s="42">
@@ -10040,27 +10208,31 @@
         <v>0.16181760704630679</v>
       </c>
       <c r="S49" s="42">
-        <f t="shared" ref="S49:T49" si="59">S48/S46</f>
+        <f t="shared" ref="S49:T49" si="68">S48/S46</f>
         <v>0.18960726773226774</v>
       </c>
       <c r="T49" s="42">
-        <f t="shared" si="59"/>
+        <f t="shared" si="68"/>
         <v>0.1760125968743749</v>
       </c>
       <c r="U49" s="42">
-        <f t="shared" ref="U49:W49" si="60">U48/U46</f>
+        <f t="shared" ref="U49:W49" si="69">U48/U46</f>
         <v>0.17891005847837094</v>
       </c>
       <c r="V49" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>0.16950883584815796</v>
       </c>
       <c r="W49" s="42">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>0.15210156182170731</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X49" s="42">
+        <f t="shared" ref="X49" si="70">X48/X46</f>
+        <v>0.16772966372346421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>85</v>
       </c>
@@ -10069,43 +10241,43 @@
         <v>3.338509843280596E-2</v>
       </c>
       <c r="F50" s="43">
-        <f t="shared" ref="F50:O50" si="61">F48/F42</f>
+        <f t="shared" ref="F50:O50" si="71">F48/F42</f>
         <v>0.11379192905367053</v>
       </c>
       <c r="G50" s="42">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.11657117672983694</v>
       </c>
       <c r="H50" s="42">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.11921374446695177</v>
       </c>
       <c r="I50" s="42">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.11630878735041919</v>
       </c>
       <c r="J50" s="43">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.11980481141031281</v>
       </c>
       <c r="K50" s="42">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.10829633693686633</v>
       </c>
       <c r="L50" s="42">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.11087603410433902</v>
       </c>
       <c r="M50" s="42">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.11109233571157975</v>
       </c>
       <c r="N50" s="43">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.12512606554819691</v>
       </c>
       <c r="O50" s="42">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.12080696741276938</v>
       </c>
       <c r="P50" s="42">
@@ -10121,27 +10293,31 @@
         <v>0.12100721828904948</v>
       </c>
       <c r="S50" s="42">
-        <f t="shared" ref="S50:T50" si="62">S48/S42</f>
+        <f t="shared" ref="S50:T50" si="72">S48/S42</f>
         <v>0.14173807180835546</v>
       </c>
       <c r="T50" s="42">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>0.1304610635483037</v>
       </c>
       <c r="U50" s="42">
-        <f t="shared" ref="U50:W50" si="63">U48/U42</f>
+        <f t="shared" ref="U50:W50" si="73">U48/U42</f>
         <v>0.13062277779992679</v>
       </c>
       <c r="V50" s="43">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.12626781710515247</v>
       </c>
       <c r="W50" s="42">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0.11323125978484122</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X50" s="42">
+        <f t="shared" ref="X50" si="74">X48/X42</f>
+        <v>0.11934447923593869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A51" s="24" t="s">
         <v>86</v>
       </c>
@@ -10150,27 +10326,27 @@
         <v>4.8929086120359788E-2</v>
       </c>
       <c r="F51" s="43">
-        <f t="shared" ref="F51:O51" si="64">F48/(F46-F41)</f>
+        <f t="shared" ref="F51:O51" si="75">F48/(F46-F41)</f>
         <v>0.16377371547200276</v>
       </c>
       <c r="G51" s="42">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.16563829591291696</v>
       </c>
       <c r="H51" s="42">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.16623077727795796</v>
       </c>
       <c r="I51" s="42">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.16336218464841654</v>
       </c>
       <c r="J51" s="43">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.16522572147048259</v>
       </c>
       <c r="K51" s="42">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.15024582715205556</v>
       </c>
       <c r="L51" s="42">
@@ -10178,15 +10354,15 @@
         <v>0.15285192674163187</v>
       </c>
       <c r="M51" s="42">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.16471868494033748</v>
       </c>
       <c r="N51" s="43">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.18474651008330928</v>
       </c>
       <c r="O51" s="42">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.1807368507046381</v>
       </c>
       <c r="P51" s="42">
@@ -10202,27 +10378,31 @@
         <v>0.18162186632082514</v>
       </c>
       <c r="S51" s="42">
-        <f t="shared" ref="S51:T51" si="65">S48/(S46-S41)</f>
+        <f t="shared" ref="S51:T51" si="76">S48/(S46-S41)</f>
         <v>0.21150966393870799</v>
       </c>
       <c r="T51" s="42">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>0.19592584768745039</v>
       </c>
       <c r="U51" s="42">
-        <f t="shared" ref="U51:W51" si="66">U48/(U46-U41)</f>
+        <f t="shared" ref="U51:W51" si="77">U48/(U46-U41)</f>
         <v>0.2015220393761987</v>
       </c>
       <c r="V51" s="43">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.19063975481127649</v>
       </c>
       <c r="W51" s="42">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.17063760477486595</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X51" s="42">
+        <f t="shared" ref="X51" si="78">X48/(X46-X41)</f>
+        <v>0.18744029811578228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A52" s="24" t="s">
         <v>87</v>
       </c>
@@ -10231,43 +10411,43 @@
         <v>9.003456537244646E-2</v>
       </c>
       <c r="F52" s="43">
-        <f t="shared" ref="F52:O52" si="67">F48/F45</f>
+        <f t="shared" ref="F52:O52" si="79">F48/F45</f>
         <v>0.31004366812227074</v>
       </c>
       <c r="G52" s="42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.3181166982083164</v>
       </c>
       <c r="H52" s="42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.33163469398403395</v>
       </c>
       <c r="I52" s="42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.3174380704041721</v>
       </c>
       <c r="J52" s="43">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.3413487704715254</v>
       </c>
       <c r="K52" s="42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.30050799272964535</v>
       </c>
       <c r="L52" s="42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.30116510698061022</v>
       </c>
       <c r="M52" s="42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.28845117291855138</v>
       </c>
       <c r="N52" s="43">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.31054536962803736</v>
       </c>
       <c r="O52" s="42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>0.28788570112519429</v>
       </c>
       <c r="P52" s="42">
@@ -10283,110 +10463,123 @@
         <v>0.26542398641097847</v>
       </c>
       <c r="S52" s="42">
-        <f t="shared" ref="S52:T52" si="68">S48/S45</f>
+        <f t="shared" ref="S52:T52" si="80">S48/S45</f>
         <v>0.31375976167310987</v>
       </c>
       <c r="T52" s="42">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>0.28116934724008819</v>
       </c>
       <c r="U52" s="42">
-        <f t="shared" ref="U52:W52" si="69">U48/U45</f>
+        <f t="shared" ref="U52:W52" si="81">U48/U45</f>
         <v>0.26969789943950129</v>
       </c>
       <c r="V52" s="43">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.25839820359281435</v>
       </c>
       <c r="W52" s="42">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.23377393599276453</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X52" s="42">
+        <f t="shared" ref="X52" si="82">X48/X45</f>
+        <v>0.24758227207498248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
       <c r="V53" s="27"/>
       <c r="W53" s="26"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X53" s="26"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F54" s="43">
-        <f t="shared" ref="F54:W55" si="70">F3/B3-1</f>
+        <f t="shared" ref="F54:Y55" si="83">F3/B3-1</f>
         <v>0.16198091307712148</v>
       </c>
       <c r="G54" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.1947200898708108</v>
       </c>
       <c r="H54" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.1811572611882486</v>
       </c>
       <c r="I54" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.17407485061327188</v>
       </c>
       <c r="J54" s="43">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.18817980022197567</v>
       </c>
       <c r="K54" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.18434937052708555</v>
       </c>
       <c r="L54" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.2141163412542253</v>
       </c>
       <c r="M54" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.21554533684539479</v>
       </c>
       <c r="N54" s="43">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.24431367054317876</v>
       </c>
       <c r="O54" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.23884086097388857</v>
       </c>
       <c r="P54" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.20315811344275914</v>
       </c>
       <c r="Q54" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.19432915855584532</v>
       </c>
       <c r="R54" s="43">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.14807446888371745</v>
       </c>
       <c r="S54" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.15690532986791039</v>
       </c>
       <c r="T54" s="42">
-        <f t="shared" si="70"/>
-        <v>0.17137528493472409</v>
+        <f t="shared" si="83"/>
+        <v>0.16723077985770529</v>
       </c>
       <c r="U54" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.16655390860446517</v>
       </c>
       <c r="V54" s="43">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.10383496256579594</v>
       </c>
       <c r="W54" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>-8.0845694589770423E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X54" s="42">
+        <f t="shared" si="83"/>
+        <v>9.7615102378979746E-2</v>
+      </c>
+      <c r="Y54" s="42">
+        <f t="shared" si="83"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A55" s="79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="42"/>
@@ -10404,173 +10597,197 @@
       <c r="S55" s="42"/>
       <c r="T55" s="42"/>
       <c r="U55" s="42">
-        <f t="shared" ref="U55:W57" si="71">U4/Q4-1</f>
+        <f t="shared" ref="U55:Y57" si="84">U4/Q4-1</f>
         <v>0.529549444119368</v>
       </c>
       <c r="V55" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v>0.52164383561643834</v>
       </c>
       <c r="W55" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0.43190476190476201</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X55" s="42">
+        <f t="shared" si="83"/>
+        <v>0.44766708701134927</v>
+      </c>
+      <c r="Y55" s="42">
+        <f t="shared" si="83"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
         <v>92</v>
       </c>
       <c r="F56" s="43">
-        <f t="shared" ref="F56:T57" si="72">F5/B5-1</f>
+        <f t="shared" ref="F56:T57" si="85">F5/B5-1</f>
         <v>0.24011976047904193</v>
       </c>
       <c r="G56" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.33251533742331296</v>
       </c>
       <c r="H56" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.38790644609241309</v>
       </c>
       <c r="I56" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.61970490242741549</v>
       </c>
       <c r="J56" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.49444712699179139</v>
       </c>
       <c r="K56" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.42265193370165743</v>
       </c>
       <c r="L56" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.3995067817509248</v>
       </c>
       <c r="M56" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.37731413458712892</v>
       </c>
       <c r="N56" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.40678513731825516</v>
       </c>
       <c r="O56" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.43203883495145634</v>
       </c>
       <c r="P56" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.3627019089574155</v>
       </c>
       <c r="Q56" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>1.7921911670578217E-2</v>
       </c>
       <c r="R56" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>-0.16858061552595316</v>
       </c>
       <c r="S56" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>-7.7966101694915246E-2</v>
       </c>
       <c r="T56" s="42">
-        <f t="shared" si="72"/>
-        <v>0.38534482758620681</v>
+        <f t="shared" si="85"/>
+        <v>-0.12715517241379315</v>
       </c>
       <c r="U56" s="42">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v>0.10333263466778453</v>
       </c>
       <c r="V56" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v>0.22513812154696122</v>
       </c>
       <c r="W56" s="42">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v>0.25588235294117645</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X56" s="42">
+        <f t="shared" si="84"/>
+        <v>0.35259259259259257</v>
+      </c>
+      <c r="Y56" s="42">
+        <f t="shared" si="84"/>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
         <v>93</v>
       </c>
       <c r="F57" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>1.0750000000000002</v>
       </c>
       <c r="G57" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>1.5</v>
       </c>
       <c r="H57" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.39716312056737579</v>
       </c>
       <c r="I57" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.74666666666666659</v>
       </c>
       <c r="J57" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.46987951807228923</v>
       </c>
       <c r="K57" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.34054054054054061</v>
       </c>
       <c r="L57" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.53299492385786795</v>
       </c>
       <c r="M57" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.56106870229007644</v>
       </c>
       <c r="N57" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>-0.38524590163934425</v>
       </c>
       <c r="O57" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>-0.41532258064516125</v>
       </c>
       <c r="P57" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>-0.51655629139072845</v>
       </c>
       <c r="Q57" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>-0.32029339853300731</v>
       </c>
       <c r="R57" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>1.0466666666666669</v>
       </c>
       <c r="S57" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v>0.86206896551724133</v>
       </c>
       <c r="T57" s="42">
-        <f t="shared" si="72"/>
-        <v>6.164383561643838E-2</v>
+        <f t="shared" si="85"/>
+        <v>0.87671232876712324</v>
       </c>
       <c r="U57" s="42">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v>-5.3956834532374098E-2</v>
       </c>
       <c r="V57" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v>-0.40065146579804556</v>
       </c>
       <c r="W57" s="42">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v>0.1074074074074074</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X57" s="42">
+        <f t="shared" si="84"/>
+        <v>-0.43065693430656937</v>
+      </c>
+      <c r="Y57" s="42">
+        <f t="shared" si="84"/>
+        <v>-0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="22" t="s">
         <v>96</v>
       </c>
@@ -10596,7 +10813,7 @@
       <c r="U59" s="42"/>
       <c r="V59" s="92"/>
     </row>
-    <row r="60" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="22" t="s">
         <v>113</v>
       </c>

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29404B0-E1C5-014E-8629-941E0D2E2836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9E7486-50FA-314E-B25C-2DF75763F24E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18340" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-66900" yWindow="-2520" windowWidth="34960" windowHeight="24020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -1154,10 +1154,10 @@
   <dimension ref="A1:MH65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6909,10 +6909,10 @@
   <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="U26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777734E7-4C79-934C-9772-2B3C4F570F55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76F50E1-724A-EA43-AD7D-DC1D3CC147FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-63740" yWindow="-5940" windowWidth="34960" windowHeight="24020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-63740" yWindow="-5940" windowWidth="34960" windowHeight="24020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="128">
   <si>
     <t>Q117</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Equity</t>
   </si>
   <si>
-    <t>NI 12M</t>
-  </si>
-  <si>
     <t>ROE</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
     <t>Alphabet Inc (GOOGL)</t>
   </si>
   <si>
-    <t>Expected return on invested capital (innovation grade)</t>
-  </si>
-  <si>
     <t>Google advertising y/y</t>
   </si>
   <si>
@@ -379,18 +373,9 @@
     <t>31/12/2019</t>
   </si>
   <si>
-    <t>Risk-free rate + market premium (opportunity cost)</t>
-  </si>
-  <si>
-    <t>Net present value on future net income (terminal value)</t>
-  </si>
-  <si>
     <t>OE y/y</t>
   </si>
   <si>
-    <t>http://www.worldgovernmentbonds.com/country/united-states/</t>
-  </si>
-  <si>
     <t>30/6/2019</t>
   </si>
   <si>
@@ -428,6 +413,15 @@
   </si>
   <si>
     <t>Q420</t>
+  </si>
+  <si>
+    <t>Net Income TTM</t>
+  </si>
+  <si>
+    <t>Revenue TTM</t>
+  </si>
+  <si>
+    <t>Revenue TTM y/y</t>
   </si>
 </sst>
 </file>
@@ -552,7 +546,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -730,6 +724,20 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -819,7 +827,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>307731</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1128,11 +1136,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:MH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1143,10 +1151,10 @@
   <sheetData>
     <row r="1" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.15">
@@ -1180,7 +1188,7 @@
         <v>682.96900000000005</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>38</v>
@@ -1188,9 +1196,7 @@
       <c r="F3" s="7">
         <v>0.05</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="G3" s="5"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:122" x14ac:dyDescent="0.15">
@@ -1212,13 +1218,9 @@
         <f>6%</f>
         <v>0.06</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="G4" s="5"/>
       <c r="I4" s="19"/>
-      <c r="L4" s="9" t="s">
-        <v>116</v>
-      </c>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:122" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -1229,7 +1231,7 @@
         <v>122762</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>40</v>
@@ -1238,9 +1240,7 @@
         <f>NPV(F4,H26:MH26)</f>
         <v>3090562.0429130816</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="G5" s="5"/>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.15">
@@ -1539,7 +1539,7 @@
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -2033,87 +2033,87 @@
         <v>4</v>
       </c>
       <c r="B15" s="25">
-        <f>SUM(B10:B13)</f>
+        <f t="shared" ref="B15:L15" si="4">SUM(B10:B13)</f>
         <v>74989</v>
       </c>
       <c r="C15" s="25">
-        <f>SUM(C10:C13)</f>
+        <f t="shared" si="4"/>
         <v>90272</v>
       </c>
       <c r="D15" s="25">
-        <f>SUM(D10:D13)</f>
+        <f t="shared" si="4"/>
         <v>110855</v>
       </c>
       <c r="E15" s="25">
-        <f>SUM(E10:E13)</f>
+        <f t="shared" si="4"/>
         <v>136819</v>
       </c>
       <c r="F15" s="25">
-        <f>SUM(F10:F13)</f>
+        <f t="shared" si="4"/>
         <v>161857</v>
       </c>
       <c r="G15" s="25">
-        <f>SUM(G10:G13)</f>
+        <f t="shared" si="4"/>
         <v>182527</v>
       </c>
       <c r="H15" s="53">
-        <f>SUM(H10:H13)</f>
+        <f t="shared" si="4"/>
         <v>201135.85</v>
       </c>
       <c r="I15" s="53">
-        <f>SUM(I10:I13)</f>
+        <f t="shared" si="4"/>
         <v>223168.7</v>
       </c>
       <c r="J15" s="53">
-        <f>SUM(J10:J13)</f>
+        <f t="shared" si="4"/>
         <v>248989.57525000005</v>
       </c>
       <c r="K15" s="53">
-        <f>SUM(K10:K13)</f>
+        <f t="shared" si="4"/>
         <v>278795.54142500006</v>
       </c>
       <c r="L15" s="53">
-        <f>SUM(L10:L13)</f>
+        <f t="shared" si="4"/>
         <v>312573.47361437511</v>
       </c>
       <c r="M15" s="53">
-        <f t="shared" ref="M15:V15" si="4">L15*1.1</f>
+        <f t="shared" ref="M15:V15" si="5">L15*1.1</f>
         <v>343830.82097581262</v>
       </c>
       <c r="N15" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>378213.90307339391</v>
       </c>
       <c r="O15" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>416035.29338073335</v>
       </c>
       <c r="P15" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>457638.82271880674</v>
       </c>
       <c r="Q15" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>503402.70499068743</v>
       </c>
       <c r="R15" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>553742.97548975621</v>
       </c>
       <c r="S15" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>609117.27303873189</v>
       </c>
       <c r="T15" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>670029.00034260517</v>
       </c>
       <c r="U15" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>737031.90037686576</v>
       </c>
       <c r="V15" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>810735.09041455237</v>
       </c>
     </row>
@@ -2146,63 +2146,63 @@
         <v>84732</v>
       </c>
       <c r="H16" s="23">
-        <f t="shared" ref="H16" si="5">H15-H17</f>
+        <f t="shared" ref="H16" si="6">H15-H17</f>
         <v>93370.530618483826</v>
       </c>
       <c r="I16" s="23">
-        <f t="shared" ref="I16:Q16" si="6">I15-I17</f>
+        <f t="shared" ref="I16:Q16" si="7">I15-I17</f>
         <v>103598.53768702711</v>
       </c>
       <c r="J16" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>115585.00764315965</v>
       </c>
       <c r="K16" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>129421.4215761126</v>
       </c>
       <c r="L16" s="23">
-        <f t="shared" ref="L16" si="7">L15-L17</f>
+        <f t="shared" ref="L16" si="8">L15-L17</f>
         <v>145101.68668905547</v>
       </c>
       <c r="M16" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>159611.85535796103</v>
       </c>
       <c r="N16" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>175573.04089375713</v>
       </c>
       <c r="O16" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>193130.34498313288</v>
       </c>
       <c r="P16" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>212443.37948144617</v>
       </c>
       <c r="Q16" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>233687.71742959082</v>
       </c>
       <c r="R16" s="23">
-        <f t="shared" ref="R16:U16" si="8">R15-R17</f>
+        <f t="shared" ref="R16:U16" si="9">R15-R17</f>
         <v>257056.48917254992</v>
       </c>
       <c r="S16" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>282762.13808980491</v>
       </c>
       <c r="T16" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>311038.35189878545</v>
       </c>
       <c r="U16" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>342142.18708866404</v>
       </c>
       <c r="V16" s="23">
-        <f t="shared" ref="V16" si="9">V15-V17</f>
+        <f t="shared" ref="V16" si="10">V15-V17</f>
         <v>376356.40579753049</v>
       </c>
     </row>
@@ -2211,87 +2211,87 @@
         <v>6</v>
       </c>
       <c r="B17" s="28">
-        <f t="shared" ref="B17:G17" si="10">B15-B16</f>
+        <f t="shared" ref="B17:G17" si="11">B15-B16</f>
         <v>46825</v>
       </c>
       <c r="C17" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>55134</v>
       </c>
       <c r="D17" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>65272</v>
       </c>
       <c r="E17" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>77270</v>
       </c>
       <c r="F17" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>89961</v>
       </c>
       <c r="G17" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>97795</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" ref="H17:V17" si="11">H15*G30</f>
+        <f t="shared" ref="H17:V17" si="12">H15*G30</f>
         <v>107765.31938151618</v>
       </c>
       <c r="I17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>119570.1623129729</v>
       </c>
       <c r="J17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>133404.5676068404</v>
       </c>
       <c r="K17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>149374.11984888747</v>
       </c>
       <c r="L17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>167471.78692531964</v>
       </c>
       <c r="M17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>184218.96561785159</v>
       </c>
       <c r="N17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>202640.86217963678</v>
       </c>
       <c r="O17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>222904.94839760047</v>
       </c>
       <c r="P17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>245195.44323736057</v>
       </c>
       <c r="Q17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>269714.98756109661</v>
       </c>
       <c r="R17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>296686.48631720629</v>
       </c>
       <c r="S17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>326355.13494892698</v>
       </c>
       <c r="T17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>358990.64844381972</v>
       </c>
       <c r="U17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>394889.71328820172</v>
       </c>
       <c r="V17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>434378.68461702188</v>
       </c>
     </row>
@@ -2328,59 +2328,59 @@
         <v>30330.300000000003</v>
       </c>
       <c r="I18" s="23">
-        <f t="shared" ref="I18:L18" si="12">H18*1.1</f>
+        <f t="shared" ref="I18:L18" si="13">H18*1.1</f>
         <v>33363.330000000009</v>
       </c>
       <c r="J18" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>36699.663000000015</v>
       </c>
       <c r="K18" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40369.629300000022</v>
       </c>
       <c r="L18" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44406.592230000031</v>
       </c>
       <c r="M18" s="23">
-        <f t="shared" ref="M18:V18" si="13">L18*1.05</f>
+        <f t="shared" ref="M18:V18" si="14">L18*1.05</f>
         <v>46626.921841500036</v>
       </c>
       <c r="N18" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>48958.267933575036</v>
       </c>
       <c r="O18" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>51406.181330253792</v>
       </c>
       <c r="P18" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>53976.490396766487</v>
       </c>
       <c r="Q18" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>56675.314916604817</v>
       </c>
       <c r="R18" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>59509.080662435059</v>
       </c>
       <c r="S18" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>62484.534695556817</v>
       </c>
       <c r="T18" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>65608.761430334664</v>
       </c>
       <c r="U18" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>68889.199501851399</v>
       </c>
       <c r="V18" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>72333.659476943969</v>
       </c>
     </row>
@@ -2417,59 +2417,59 @@
         <v>20637.899999999998</v>
       </c>
       <c r="I19" s="23">
-        <f t="shared" ref="I19:L19" si="14">H19*1.15</f>
+        <f t="shared" ref="I19:L19" si="15">H19*1.15</f>
         <v>23733.584999999995</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27293.622749999991</v>
       </c>
       <c r="K19" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31387.666162499987</v>
       </c>
       <c r="L19" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36095.816086874984</v>
       </c>
       <c r="M19" s="23">
-        <f t="shared" ref="M19:V19" si="15">L19*1.05</f>
+        <f t="shared" ref="M19:V19" si="16">L19*1.05</f>
         <v>37900.606891218733</v>
       </c>
       <c r="N19" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>39795.637235779672</v>
       </c>
       <c r="O19" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>41785.419097568658</v>
       </c>
       <c r="P19" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43874.690052447091</v>
       </c>
       <c r="Q19" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>46068.424555069447</v>
       </c>
       <c r="R19" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48371.845782822922</v>
       </c>
       <c r="S19" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50790.438071964069</v>
       </c>
       <c r="T19" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>53329.959975562277</v>
       </c>
       <c r="U19" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>55996.457974340396</v>
       </c>
       <c r="V19" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>58796.280873057418</v>
       </c>
     </row>
@@ -2506,59 +2506,59 @@
         <v>12709.8</v>
       </c>
       <c r="I20" s="23">
-        <f t="shared" ref="I20:L20" si="16">H20*1.15</f>
+        <f t="shared" ref="I20:L20" si="17">H20*1.15</f>
         <v>14616.269999999999</v>
       </c>
       <c r="J20" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16808.710499999997</v>
       </c>
       <c r="K20" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19330.017074999996</v>
       </c>
       <c r="L20" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>22229.519636249996</v>
       </c>
       <c r="M20" s="23">
-        <f t="shared" ref="M20:V20" si="17">L20*0.98</f>
+        <f t="shared" ref="M20:V20" si="18">L20*0.98</f>
         <v>21784.929243524995</v>
       </c>
       <c r="N20" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>21349.230658654495</v>
       </c>
       <c r="O20" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20922.246045481403</v>
       </c>
       <c r="P20" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20503.801124571775</v>
       </c>
       <c r="Q20" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20093.725102080338</v>
       </c>
       <c r="R20" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19691.850600038731</v>
       </c>
       <c r="S20" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19298.013588037957</v>
       </c>
       <c r="T20" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18912.053316277197</v>
       </c>
       <c r="U20" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18533.812249951654</v>
       </c>
       <c r="V20" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18163.136004952619</v>
       </c>
     </row>
@@ -2567,87 +2567,87 @@
         <v>10</v>
       </c>
       <c r="B21" s="28">
-        <f t="shared" ref="B21:G21" si="18">SUM(B18:B20)</f>
+        <f t="shared" ref="B21:G21" si="19">SUM(B18:B20)</f>
         <v>27465</v>
       </c>
       <c r="C21" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31418</v>
       </c>
       <c r="D21" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39126</v>
       </c>
       <c r="E21" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>50949</v>
       </c>
       <c r="F21" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>54033</v>
       </c>
       <c r="G21" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>56571</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" ref="H21" si="19">SUM(H18:H20)</f>
+        <f t="shared" ref="H21" si="20">SUM(H18:H20)</f>
         <v>63678</v>
       </c>
       <c r="I21" s="23">
-        <f t="shared" ref="I21:Q21" si="20">SUM(I18:I20)</f>
+        <f t="shared" ref="I21:Q21" si="21">SUM(I18:I20)</f>
         <v>71713.185000000012</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>80801.996250000011</v>
       </c>
       <c r="K21" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>91087.312537500009</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" ref="L21" si="21">SUM(L18:L20)</f>
+        <f t="shared" ref="L21" si="22">SUM(L18:L20)</f>
         <v>102731.92795312502</v>
       </c>
       <c r="M21" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>106312.45797624376</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>110103.1358280092</v>
       </c>
       <c r="O21" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>114113.84647330384</v>
       </c>
       <c r="P21" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>118354.98157378535</v>
       </c>
       <c r="Q21" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>122837.46457375459</v>
       </c>
       <c r="R21" s="23">
-        <f t="shared" ref="R21:U21" si="22">SUM(R18:R20)</f>
+        <f t="shared" ref="R21:U21" si="23">SUM(R18:R20)</f>
         <v>127572.77704529671</v>
       </c>
       <c r="S21" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>132572.98635555885</v>
       </c>
       <c r="T21" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>137850.77472217413</v>
       </c>
       <c r="U21" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>143419.46972614343</v>
       </c>
       <c r="V21" s="23">
-        <f t="shared" ref="V21" si="23">SUM(V18:V20)</f>
+        <f t="shared" ref="V21" si="24">SUM(V18:V20)</f>
         <v>149293.07635495401</v>
       </c>
     </row>
@@ -2656,39 +2656,39 @@
         <v>11</v>
       </c>
       <c r="B22" s="28">
-        <f t="shared" ref="B22:G22" si="24">B17-B21</f>
+        <f t="shared" ref="B22:G22" si="25">B17-B21</f>
         <v>19360</v>
       </c>
       <c r="C22" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>23716</v>
       </c>
       <c r="D22" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>26146</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>26321</v>
       </c>
       <c r="F22" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>35928</v>
       </c>
       <c r="G22" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>41224</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" ref="H22" si="25">H17-H21</f>
+        <f t="shared" ref="H22" si="26">H17-H21</f>
         <v>44087.319381516179</v>
       </c>
       <c r="I22" s="23">
-        <f t="shared" ref="I22:Q22" si="26">I17-I21</f>
+        <f t="shared" ref="I22:Q22" si="27">I17-I21</f>
         <v>47856.977312972886</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>52602.571356840388</v>
       </c>
       <c r="K22" s="23">
@@ -2700,43 +2700,43 @@
         <v>64739.858972194619</v>
       </c>
       <c r="M22" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>77906.507641607823</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>92537.726351627585</v>
       </c>
       <c r="O22" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>108791.10192429663</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>126840.46166357522</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>146877.52298734203</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" ref="R22:U22" si="27">R17-R21</f>
+        <f t="shared" ref="R22:U22" si="28">R17-R21</f>
         <v>169113.70927190958</v>
       </c>
       <c r="S22" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>193782.14859336813</v>
       </c>
       <c r="T22" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>221139.87372164559</v>
       </c>
       <c r="U22" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>251470.24356205828</v>
       </c>
       <c r="V22" s="23">
-        <f t="shared" ref="V22" si="28">V17-V21</f>
+        <f t="shared" ref="V22" si="29">V17-V21</f>
         <v>285085.60826206789</v>
       </c>
     </row>
@@ -2769,63 +2769,63 @@
         <v>6858</v>
       </c>
       <c r="H23" s="23">
-        <f t="shared" ref="H23:V23" si="29">G40*$F$3</f>
+        <f t="shared" ref="H23:V23" si="30">G40*$F$3</f>
         <v>6138.1</v>
       </c>
       <c r="I23" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8272.6803237144377</v>
       </c>
       <c r="J23" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10658.190773273649</v>
       </c>
       <c r="K23" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>13346.773163803497</v>
       </c>
       <c r="L23" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16391.20033399911</v>
       </c>
       <c r="M23" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>19839.270354512344</v>
       </c>
       <c r="N23" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>23993.465919347451</v>
       </c>
       <c r="O23" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>28946.041590863893</v>
       </c>
       <c r="P23" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>34799.870190258218</v>
       </c>
       <c r="Q23" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>41669.584294046137</v>
       </c>
       <c r="R23" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>49682.836353505139</v>
       </c>
       <c r="S23" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>58981.689542585264</v>
       </c>
       <c r="T23" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>69724.152663363289</v>
       </c>
       <c r="U23" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>82085.873784726165</v>
       </c>
       <c r="V23" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>96262.008771964509</v>
       </c>
     </row>
@@ -2834,39 +2834,39 @@
         <v>13</v>
       </c>
       <c r="B24" s="28">
-        <f t="shared" ref="B24:G24" si="30">B22+B23</f>
+        <f t="shared" ref="B24:G24" si="31">B22+B23</f>
         <v>19651</v>
       </c>
       <c r="C24" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>24150</v>
       </c>
       <c r="D24" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>27193</v>
       </c>
       <c r="E24" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>34913</v>
       </c>
       <c r="F24" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>41322</v>
       </c>
       <c r="G24" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>48082</v>
       </c>
       <c r="H24" s="23">
-        <f t="shared" ref="H24" si="31">H22+H23</f>
+        <f t="shared" ref="H24" si="32">H22+H23</f>
         <v>50225.419381516178</v>
       </c>
       <c r="I24" s="23">
-        <f t="shared" ref="I24" si="32">I22+I23</f>
+        <f t="shared" ref="I24" si="33">I22+I23</f>
         <v>56129.65763668732</v>
       </c>
       <c r="J24" s="23">
-        <f t="shared" ref="J24" si="33">J22+J23</f>
+        <f t="shared" ref="J24" si="34">J22+J23</f>
         <v>63260.762130114039</v>
       </c>
       <c r="K24" s="23">
@@ -2878,43 +2878,43 @@
         <v>81131.059306193725</v>
       </c>
       <c r="M24" s="23">
-        <f t="shared" ref="M24" si="34">M22+M23</f>
+        <f t="shared" ref="M24" si="35">M22+M23</f>
         <v>97745.77799612016</v>
       </c>
       <c r="N24" s="23">
-        <f t="shared" ref="N24" si="35">N22+N23</f>
+        <f t="shared" ref="N24" si="36">N22+N23</f>
         <v>116531.19227097504</v>
       </c>
       <c r="O24" s="23">
-        <f t="shared" ref="O24" si="36">O22+O23</f>
+        <f t="shared" ref="O24" si="37">O22+O23</f>
         <v>137737.14351516051</v>
       </c>
       <c r="P24" s="23">
-        <f t="shared" ref="P24" si="37">P22+P23</f>
+        <f t="shared" ref="P24" si="38">P22+P23</f>
         <v>161640.33185383343</v>
       </c>
       <c r="Q24" s="23">
-        <f t="shared" ref="Q24:R24" si="38">Q22+Q23</f>
+        <f t="shared" ref="Q24:R24" si="39">Q22+Q23</f>
         <v>188547.10728138816</v>
       </c>
       <c r="R24" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>218796.54562541473</v>
       </c>
       <c r="S24" s="23">
-        <f t="shared" ref="S24:U24" si="39">S22+S23</f>
+        <f t="shared" ref="S24:U24" si="40">S22+S23</f>
         <v>252763.83813595338</v>
       </c>
       <c r="T24" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>290864.02638500888</v>
       </c>
       <c r="U24" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>333556.11734678445</v>
       </c>
       <c r="V24" s="23">
-        <f t="shared" ref="V24" si="40">V22+V23</f>
+        <f t="shared" ref="V24" si="41">V22+V23</f>
         <v>381347.61703403242</v>
       </c>
     </row>
@@ -2947,63 +2947,63 @@
         <v>7813</v>
       </c>
       <c r="H25" s="23">
-        <f t="shared" ref="H25:Q25" si="41">H24*0.15</f>
+        <f t="shared" ref="H25:Q25" si="42">H24*0.15</f>
         <v>7533.812907227426</v>
       </c>
       <c r="I25" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8419.4486455030983</v>
       </c>
       <c r="J25" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9489.1143195171062</v>
       </c>
       <c r="K25" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10745.037071278641</v>
       </c>
       <c r="L25" s="23">
-        <f t="shared" ref="L25" si="42">L24*0.15</f>
+        <f t="shared" ref="L25" si="43">L24*0.15</f>
         <v>12169.658895929058</v>
       </c>
       <c r="M25" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14661.866699418024</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>17479.678840646255</v>
       </c>
       <c r="O25" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>20660.571527274074</v>
       </c>
       <c r="P25" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>24246.049778075012</v>
       </c>
       <c r="Q25" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>28282.066092208224</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" ref="R25:U25" si="43">R24*0.15</f>
+        <f t="shared" ref="R25:U25" si="44">R24*0.15</f>
         <v>32819.481843812209</v>
       </c>
       <c r="S25" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>37914.575720393004</v>
       </c>
       <c r="T25" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>43629.603957751329</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>50033.417602017667</v>
       </c>
       <c r="V25" s="23">
-        <f t="shared" ref="V25" si="44">V24*0.15</f>
+        <f t="shared" ref="V25" si="45">V24*0.15</f>
         <v>57202.14255510486</v>
       </c>
     </row>
@@ -3012,1383 +3012,1383 @@
         <v>15</v>
       </c>
       <c r="B26" s="25">
-        <f t="shared" ref="B26:G26" si="45">B24-B25</f>
+        <f t="shared" ref="B26:G26" si="46">B24-B25</f>
         <v>16348</v>
       </c>
       <c r="C26" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>19478</v>
       </c>
       <c r="D26" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>21917.962374216128</v>
       </c>
       <c r="E26" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>30736</v>
       </c>
       <c r="F26" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>36040</v>
       </c>
       <c r="G26" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>40269</v>
       </c>
       <c r="H26" s="25">
-        <f t="shared" ref="H26" si="46">H24-H25</f>
+        <f t="shared" ref="H26" si="47">H24-H25</f>
         <v>42691.606474288754</v>
       </c>
       <c r="I26" s="25">
-        <f t="shared" ref="I26:Q26" si="47">I24-I25</f>
+        <f t="shared" ref="I26:Q26" si="48">I24-I25</f>
         <v>47710.208991184219</v>
       </c>
       <c r="J26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>53771.647810596929</v>
       </c>
       <c r="K26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>60888.543403912307</v>
       </c>
       <c r="L26" s="25">
-        <f t="shared" ref="L26" si="48">L24-L25</f>
+        <f t="shared" ref="L26" si="49">L24-L25</f>
         <v>68961.400410264672</v>
       </c>
       <c r="M26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>83083.911296702136</v>
       </c>
       <c r="N26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>99051.513430328778</v>
       </c>
       <c r="O26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>117076.57198788643</v>
       </c>
       <c r="P26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>137394.28207575841</v>
       </c>
       <c r="Q26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>160265.04118917993</v>
       </c>
       <c r="R26" s="25">
-        <f t="shared" ref="R26:U26" si="49">R24-R25</f>
+        <f t="shared" ref="R26:U26" si="50">R24-R25</f>
         <v>185977.06378160251</v>
       </c>
       <c r="S26" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>214849.26241556037</v>
       </c>
       <c r="T26" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>247234.42242725755</v>
       </c>
       <c r="U26" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>283522.69974476681</v>
       </c>
       <c r="V26" s="25">
-        <f t="shared" ref="V26" si="50">V24-V25</f>
+        <f t="shared" ref="V26" si="51">V24-V25</f>
         <v>324145.47447892756</v>
       </c>
       <c r="W26" s="17">
-        <f t="shared" ref="W26:CD26" si="51">V26*($F$2+1)</f>
+        <f t="shared" ref="W26:CD26" si="52">V26*($F$2+1)</f>
         <v>320904.01973413827</v>
       </c>
       <c r="X26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>317694.97953679686</v>
       </c>
       <c r="Y26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>314518.02974142891</v>
       </c>
       <c r="Z26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>311372.8494440146</v>
       </c>
       <c r="AA26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>308259.12094957446</v>
       </c>
       <c r="AB26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>305176.52974007872</v>
       </c>
       <c r="AC26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>302124.76444267796</v>
       </c>
       <c r="AD26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>299103.51679825119</v>
       </c>
       <c r="AE26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>296112.48163026868</v>
       </c>
       <c r="AF26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>293151.35681396601</v>
       </c>
       <c r="AG26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>290219.84324582637</v>
       </c>
       <c r="AH26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>287317.6448133681</v>
       </c>
       <c r="AI26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>284444.46836523444</v>
       </c>
       <c r="AJ26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>281600.02368158207</v>
       </c>
       <c r="AK26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>278784.02344476624</v>
       </c>
       <c r="AL26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>275996.18321031856</v>
       </c>
       <c r="AM26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>273236.22137821536</v>
       </c>
       <c r="AN26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>270503.8591644332</v>
       </c>
       <c r="AO26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>267798.82057278889</v>
       </c>
       <c r="AP26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>265120.832367061</v>
       </c>
       <c r="AQ26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>262469.62404339039</v>
       </c>
       <c r="AR26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>259844.92780295649</v>
       </c>
       <c r="AS26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>257246.47852492693</v>
       </c>
       <c r="AT26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>254674.01373967767</v>
       </c>
       <c r="AU26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>252127.27360228088</v>
       </c>
       <c r="AV26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>249606.00086625808</v>
       </c>
       <c r="AW26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>247109.9408575955</v>
       </c>
       <c r="AX26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>244638.84144901956</v>
       </c>
       <c r="AY26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>242192.45303452935</v>
       </c>
       <c r="AZ26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>239770.52850418404</v>
       </c>
       <c r="BA26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>237372.82321914218</v>
       </c>
       <c r="BB26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>234999.09498695077</v>
       </c>
       <c r="BC26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>232649.10403708127</v>
       </c>
       <c r="BD26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>230322.61299671046</v>
       </c>
       <c r="BE26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>228019.38686674336</v>
       </c>
       <c r="BF26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>225739.19299807592</v>
       </c>
       <c r="BG26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>223481.80106809514</v>
       </c>
       <c r="BH26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>221246.98305741418</v>
       </c>
       <c r="BI26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>219034.51322684003</v>
       </c>
       <c r="BJ26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>216844.16809457162</v>
       </c>
       <c r="BK26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>214675.7264136259</v>
       </c>
       <c r="BL26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>212528.96914948965</v>
       </c>
       <c r="BM26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>210403.67945799476</v>
       </c>
       <c r="BN26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>208299.64266341482</v>
       </c>
       <c r="BO26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>206216.64623678068</v>
       </c>
       <c r="BP26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>204154.47977441287</v>
       </c>
       <c r="BQ26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>202112.93497666874</v>
       </c>
       <c r="BR26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>200091.80562690206</v>
       </c>
       <c r="BS26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>198090.88757063303</v>
       </c>
       <c r="BT26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>196109.97869492669</v>
       </c>
       <c r="BU26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>194148.87890797743</v>
       </c>
       <c r="BV26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>192207.39011889766</v>
       </c>
       <c r="BW26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>190285.31621770869</v>
       </c>
       <c r="BX26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>188382.46305553161</v>
       </c>
       <c r="BY26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>186498.63842497629</v>
       </c>
       <c r="BZ26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>184633.65204072653</v>
       </c>
       <c r="CA26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>182787.31552031927</v>
       </c>
       <c r="CB26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>180959.44236511609</v>
       </c>
       <c r="CC26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>179149.84794146492</v>
       </c>
       <c r="CD26" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>177358.34946205028</v>
       </c>
       <c r="CE26" s="17">
-        <f t="shared" ref="CE26:DR26" si="52">CD26*($F$2+1)</f>
+        <f t="shared" ref="CE26:DR26" si="53">CD26*($F$2+1)</f>
         <v>175584.76596742976</v>
       </c>
       <c r="CF26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>173828.91830775546</v>
       </c>
       <c r="CG26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>172090.62912467791</v>
       </c>
       <c r="CH26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>170369.72283343112</v>
       </c>
       <c r="CI26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>168666.0256050968</v>
       </c>
       <c r="CJ26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>166979.36534904584</v>
       </c>
       <c r="CK26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>165309.57169555538</v>
       </c>
       <c r="CL26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>163656.47597859983</v>
       </c>
       <c r="CM26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>162019.91121881382</v>
       </c>
       <c r="CN26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>160399.7121066257</v>
       </c>
       <c r="CO26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>158795.71498555943</v>
       </c>
       <c r="CP26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>157207.75783570384</v>
       </c>
       <c r="CQ26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>155635.6802573468</v>
       </c>
       <c r="CR26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>154079.32345477334</v>
       </c>
       <c r="CS26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>152538.5302202256</v>
       </c>
       <c r="CT26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>151013.14491802335</v>
       </c>
       <c r="CU26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>149503.0134688431</v>
       </c>
       <c r="CV26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>148007.98333415468</v>
       </c>
       <c r="CW26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>146527.90350081312</v>
       </c>
       <c r="CX26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>145062.62446580498</v>
       </c>
       <c r="CY26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>143611.99822114693</v>
       </c>
       <c r="CZ26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>142175.87823893546</v>
       </c>
       <c r="DA26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>140754.11945654609</v>
       </c>
       <c r="DB26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>139346.57826198064</v>
       </c>
       <c r="DC26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>137953.11247936083</v>
       </c>
       <c r="DD26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>136573.58135456723</v>
       </c>
       <c r="DE26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>135207.84554102155</v>
       </c>
       <c r="DF26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>133855.76708561133</v>
       </c>
       <c r="DG26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>132517.2094147552</v>
       </c>
       <c r="DH26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>131192.03732060763</v>
       </c>
       <c r="DI26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>129880.11694740156</v>
       </c>
       <c r="DJ26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>128581.31577792755</v>
       </c>
       <c r="DK26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>127295.50262014827</v>
       </c>
       <c r="DL26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>126022.54759394679</v>
       </c>
       <c r="DM26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>124762.32211800732</v>
       </c>
       <c r="DN26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>123514.69889682725</v>
       </c>
       <c r="DO26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>122279.55190785897</v>
       </c>
       <c r="DP26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>121056.75638878038</v>
       </c>
       <c r="DQ26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>119846.18882489258</v>
       </c>
       <c r="DR26" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>118647.72693664365</v>
       </c>
       <c r="DS26" s="17">
-        <f t="shared" ref="DS26" si="53">DR26*($F$2+1)</f>
+        <f t="shared" ref="DS26" si="54">DR26*($F$2+1)</f>
         <v>117461.24966727721</v>
       </c>
       <c r="DT26" s="17">
-        <f t="shared" ref="DT26" si="54">DS26*($F$2+1)</f>
+        <f t="shared" ref="DT26" si="55">DS26*($F$2+1)</f>
         <v>116286.63717060443</v>
       </c>
       <c r="DU26" s="17">
-        <f t="shared" ref="DU26" si="55">DT26*($F$2+1)</f>
+        <f t="shared" ref="DU26" si="56">DT26*($F$2+1)</f>
         <v>115123.77079889839</v>
       </c>
       <c r="DV26" s="17">
-        <f t="shared" ref="DV26" si="56">DU26*($F$2+1)</f>
+        <f t="shared" ref="DV26" si="57">DU26*($F$2+1)</f>
         <v>113972.5330909094</v>
       </c>
       <c r="DW26" s="17">
-        <f t="shared" ref="DW26" si="57">DV26*($F$2+1)</f>
+        <f t="shared" ref="DW26" si="58">DV26*($F$2+1)</f>
         <v>112832.80776000032</v>
       </c>
       <c r="DX26" s="17">
-        <f t="shared" ref="DX26" si="58">DW26*($F$2+1)</f>
+        <f t="shared" ref="DX26" si="59">DW26*($F$2+1)</f>
         <v>111704.47968240031</v>
       </c>
       <c r="DY26" s="17">
-        <f t="shared" ref="DY26" si="59">DX26*($F$2+1)</f>
+        <f t="shared" ref="DY26" si="60">DX26*($F$2+1)</f>
         <v>110587.43488557631</v>
       </c>
       <c r="DZ26" s="17">
-        <f t="shared" ref="DZ26" si="60">DY26*($F$2+1)</f>
+        <f t="shared" ref="DZ26" si="61">DY26*($F$2+1)</f>
         <v>109481.56053672054</v>
       </c>
       <c r="EA26" s="17">
-        <f t="shared" ref="EA26" si="61">DZ26*($F$2+1)</f>
+        <f t="shared" ref="EA26" si="62">DZ26*($F$2+1)</f>
         <v>108386.74493135334</v>
       </c>
       <c r="EB26" s="17">
-        <f t="shared" ref="EB26" si="62">EA26*($F$2+1)</f>
+        <f t="shared" ref="EB26" si="63">EA26*($F$2+1)</f>
         <v>107302.87748203981</v>
       </c>
       <c r="EC26" s="17">
-        <f t="shared" ref="EC26" si="63">EB26*($F$2+1)</f>
+        <f t="shared" ref="EC26" si="64">EB26*($F$2+1)</f>
         <v>106229.84870721941</v>
       </c>
       <c r="ED26" s="17">
-        <f t="shared" ref="ED26" si="64">EC26*($F$2+1)</f>
+        <f t="shared" ref="ED26" si="65">EC26*($F$2+1)</f>
         <v>105167.55022014721</v>
       </c>
       <c r="EE26" s="17">
-        <f t="shared" ref="EE26" si="65">ED26*($F$2+1)</f>
+        <f t="shared" ref="EE26" si="66">ED26*($F$2+1)</f>
         <v>104115.87471794574</v>
       </c>
       <c r="EF26" s="17">
-        <f t="shared" ref="EF26" si="66">EE26*($F$2+1)</f>
+        <f t="shared" ref="EF26" si="67">EE26*($F$2+1)</f>
         <v>103074.71597076628</v>
       </c>
       <c r="EG26" s="17">
-        <f t="shared" ref="EG26" si="67">EF26*($F$2+1)</f>
+        <f t="shared" ref="EG26" si="68">EF26*($F$2+1)</f>
         <v>102043.96881105861</v>
       </c>
       <c r="EH26" s="17">
-        <f t="shared" ref="EH26" si="68">EG26*($F$2+1)</f>
+        <f t="shared" ref="EH26" si="69">EG26*($F$2+1)</f>
         <v>101023.52912294802</v>
       </c>
       <c r="EI26" s="17">
-        <f t="shared" ref="EI26" si="69">EH26*($F$2+1)</f>
+        <f t="shared" ref="EI26" si="70">EH26*($F$2+1)</f>
         <v>100013.29383171853</v>
       </c>
       <c r="EJ26" s="17">
-        <f t="shared" ref="EJ26" si="70">EI26*($F$2+1)</f>
+        <f t="shared" ref="EJ26" si="71">EI26*($F$2+1)</f>
         <v>99013.160893401349</v>
       </c>
       <c r="EK26" s="17">
-        <f t="shared" ref="EK26" si="71">EJ26*($F$2+1)</f>
+        <f t="shared" ref="EK26" si="72">EJ26*($F$2+1)</f>
         <v>98023.029284467339</v>
       </c>
       <c r="EL26" s="17">
-        <f t="shared" ref="EL26" si="72">EK26*($F$2+1)</f>
+        <f t="shared" ref="EL26" si="73">EK26*($F$2+1)</f>
         <v>97042.798991622665</v>
       </c>
       <c r="EM26" s="17">
-        <f t="shared" ref="EM26" si="73">EL26*($F$2+1)</f>
+        <f t="shared" ref="EM26" si="74">EL26*($F$2+1)</f>
         <v>96072.371001706444</v>
       </c>
       <c r="EN26" s="17">
-        <f t="shared" ref="EN26" si="74">EM26*($F$2+1)</f>
+        <f t="shared" ref="EN26" si="75">EM26*($F$2+1)</f>
         <v>95111.647291689384</v>
       </c>
       <c r="EO26" s="17">
-        <f t="shared" ref="EO26" si="75">EN26*($F$2+1)</f>
+        <f t="shared" ref="EO26" si="76">EN26*($F$2+1)</f>
         <v>94160.530818772488</v>
       </c>
       <c r="EP26" s="17">
-        <f t="shared" ref="EP26" si="76">EO26*($F$2+1)</f>
+        <f t="shared" ref="EP26" si="77">EO26*($F$2+1)</f>
         <v>93218.925510584755</v>
       </c>
       <c r="EQ26" s="17">
-        <f t="shared" ref="EQ26" si="77">EP26*($F$2+1)</f>
+        <f t="shared" ref="EQ26" si="78">EP26*($F$2+1)</f>
         <v>92286.7362554789</v>
       </c>
       <c r="ER26" s="17">
-        <f t="shared" ref="ER26" si="78">EQ26*($F$2+1)</f>
+        <f t="shared" ref="ER26" si="79">EQ26*($F$2+1)</f>
         <v>91363.868892924103</v>
       </c>
       <c r="ES26" s="17">
-        <f t="shared" ref="ES26" si="79">ER26*($F$2+1)</f>
+        <f t="shared" ref="ES26" si="80">ER26*($F$2+1)</f>
         <v>90450.230203994855</v>
       </c>
       <c r="ET26" s="17">
-        <f t="shared" ref="ET26" si="80">ES26*($F$2+1)</f>
+        <f t="shared" ref="ET26" si="81">ES26*($F$2+1)</f>
         <v>89545.727901954902</v>
       </c>
       <c r="EU26" s="17">
-        <f t="shared" ref="EU26" si="81">ET26*($F$2+1)</f>
+        <f t="shared" ref="EU26" si="82">ET26*($F$2+1)</f>
         <v>88650.27062293535</v>
       </c>
       <c r="EV26" s="17">
-        <f t="shared" ref="EV26" si="82">EU26*($F$2+1)</f>
+        <f t="shared" ref="EV26" si="83">EU26*($F$2+1)</f>
         <v>87763.767916705998</v>
       </c>
       <c r="EW26" s="17">
-        <f t="shared" ref="EW26" si="83">EV26*($F$2+1)</f>
+        <f t="shared" ref="EW26" si="84">EV26*($F$2+1)</f>
         <v>86886.130237538935</v>
       </c>
       <c r="EX26" s="17">
-        <f t="shared" ref="EX26" si="84">EW26*($F$2+1)</f>
+        <f t="shared" ref="EX26" si="85">EW26*($F$2+1)</f>
         <v>86017.268935163549</v>
       </c>
       <c r="EY26" s="17">
-        <f t="shared" ref="EY26" si="85">EX26*($F$2+1)</f>
+        <f t="shared" ref="EY26" si="86">EX26*($F$2+1)</f>
         <v>85157.096245811917</v>
       </c>
       <c r="EZ26" s="17">
-        <f t="shared" ref="EZ26" si="86">EY26*($F$2+1)</f>
+        <f t="shared" ref="EZ26" si="87">EY26*($F$2+1)</f>
         <v>84305.525283353796</v>
       </c>
       <c r="FA26" s="17">
-        <f t="shared" ref="FA26" si="87">EZ26*($F$2+1)</f>
+        <f t="shared" ref="FA26" si="88">EZ26*($F$2+1)</f>
         <v>83462.470030520257</v>
       </c>
       <c r="FB26" s="17">
-        <f t="shared" ref="FB26" si="88">FA26*($F$2+1)</f>
+        <f t="shared" ref="FB26" si="89">FA26*($F$2+1)</f>
         <v>82627.845330215059</v>
       </c>
       <c r="FC26" s="17">
-        <f t="shared" ref="FC26" si="89">FB26*($F$2+1)</f>
+        <f t="shared" ref="FC26" si="90">FB26*($F$2+1)</f>
         <v>81801.566876912912</v>
       </c>
       <c r="FD26" s="17">
-        <f t="shared" ref="FD26" si="90">FC26*($F$2+1)</f>
+        <f t="shared" ref="FD26" si="91">FC26*($F$2+1)</f>
         <v>80983.551208143777</v>
       </c>
       <c r="FE26" s="17">
-        <f t="shared" ref="FE26" si="91">FD26*($F$2+1)</f>
+        <f t="shared" ref="FE26" si="92">FD26*($F$2+1)</f>
         <v>80173.71569606234</v>
       </c>
       <c r="FF26" s="17">
-        <f t="shared" ref="FF26" si="92">FE26*($F$2+1)</f>
+        <f t="shared" ref="FF26" si="93">FE26*($F$2+1)</f>
         <v>79371.978539101721</v>
       </c>
       <c r="FG26" s="17">
-        <f t="shared" ref="FG26" si="93">FF26*($F$2+1)</f>
+        <f t="shared" ref="FG26" si="94">FF26*($F$2+1)</f>
         <v>78578.258753710703</v>
       </c>
       <c r="FH26" s="17">
-        <f t="shared" ref="FH26" si="94">FG26*($F$2+1)</f>
+        <f t="shared" ref="FH26" si="95">FG26*($F$2+1)</f>
         <v>77792.476166173597</v>
       </c>
       <c r="FI26" s="17">
-        <f t="shared" ref="FI26" si="95">FH26*($F$2+1)</f>
+        <f t="shared" ref="FI26" si="96">FH26*($F$2+1)</f>
         <v>77014.551404511862</v>
       </c>
       <c r="FJ26" s="17">
-        <f t="shared" ref="FJ26" si="96">FI26*($F$2+1)</f>
+        <f t="shared" ref="FJ26" si="97">FI26*($F$2+1)</f>
         <v>76244.405890466747</v>
       </c>
       <c r="FK26" s="17">
-        <f t="shared" ref="FK26" si="97">FJ26*($F$2+1)</f>
+        <f t="shared" ref="FK26" si="98">FJ26*($F$2+1)</f>
         <v>75481.961831562076</v>
       </c>
       <c r="FL26" s="17">
-        <f t="shared" ref="FL26" si="98">FK26*($F$2+1)</f>
+        <f t="shared" ref="FL26" si="99">FK26*($F$2+1)</f>
         <v>74727.14221324645</v>
       </c>
       <c r="FM26" s="17">
-        <f t="shared" ref="FM26" si="99">FL26*($F$2+1)</f>
+        <f t="shared" ref="FM26" si="100">FL26*($F$2+1)</f>
         <v>73979.870791113979</v>
       </c>
       <c r="FN26" s="17">
-        <f t="shared" ref="FN26" si="100">FM26*($F$2+1)</f>
+        <f t="shared" ref="FN26" si="101">FM26*($F$2+1)</f>
         <v>73240.072083202846</v>
       </c>
       <c r="FO26" s="17">
-        <f t="shared" ref="FO26" si="101">FN26*($F$2+1)</f>
+        <f t="shared" ref="FO26" si="102">FN26*($F$2+1)</f>
         <v>72507.67136237082</v>
       </c>
       <c r="FP26" s="17">
-        <f t="shared" ref="FP26" si="102">FO26*($F$2+1)</f>
+        <f t="shared" ref="FP26" si="103">FO26*($F$2+1)</f>
         <v>71782.594648747108</v>
       </c>
       <c r="FQ26" s="17">
-        <f t="shared" ref="FQ26" si="103">FP26*($F$2+1)</f>
+        <f t="shared" ref="FQ26" si="104">FP26*($F$2+1)</f>
         <v>71064.768702259636</v>
       </c>
       <c r="FR26" s="17">
-        <f t="shared" ref="FR26" si="104">FQ26*($F$2+1)</f>
+        <f t="shared" ref="FR26" si="105">FQ26*($F$2+1)</f>
         <v>70354.121015237033</v>
       </c>
       <c r="FS26" s="17">
-        <f t="shared" ref="FS26" si="105">FR26*($F$2+1)</f>
+        <f t="shared" ref="FS26" si="106">FR26*($F$2+1)</f>
         <v>69650.579805084664</v>
       </c>
       <c r="FT26" s="17">
-        <f t="shared" ref="FT26" si="106">FS26*($F$2+1)</f>
+        <f t="shared" ref="FT26" si="107">FS26*($F$2+1)</f>
         <v>68954.074007033822</v>
       </c>
       <c r="FU26" s="17">
-        <f t="shared" ref="FU26" si="107">FT26*($F$2+1)</f>
+        <f t="shared" ref="FU26" si="108">FT26*($F$2+1)</f>
         <v>68264.533266963481</v>
       </c>
       <c r="FV26" s="17">
-        <f t="shared" ref="FV26" si="108">FU26*($F$2+1)</f>
+        <f t="shared" ref="FV26" si="109">FU26*($F$2+1)</f>
         <v>67581.887934293845</v>
       </c>
       <c r="FW26" s="17">
-        <f t="shared" ref="FW26" si="109">FV26*($F$2+1)</f>
+        <f t="shared" ref="FW26" si="110">FV26*($F$2+1)</f>
         <v>66906.069054950902</v>
       </c>
       <c r="FX26" s="17">
-        <f t="shared" ref="FX26" si="110">FW26*($F$2+1)</f>
+        <f t="shared" ref="FX26" si="111">FW26*($F$2+1)</f>
         <v>66237.008364401394</v>
       </c>
       <c r="FY26" s="17">
-        <f t="shared" ref="FY26" si="111">FX26*($F$2+1)</f>
+        <f t="shared" ref="FY26" si="112">FX26*($F$2+1)</f>
         <v>65574.638280757383</v>
       </c>
       <c r="FZ26" s="17">
-        <f t="shared" ref="FZ26" si="112">FY26*($F$2+1)</f>
+        <f t="shared" ref="FZ26" si="113">FY26*($F$2+1)</f>
         <v>64918.891897949805</v>
       </c>
       <c r="GA26" s="17">
-        <f t="shared" ref="GA26" si="113">FZ26*($F$2+1)</f>
+        <f t="shared" ref="GA26" si="114">FZ26*($F$2+1)</f>
         <v>64269.702978970308</v>
       </c>
       <c r="GB26" s="17">
-        <f t="shared" ref="GB26" si="114">GA26*($F$2+1)</f>
+        <f t="shared" ref="GB26" si="115">GA26*($F$2+1)</f>
         <v>63627.005949180602</v>
       </c>
       <c r="GC26" s="17">
-        <f t="shared" ref="GC26" si="115">GB26*($F$2+1)</f>
+        <f t="shared" ref="GC26" si="116">GB26*($F$2+1)</f>
         <v>62990.735889688796</v>
       </c>
       <c r="GD26" s="17">
-        <f t="shared" ref="GD26" si="116">GC26*($F$2+1)</f>
+        <f t="shared" ref="GD26" si="117">GC26*($F$2+1)</f>
         <v>62360.828530791907</v>
       </c>
       <c r="GE26" s="17">
-        <f t="shared" ref="GE26" si="117">GD26*($F$2+1)</f>
+        <f t="shared" ref="GE26" si="118">GD26*($F$2+1)</f>
         <v>61737.220245483986</v>
       </c>
       <c r="GF26" s="17">
-        <f t="shared" ref="GF26" si="118">GE26*($F$2+1)</f>
+        <f t="shared" ref="GF26" si="119">GE26*($F$2+1)</f>
         <v>61119.848043029146</v>
       </c>
       <c r="GG26" s="17">
-        <f t="shared" ref="GG26" si="119">GF26*($F$2+1)</f>
+        <f t="shared" ref="GG26" si="120">GF26*($F$2+1)</f>
         <v>60508.649562598854</v>
       </c>
       <c r="GH26" s="17">
-        <f t="shared" ref="GH26" si="120">GG26*($F$2+1)</f>
+        <f t="shared" ref="GH26" si="121">GG26*($F$2+1)</f>
         <v>59903.563066972863</v>
       </c>
       <c r="GI26" s="17">
-        <f t="shared" ref="GI26" si="121">GH26*($F$2+1)</f>
+        <f t="shared" ref="GI26" si="122">GH26*($F$2+1)</f>
         <v>59304.527436303135</v>
       </c>
       <c r="GJ26" s="17">
-        <f t="shared" ref="GJ26" si="122">GI26*($F$2+1)</f>
+        <f t="shared" ref="GJ26" si="123">GI26*($F$2+1)</f>
         <v>58711.482161940105</v>
       </c>
       <c r="GK26" s="17">
-        <f t="shared" ref="GK26" si="123">GJ26*($F$2+1)</f>
+        <f t="shared" ref="GK26" si="124">GJ26*($F$2+1)</f>
         <v>58124.367340320699</v>
       </c>
       <c r="GL26" s="17">
-        <f t="shared" ref="GL26" si="124">GK26*($F$2+1)</f>
+        <f t="shared" ref="GL26" si="125">GK26*($F$2+1)</f>
         <v>57543.12366691749</v>
       </c>
       <c r="GM26" s="17">
-        <f t="shared" ref="GM26" si="125">GL26*($F$2+1)</f>
+        <f t="shared" ref="GM26" si="126">GL26*($F$2+1)</f>
         <v>56967.692430248317</v>
       </c>
       <c r="GN26" s="17">
-        <f t="shared" ref="GN26" si="126">GM26*($F$2+1)</f>
+        <f t="shared" ref="GN26" si="127">GM26*($F$2+1)</f>
         <v>56398.015505945834</v>
       </c>
       <c r="GO26" s="17">
-        <f t="shared" ref="GO26" si="127">GN26*($F$2+1)</f>
+        <f t="shared" ref="GO26" si="128">GN26*($F$2+1)</f>
         <v>55834.035350886377</v>
       </c>
       <c r="GP26" s="17">
-        <f t="shared" ref="GP26" si="128">GO26*($F$2+1)</f>
+        <f t="shared" ref="GP26" si="129">GO26*($F$2+1)</f>
         <v>55275.694997377512</v>
       </c>
       <c r="GQ26" s="17">
-        <f t="shared" ref="GQ26" si="129">GP26*($F$2+1)</f>
+        <f t="shared" ref="GQ26" si="130">GP26*($F$2+1)</f>
         <v>54722.938047403739</v>
       </c>
       <c r="GR26" s="17">
-        <f t="shared" ref="GR26" si="130">GQ26*($F$2+1)</f>
+        <f t="shared" ref="GR26" si="131">GQ26*($F$2+1)</f>
         <v>54175.708666929699</v>
       </c>
       <c r="GS26" s="17">
-        <f t="shared" ref="GS26" si="131">GR26*($F$2+1)</f>
+        <f t="shared" ref="GS26" si="132">GR26*($F$2+1)</f>
         <v>53633.9515802604</v>
       </c>
       <c r="GT26" s="17">
-        <f t="shared" ref="GT26" si="132">GS26*($F$2+1)</f>
+        <f t="shared" ref="GT26" si="133">GS26*($F$2+1)</f>
         <v>53097.612064457797</v>
       </c>
       <c r="GU26" s="17">
-        <f t="shared" ref="GU26" si="133">GT26*($F$2+1)</f>
+        <f t="shared" ref="GU26" si="134">GT26*($F$2+1)</f>
         <v>52566.63594381322</v>
       </c>
       <c r="GV26" s="17">
-        <f t="shared" ref="GV26" si="134">GU26*($F$2+1)</f>
+        <f t="shared" ref="GV26" si="135">GU26*($F$2+1)</f>
         <v>52040.969584375089</v>
       </c>
       <c r="GW26" s="17">
-        <f t="shared" ref="GW26" si="135">GV26*($F$2+1)</f>
+        <f t="shared" ref="GW26" si="136">GV26*($F$2+1)</f>
         <v>51520.559888531337</v>
       </c>
       <c r="GX26" s="17">
-        <f t="shared" ref="GX26" si="136">GW26*($F$2+1)</f>
+        <f t="shared" ref="GX26" si="137">GW26*($F$2+1)</f>
         <v>51005.35428964602</v>
       </c>
       <c r="GY26" s="17">
-        <f t="shared" ref="GY26" si="137">GX26*($F$2+1)</f>
+        <f t="shared" ref="GY26" si="138">GX26*($F$2+1)</f>
         <v>50495.300746749563</v>
       </c>
       <c r="GZ26" s="17">
-        <f t="shared" ref="GZ26" si="138">GY26*($F$2+1)</f>
+        <f t="shared" ref="GZ26" si="139">GY26*($F$2+1)</f>
         <v>49990.347739282064</v>
       </c>
       <c r="HA26" s="17">
-        <f t="shared" ref="HA26" si="139">GZ26*($F$2+1)</f>
+        <f t="shared" ref="HA26" si="140">GZ26*($F$2+1)</f>
         <v>49490.444261889243</v>
       </c>
       <c r="HB26" s="17">
-        <f t="shared" ref="HB26" si="140">HA26*($F$2+1)</f>
+        <f t="shared" ref="HB26" si="141">HA26*($F$2+1)</f>
         <v>48995.539819270351</v>
       </c>
       <c r="HC26" s="17">
-        <f t="shared" ref="HC26" si="141">HB26*($F$2+1)</f>
+        <f t="shared" ref="HC26" si="142">HB26*($F$2+1)</f>
         <v>48505.584421077649</v>
       </c>
       <c r="HD26" s="17">
-        <f t="shared" ref="HD26" si="142">HC26*($F$2+1)</f>
+        <f t="shared" ref="HD26" si="143">HC26*($F$2+1)</f>
         <v>48020.528576866869</v>
       </c>
       <c r="HE26" s="17">
-        <f t="shared" ref="HE26" si="143">HD26*($F$2+1)</f>
+        <f t="shared" ref="HE26" si="144">HD26*($F$2+1)</f>
         <v>47540.323291098197</v>
       </c>
       <c r="HF26" s="17">
-        <f t="shared" ref="HF26" si="144">HE26*($F$2+1)</f>
+        <f t="shared" ref="HF26" si="145">HE26*($F$2+1)</f>
         <v>47064.920058187214</v>
       </c>
       <c r="HG26" s="17">
-        <f t="shared" ref="HG26" si="145">HF26*($F$2+1)</f>
+        <f t="shared" ref="HG26" si="146">HF26*($F$2+1)</f>
         <v>46594.270857605341</v>
       </c>
       <c r="HH26" s="17">
-        <f t="shared" ref="HH26" si="146">HG26*($F$2+1)</f>
+        <f t="shared" ref="HH26" si="147">HG26*($F$2+1)</f>
         <v>46128.328149029287</v>
       </c>
       <c r="HI26" s="17">
-        <f t="shared" ref="HI26" si="147">HH26*($F$2+1)</f>
+        <f t="shared" ref="HI26" si="148">HH26*($F$2+1)</f>
         <v>45667.044867538993</v>
       </c>
       <c r="HJ26" s="17">
-        <f t="shared" ref="HJ26" si="148">HI26*($F$2+1)</f>
+        <f t="shared" ref="HJ26" si="149">HI26*($F$2+1)</f>
         <v>45210.374418863605</v>
       </c>
       <c r="HK26" s="17">
-        <f t="shared" ref="HK26" si="149">HJ26*($F$2+1)</f>
+        <f t="shared" ref="HK26" si="150">HJ26*($F$2+1)</f>
         <v>44758.270674674968</v>
       </c>
       <c r="HL26" s="17">
-        <f t="shared" ref="HL26" si="150">HK26*($F$2+1)</f>
+        <f t="shared" ref="HL26" si="151">HK26*($F$2+1)</f>
         <v>44310.687967928221</v>
       </c>
       <c r="HM26" s="17">
-        <f t="shared" ref="HM26" si="151">HL26*($F$2+1)</f>
+        <f t="shared" ref="HM26" si="152">HL26*($F$2+1)</f>
         <v>43867.581088248939</v>
       </c>
       <c r="HN26" s="17">
-        <f t="shared" ref="HN26" si="152">HM26*($F$2+1)</f>
+        <f t="shared" ref="HN26" si="153">HM26*($F$2+1)</f>
         <v>43428.905277366452</v>
       </c>
       <c r="HO26" s="17">
-        <f t="shared" ref="HO26" si="153">HN26*($F$2+1)</f>
+        <f t="shared" ref="HO26" si="154">HN26*($F$2+1)</f>
         <v>42994.616224592784</v>
       </c>
       <c r="HP26" s="17">
-        <f t="shared" ref="HP26" si="154">HO26*($F$2+1)</f>
+        <f t="shared" ref="HP26" si="155">HO26*($F$2+1)</f>
         <v>42564.670062346857</v>
       </c>
       <c r="HQ26" s="17">
-        <f t="shared" ref="HQ26" si="155">HP26*($F$2+1)</f>
+        <f t="shared" ref="HQ26" si="156">HP26*($F$2+1)</f>
         <v>42139.02336172339</v>
       </c>
       <c r="HR26" s="17">
-        <f t="shared" ref="HR26" si="156">HQ26*($F$2+1)</f>
+        <f t="shared" ref="HR26" si="157">HQ26*($F$2+1)</f>
         <v>41717.633128106158</v>
       </c>
       <c r="HS26" s="17">
-        <f t="shared" ref="HS26" si="157">HR26*($F$2+1)</f>
+        <f t="shared" ref="HS26" si="158">HR26*($F$2+1)</f>
         <v>41300.456796825092</v>
       </c>
       <c r="HT26" s="17">
-        <f t="shared" ref="HT26" si="158">HS26*($F$2+1)</f>
+        <f t="shared" ref="HT26" si="159">HS26*($F$2+1)</f>
         <v>40887.452228856841</v>
       </c>
       <c r="HU26" s="17">
-        <f t="shared" ref="HU26" si="159">HT26*($F$2+1)</f>
+        <f t="shared" ref="HU26" si="160">HT26*($F$2+1)</f>
         <v>40478.577706568271</v>
       </c>
       <c r="HV26" s="17">
-        <f t="shared" ref="HV26" si="160">HU26*($F$2+1)</f>
+        <f t="shared" ref="HV26" si="161">HU26*($F$2+1)</f>
         <v>40073.791929502586</v>
       </c>
       <c r="HW26" s="17">
-        <f t="shared" ref="HW26" si="161">HV26*($F$2+1)</f>
+        <f t="shared" ref="HW26" si="162">HV26*($F$2+1)</f>
         <v>39673.054010207561</v>
       </c>
       <c r="HX26" s="17">
-        <f t="shared" ref="HX26" si="162">HW26*($F$2+1)</f>
+        <f t="shared" ref="HX26" si="163">HW26*($F$2+1)</f>
         <v>39276.323470105483</v>
       </c>
       <c r="HY26" s="17">
-        <f t="shared" ref="HY26" si="163">HX26*($F$2+1)</f>
+        <f t="shared" ref="HY26" si="164">HX26*($F$2+1)</f>
         <v>38883.560235404424</v>
       </c>
       <c r="HZ26" s="17">
-        <f t="shared" ref="HZ26" si="164">HY26*($F$2+1)</f>
+        <f t="shared" ref="HZ26" si="165">HY26*($F$2+1)</f>
         <v>38494.724633050377</v>
       </c>
       <c r="IA26" s="17">
-        <f t="shared" ref="IA26" si="165">HZ26*($F$2+1)</f>
+        <f t="shared" ref="IA26" si="166">HZ26*($F$2+1)</f>
         <v>38109.77738671987</v>
       </c>
       <c r="IB26" s="17">
-        <f t="shared" ref="IB26" si="166">IA26*($F$2+1)</f>
+        <f t="shared" ref="IB26" si="167">IA26*($F$2+1)</f>
         <v>37728.679612852669</v>
       </c>
       <c r="IC26" s="17">
-        <f t="shared" ref="IC26" si="167">IB26*($F$2+1)</f>
+        <f t="shared" ref="IC26" si="168">IB26*($F$2+1)</f>
         <v>37351.392816724139</v>
       </c>
       <c r="ID26" s="17">
-        <f t="shared" ref="ID26" si="168">IC26*($F$2+1)</f>
+        <f t="shared" ref="ID26" si="169">IC26*($F$2+1)</f>
         <v>36977.878888556901</v>
       </c>
       <c r="IE26" s="17">
-        <f t="shared" ref="IE26" si="169">ID26*($F$2+1)</f>
+        <f t="shared" ref="IE26" si="170">ID26*($F$2+1)</f>
         <v>36608.100099671334</v>
       </c>
       <c r="IF26" s="17">
-        <f t="shared" ref="IF26" si="170">IE26*($F$2+1)</f>
+        <f t="shared" ref="IF26" si="171">IE26*($F$2+1)</f>
         <v>36242.019098674617</v>
       </c>
       <c r="IG26" s="17">
-        <f t="shared" ref="IG26" si="171">IF26*($F$2+1)</f>
+        <f t="shared" ref="IG26" si="172">IF26*($F$2+1)</f>
         <v>35879.598907687869</v>
       </c>
       <c r="IH26" s="17">
-        <f t="shared" ref="IH26" si="172">IG26*($F$2+1)</f>
+        <f t="shared" ref="IH26" si="173">IG26*($F$2+1)</f>
         <v>35520.802918610992</v>
       </c>
       <c r="II26" s="17">
-        <f t="shared" ref="II26" si="173">IH26*($F$2+1)</f>
+        <f t="shared" ref="II26" si="174">IH26*($F$2+1)</f>
         <v>35165.59488942488</v>
       </c>
       <c r="IJ26" s="17">
-        <f t="shared" ref="IJ26" si="174">II26*($F$2+1)</f>
+        <f t="shared" ref="IJ26" si="175">II26*($F$2+1)</f>
         <v>34813.938940530628</v>
       </c>
       <c r="IK26" s="17">
-        <f t="shared" ref="IK26" si="175">IJ26*($F$2+1)</f>
+        <f t="shared" ref="IK26" si="176">IJ26*($F$2+1)</f>
         <v>34465.799551125325</v>
       </c>
       <c r="IL26" s="17">
-        <f t="shared" ref="IL26" si="176">IK26*($F$2+1)</f>
+        <f t="shared" ref="IL26" si="177">IK26*($F$2+1)</f>
         <v>34121.141555614071</v>
       </c>
       <c r="IM26" s="17">
-        <f t="shared" ref="IM26" si="177">IL26*($F$2+1)</f>
+        <f t="shared" ref="IM26" si="178">IL26*($F$2+1)</f>
         <v>33779.930140057928</v>
       </c>
       <c r="IN26" s="17">
-        <f t="shared" ref="IN26" si="178">IM26*($F$2+1)</f>
+        <f t="shared" ref="IN26" si="179">IM26*($F$2+1)</f>
         <v>33442.130838657351</v>
       </c>
       <c r="IO26" s="17">
-        <f t="shared" ref="IO26" si="179">IN26*($F$2+1)</f>
+        <f t="shared" ref="IO26" si="180">IN26*($F$2+1)</f>
         <v>33107.709530270775</v>
       </c>
       <c r="IP26" s="17">
-        <f t="shared" ref="IP26" si="180">IO26*($F$2+1)</f>
+        <f t="shared" ref="IP26" si="181">IO26*($F$2+1)</f>
         <v>32776.632434968065</v>
       </c>
       <c r="IQ26" s="17">
-        <f t="shared" ref="IQ26" si="181">IP26*($F$2+1)</f>
+        <f t="shared" ref="IQ26" si="182">IP26*($F$2+1)</f>
         <v>32448.866110618383</v>
       </c>
       <c r="IR26" s="17">
-        <f t="shared" ref="IR26" si="182">IQ26*($F$2+1)</f>
+        <f t="shared" ref="IR26" si="183">IQ26*($F$2+1)</f>
         <v>32124.377449512198</v>
       </c>
       <c r="IS26" s="17">
-        <f t="shared" ref="IS26" si="183">IR26*($F$2+1)</f>
+        <f t="shared" ref="IS26" si="184">IR26*($F$2+1)</f>
         <v>31803.133675017074</v>
       </c>
       <c r="IT26" s="17">
-        <f t="shared" ref="IT26" si="184">IS26*($F$2+1)</f>
+        <f t="shared" ref="IT26" si="185">IS26*($F$2+1)</f>
         <v>31485.102338266905</v>
       </c>
       <c r="IU26" s="17">
-        <f t="shared" ref="IU26" si="185">IT26*($F$2+1)</f>
+        <f t="shared" ref="IU26" si="186">IT26*($F$2+1)</f>
         <v>31170.251314884234</v>
       </c>
       <c r="IV26" s="17">
-        <f t="shared" ref="IV26" si="186">IU26*($F$2+1)</f>
+        <f t="shared" ref="IV26" si="187">IU26*($F$2+1)</f>
         <v>30858.548801735393</v>
       </c>
       <c r="IW26" s="17">
-        <f t="shared" ref="IW26" si="187">IV26*($F$2+1)</f>
+        <f t="shared" ref="IW26" si="188">IV26*($F$2+1)</f>
         <v>30549.963313718039</v>
       </c>
       <c r="IX26" s="17">
-        <f t="shared" ref="IX26" si="188">IW26*($F$2+1)</f>
+        <f t="shared" ref="IX26" si="189">IW26*($F$2+1)</f>
         <v>30244.463680580859</v>
       </c>
       <c r="IY26" s="17">
-        <f t="shared" ref="IY26" si="189">IX26*($F$2+1)</f>
+        <f t="shared" ref="IY26" si="190">IX26*($F$2+1)</f>
         <v>29942.01904377505</v>
       </c>
       <c r="IZ26" s="17">
-        <f t="shared" ref="IZ26" si="190">IY26*($F$2+1)</f>
+        <f t="shared" ref="IZ26" si="191">IY26*($F$2+1)</f>
         <v>29642.598853337298</v>
       </c>
       <c r="JA26" s="17">
-        <f t="shared" ref="JA26" si="191">IZ26*($F$2+1)</f>
+        <f t="shared" ref="JA26" si="192">IZ26*($F$2+1)</f>
         <v>29346.172864803924</v>
       </c>
       <c r="JB26" s="17">
-        <f t="shared" ref="JB26" si="192">JA26*($F$2+1)</f>
+        <f t="shared" ref="JB26" si="193">JA26*($F$2+1)</f>
         <v>29052.711136155885</v>
       </c>
       <c r="JC26" s="17">
-        <f t="shared" ref="JC26" si="193">JB26*($F$2+1)</f>
+        <f t="shared" ref="JC26" si="194">JB26*($F$2+1)</f>
         <v>28762.184024794326</v>
       </c>
       <c r="JD26" s="17">
-        <f t="shared" ref="JD26" si="194">JC26*($F$2+1)</f>
+        <f t="shared" ref="JD26" si="195">JC26*($F$2+1)</f>
         <v>28474.562184546383</v>
       </c>
       <c r="JE26" s="17">
-        <f t="shared" ref="JE26" si="195">JD26*($F$2+1)</f>
+        <f t="shared" ref="JE26" si="196">JD26*($F$2+1)</f>
         <v>28189.816562700918</v>
       </c>
       <c r="JF26" s="17">
-        <f t="shared" ref="JF26" si="196">JE26*($F$2+1)</f>
+        <f t="shared" ref="JF26" si="197">JE26*($F$2+1)</f>
         <v>27907.91839707391</v>
       </c>
       <c r="JG26" s="17">
-        <f t="shared" ref="JG26" si="197">JF26*($F$2+1)</f>
+        <f t="shared" ref="JG26" si="198">JF26*($F$2+1)</f>
         <v>27628.839213103172</v>
       </c>
       <c r="JH26" s="17">
-        <f t="shared" ref="JH26" si="198">JG26*($F$2+1)</f>
+        <f t="shared" ref="JH26" si="199">JG26*($F$2+1)</f>
         <v>27352.550820972141</v>
       </c>
       <c r="JI26" s="17">
-        <f t="shared" ref="JI26" si="199">JH26*($F$2+1)</f>
+        <f t="shared" ref="JI26" si="200">JH26*($F$2+1)</f>
         <v>27079.02531276242</v>
       </c>
       <c r="JJ26" s="17">
-        <f t="shared" ref="JJ26" si="200">JI26*($F$2+1)</f>
+        <f t="shared" ref="JJ26" si="201">JI26*($F$2+1)</f>
         <v>26808.235059634797</v>
       </c>
       <c r="JK26" s="17">
-        <f t="shared" ref="JK26" si="201">JJ26*($F$2+1)</f>
+        <f t="shared" ref="JK26" si="202">JJ26*($F$2+1)</f>
         <v>26540.152709038448</v>
       </c>
       <c r="JL26" s="17">
-        <f t="shared" ref="JL26" si="202">JK26*($F$2+1)</f>
+        <f t="shared" ref="JL26" si="203">JK26*($F$2+1)</f>
         <v>26274.751181948064</v>
       </c>
       <c r="JM26" s="17">
-        <f t="shared" ref="JM26" si="203">JL26*($F$2+1)</f>
+        <f t="shared" ref="JM26" si="204">JL26*($F$2+1)</f>
         <v>26012.003670128583</v>
       </c>
       <c r="JN26" s="17">
-        <f t="shared" ref="JN26" si="204">JM26*($F$2+1)</f>
+        <f t="shared" ref="JN26" si="205">JM26*($F$2+1)</f>
         <v>25751.883633427296</v>
       </c>
       <c r="JO26" s="17">
-        <f t="shared" ref="JO26" si="205">JN26*($F$2+1)</f>
+        <f t="shared" ref="JO26" si="206">JN26*($F$2+1)</f>
         <v>25494.364797093021</v>
       </c>
       <c r="JP26" s="17">
-        <f t="shared" ref="JP26" si="206">JO26*($F$2+1)</f>
+        <f t="shared" ref="JP26" si="207">JO26*($F$2+1)</f>
         <v>25239.421149122092</v>
       </c>
       <c r="JQ26" s="17">
-        <f t="shared" ref="JQ26" si="207">JP26*($F$2+1)</f>
+        <f t="shared" ref="JQ26" si="208">JP26*($F$2+1)</f>
         <v>24987.026937630872</v>
       </c>
       <c r="JR26" s="17">
-        <f t="shared" ref="JR26" si="208">JQ26*($F$2+1)</f>
+        <f t="shared" ref="JR26" si="209">JQ26*($F$2+1)</f>
         <v>24737.156668254564</v>
       </c>
       <c r="JS26" s="17">
-        <f t="shared" ref="JS26" si="209">JR26*($F$2+1)</f>
+        <f t="shared" ref="JS26" si="210">JR26*($F$2+1)</f>
         <v>24489.785101572019</v>
       </c>
       <c r="JT26" s="17">
-        <f t="shared" ref="JT26" si="210">JS26*($F$2+1)</f>
+        <f t="shared" ref="JT26" si="211">JS26*($F$2+1)</f>
         <v>24244.887250556298</v>
       </c>
       <c r="JU26" s="17">
-        <f t="shared" ref="JU26" si="211">JT26*($F$2+1)</f>
+        <f t="shared" ref="JU26" si="212">JT26*($F$2+1)</f>
         <v>24002.438378050734</v>
       </c>
       <c r="JV26" s="17">
-        <f t="shared" ref="JV26" si="212">JU26*($F$2+1)</f>
+        <f t="shared" ref="JV26" si="213">JU26*($F$2+1)</f>
         <v>23762.413994270228</v>
       </c>
       <c r="JW26" s="17">
-        <f t="shared" ref="JW26" si="213">JV26*($F$2+1)</f>
+        <f t="shared" ref="JW26" si="214">JV26*($F$2+1)</f>
         <v>23524.789854327526</v>
       </c>
       <c r="JX26" s="17">
-        <f t="shared" ref="JX26" si="214">JW26*($F$2+1)</f>
+        <f t="shared" ref="JX26" si="215">JW26*($F$2+1)</f>
         <v>23289.541955784251</v>
       </c>
       <c r="JY26" s="17">
-        <f t="shared" ref="JY26" si="215">JX26*($F$2+1)</f>
+        <f t="shared" ref="JY26" si="216">JX26*($F$2+1)</f>
         <v>23056.646536226406</v>
       </c>
       <c r="JZ26" s="17">
-        <f t="shared" ref="JZ26" si="216">JY26*($F$2+1)</f>
+        <f t="shared" ref="JZ26" si="217">JY26*($F$2+1)</f>
         <v>22826.080070864144</v>
       </c>
       <c r="KA26" s="17">
-        <f t="shared" ref="KA26" si="217">JZ26*($F$2+1)</f>
+        <f t="shared" ref="KA26" si="218">JZ26*($F$2+1)</f>
         <v>22597.819270155502</v>
       </c>
       <c r="KB26" s="17">
-        <f t="shared" ref="KB26" si="218">KA26*($F$2+1)</f>
+        <f t="shared" ref="KB26" si="219">KA26*($F$2+1)</f>
         <v>22371.841077453948</v>
       </c>
       <c r="KC26" s="17">
-        <f t="shared" ref="KC26" si="219">KB26*($F$2+1)</f>
+        <f t="shared" ref="KC26" si="220">KB26*($F$2+1)</f>
         <v>22148.12266667941</v>
       </c>
       <c r="KD26" s="17">
-        <f t="shared" ref="KD26" si="220">KC26*($F$2+1)</f>
+        <f t="shared" ref="KD26" si="221">KC26*($F$2+1)</f>
         <v>21926.641440012616</v>
       </c>
       <c r="KE26" s="17">
-        <f t="shared" ref="KE26" si="221">KD26*($F$2+1)</f>
+        <f t="shared" ref="KE26" si="222">KD26*($F$2+1)</f>
         <v>21707.375025612491</v>
       </c>
       <c r="KF26" s="17">
-        <f t="shared" ref="KF26" si="222">KE26*($F$2+1)</f>
+        <f t="shared" ref="KF26" si="223">KE26*($F$2+1)</f>
         <v>21490.301275356367</v>
       </c>
       <c r="KG26" s="17">
-        <f t="shared" ref="KG26" si="223">KF26*($F$2+1)</f>
+        <f t="shared" ref="KG26" si="224">KF26*($F$2+1)</f>
         <v>21275.398262602805</v>
       </c>
       <c r="KH26" s="17">
-        <f t="shared" ref="KH26" si="224">KG26*($F$2+1)</f>
+        <f t="shared" ref="KH26" si="225">KG26*($F$2+1)</f>
         <v>21062.644279976776</v>
       </c>
       <c r="KI26" s="17">
-        <f t="shared" ref="KI26" si="225">KH26*($F$2+1)</f>
+        <f t="shared" ref="KI26" si="226">KH26*($F$2+1)</f>
         <v>20852.017837177009</v>
       </c>
       <c r="KJ26" s="17">
-        <f t="shared" ref="KJ26" si="226">KI26*($F$2+1)</f>
+        <f t="shared" ref="KJ26" si="227">KI26*($F$2+1)</f>
         <v>20643.497658805238</v>
       </c>
       <c r="KK26" s="17">
-        <f t="shared" ref="KK26" si="227">KJ26*($F$2+1)</f>
+        <f t="shared" ref="KK26" si="228">KJ26*($F$2+1)</f>
         <v>20437.062682217183</v>
       </c>
       <c r="KL26" s="17">
-        <f t="shared" ref="KL26" si="228">KK26*($F$2+1)</f>
+        <f t="shared" ref="KL26" si="229">KK26*($F$2+1)</f>
         <v>20232.692055395011</v>
       </c>
       <c r="KM26" s="17">
-        <f t="shared" ref="KM26" si="229">KL26*($F$2+1)</f>
+        <f t="shared" ref="KM26" si="230">KL26*($F$2+1)</f>
         <v>20030.36513484106</v>
       </c>
       <c r="KN26" s="17">
-        <f t="shared" ref="KN26" si="230">KM26*($F$2+1)</f>
+        <f t="shared" ref="KN26" si="231">KM26*($F$2+1)</f>
         <v>19830.061483492649</v>
       </c>
       <c r="KO26" s="17">
-        <f t="shared" ref="KO26" si="231">KN26*($F$2+1)</f>
+        <f t="shared" ref="KO26" si="232">KN26*($F$2+1)</f>
         <v>19631.760868657722</v>
       </c>
       <c r="KP26" s="17">
-        <f t="shared" ref="KP26" si="232">KO26*($F$2+1)</f>
+        <f t="shared" ref="KP26" si="233">KO26*($F$2+1)</f>
         <v>19435.443259971144</v>
       </c>
       <c r="KQ26" s="17">
-        <f t="shared" ref="KQ26" si="233">KP26*($F$2+1)</f>
+        <f t="shared" ref="KQ26" si="234">KP26*($F$2+1)</f>
         <v>19241.088827371434</v>
       </c>
       <c r="KR26" s="17">
-        <f t="shared" ref="KR26" si="234">KQ26*($F$2+1)</f>
+        <f t="shared" ref="KR26" si="235">KQ26*($F$2+1)</f>
         <v>19048.677939097721</v>
       </c>
       <c r="KS26" s="17">
-        <f t="shared" ref="KS26" si="235">KR26*($F$2+1)</f>
+        <f t="shared" ref="KS26" si="236">KR26*($F$2+1)</f>
         <v>18858.191159706745</v>
       </c>
       <c r="KT26" s="17">
-        <f t="shared" ref="KT26" si="236">KS26*($F$2+1)</f>
+        <f t="shared" ref="KT26" si="237">KS26*($F$2+1)</f>
         <v>18669.609248109678</v>
       </c>
       <c r="KU26" s="17">
-        <f t="shared" ref="KU26" si="237">KT26*($F$2+1)</f>
+        <f t="shared" ref="KU26" si="238">KT26*($F$2+1)</f>
         <v>18482.913155628583</v>
       </c>
       <c r="KV26" s="17">
-        <f t="shared" ref="KV26" si="238">KU26*($F$2+1)</f>
+        <f t="shared" ref="KV26" si="239">KU26*($F$2+1)</f>
         <v>18298.084024072297</v>
       </c>
       <c r="KW26" s="17">
-        <f t="shared" ref="KW26" si="239">KV26*($F$2+1)</f>
+        <f t="shared" ref="KW26" si="240">KV26*($F$2+1)</f>
         <v>18115.103183831576</v>
       </c>
       <c r="KX26" s="17">
-        <f t="shared" ref="KX26" si="240">KW26*($F$2+1)</f>
+        <f t="shared" ref="KX26" si="241">KW26*($F$2+1)</f>
         <v>17933.95215199326</v>
       </c>
       <c r="KY26" s="17">
-        <f t="shared" ref="KY26" si="241">KX26*($F$2+1)</f>
+        <f t="shared" ref="KY26" si="242">KX26*($F$2+1)</f>
         <v>17754.612630473326</v>
       </c>
       <c r="KZ26" s="17">
-        <f t="shared" ref="KZ26" si="242">KY26*($F$2+1)</f>
+        <f t="shared" ref="KZ26" si="243">KY26*($F$2+1)</f>
         <v>17577.066504168593</v>
       </c>
       <c r="LA26" s="17">
-        <f t="shared" ref="LA26" si="243">KZ26*($F$2+1)</f>
+        <f t="shared" ref="LA26" si="244">KZ26*($F$2+1)</f>
         <v>17401.295839126906</v>
       </c>
       <c r="LB26" s="17">
-        <f t="shared" ref="LB26" si="244">LA26*($F$2+1)</f>
+        <f t="shared" ref="LB26" si="245">LA26*($F$2+1)</f>
         <v>17227.282880735638</v>
       </c>
       <c r="LC26" s="17">
-        <f t="shared" ref="LC26" si="245">LB26*($F$2+1)</f>
+        <f t="shared" ref="LC26" si="246">LB26*($F$2+1)</f>
         <v>17055.010051928282</v>
       </c>
       <c r="LD26" s="17">
-        <f t="shared" ref="LD26" si="246">LC26*($F$2+1)</f>
+        <f t="shared" ref="LD26" si="247">LC26*($F$2+1)</f>
         <v>16884.459951409</v>
       </c>
       <c r="LE26" s="17">
-        <f t="shared" ref="LE26" si="247">LD26*($F$2+1)</f>
+        <f t="shared" ref="LE26" si="248">LD26*($F$2+1)</f>
         <v>16715.61535189491</v>
       </c>
       <c r="LF26" s="17">
-        <f t="shared" ref="LF26" si="248">LE26*($F$2+1)</f>
+        <f t="shared" ref="LF26" si="249">LE26*($F$2+1)</f>
         <v>16548.45919837596</v>
       </c>
       <c r="LG26" s="17">
-        <f t="shared" ref="LG26" si="249">LF26*($F$2+1)</f>
+        <f t="shared" ref="LG26" si="250">LF26*($F$2+1)</f>
         <v>16382.974606392201</v>
       </c>
       <c r="LH26" s="17">
-        <f t="shared" ref="LH26" si="250">LG26*($F$2+1)</f>
+        <f t="shared" ref="LH26" si="251">LG26*($F$2+1)</f>
         <v>16219.144860328279</v>
       </c>
       <c r="LI26" s="17">
-        <f t="shared" ref="LI26" si="251">LH26*($F$2+1)</f>
+        <f t="shared" ref="LI26" si="252">LH26*($F$2+1)</f>
         <v>16056.953411724995</v>
       </c>
       <c r="LJ26" s="17">
-        <f t="shared" ref="LJ26" si="252">LI26*($F$2+1)</f>
+        <f t="shared" ref="LJ26" si="253">LI26*($F$2+1)</f>
         <v>15896.383877607745</v>
       </c>
       <c r="LK26" s="17">
-        <f t="shared" ref="LK26" si="253">LJ26*($F$2+1)</f>
+        <f t="shared" ref="LK26" si="254">LJ26*($F$2+1)</f>
         <v>15737.420038831668</v>
       </c>
       <c r="LL26" s="17">
-        <f t="shared" ref="LL26" si="254">LK26*($F$2+1)</f>
+        <f t="shared" ref="LL26" si="255">LK26*($F$2+1)</f>
         <v>15580.045838443351</v>
       </c>
       <c r="LM26" s="17">
-        <f t="shared" ref="LM26" si="255">LL26*($F$2+1)</f>
+        <f t="shared" ref="LM26" si="256">LL26*($F$2+1)</f>
         <v>15424.245380058917</v>
       </c>
       <c r="LN26" s="17">
-        <f t="shared" ref="LN26" si="256">LM26*($F$2+1)</f>
+        <f t="shared" ref="LN26" si="257">LM26*($F$2+1)</f>
         <v>15270.002926258328</v>
       </c>
       <c r="LO26" s="17">
-        <f t="shared" ref="LO26" si="257">LN26*($F$2+1)</f>
+        <f t="shared" ref="LO26" si="258">LN26*($F$2+1)</f>
         <v>15117.302896995745</v>
       </c>
       <c r="LP26" s="17">
-        <f t="shared" ref="LP26" si="258">LO26*($F$2+1)</f>
+        <f t="shared" ref="LP26" si="259">LO26*($F$2+1)</f>
         <v>14966.129868025788</v>
       </c>
       <c r="LQ26" s="17">
-        <f t="shared" ref="LQ26" si="259">LP26*($F$2+1)</f>
+        <f t="shared" ref="LQ26" si="260">LP26*($F$2+1)</f>
         <v>14816.46856934553</v>
       </c>
       <c r="LR26" s="17">
-        <f t="shared" ref="LR26" si="260">LQ26*($F$2+1)</f>
+        <f t="shared" ref="LR26" si="261">LQ26*($F$2+1)</f>
         <v>14668.303883652075</v>
       </c>
       <c r="LS26" s="17">
-        <f t="shared" ref="LS26" si="261">LR26*($F$2+1)</f>
+        <f t="shared" ref="LS26" si="262">LR26*($F$2+1)</f>
         <v>14521.620844815554</v>
       </c>
       <c r="LT26" s="17">
-        <f t="shared" ref="LT26" si="262">LS26*($F$2+1)</f>
+        <f t="shared" ref="LT26" si="263">LS26*($F$2+1)</f>
         <v>14376.404636367399</v>
       </c>
       <c r="LU26" s="17">
-        <f t="shared" ref="LU26" si="263">LT26*($F$2+1)</f>
+        <f t="shared" ref="LU26" si="264">LT26*($F$2+1)</f>
         <v>14232.640590003724</v>
       </c>
       <c r="LV26" s="17">
-        <f t="shared" ref="LV26" si="264">LU26*($F$2+1)</f>
+        <f t="shared" ref="LV26" si="265">LU26*($F$2+1)</f>
         <v>14090.314184103687</v>
       </c>
       <c r="LW26" s="17">
-        <f t="shared" ref="LW26" si="265">LV26*($F$2+1)</f>
+        <f t="shared" ref="LW26" si="266">LV26*($F$2+1)</f>
         <v>13949.411042262649</v>
       </c>
       <c r="LX26" s="17">
-        <f t="shared" ref="LX26" si="266">LW26*($F$2+1)</f>
+        <f t="shared" ref="LX26" si="267">LW26*($F$2+1)</f>
         <v>13809.916931840022</v>
       </c>
       <c r="LY26" s="17">
-        <f t="shared" ref="LY26" si="267">LX26*($F$2+1)</f>
+        <f t="shared" ref="LY26" si="268">LX26*($F$2+1)</f>
         <v>13671.817762521621</v>
       </c>
       <c r="LZ26" s="17">
-        <f t="shared" ref="LZ26" si="268">LY26*($F$2+1)</f>
+        <f t="shared" ref="LZ26" si="269">LY26*($F$2+1)</f>
         <v>13535.099584896405</v>
       </c>
       <c r="MA26" s="17">
-        <f t="shared" ref="MA26" si="269">LZ26*($F$2+1)</f>
+        <f t="shared" ref="MA26" si="270">LZ26*($F$2+1)</f>
         <v>13399.74858904744</v>
       </c>
       <c r="MB26" s="17">
-        <f t="shared" ref="MB26" si="270">MA26*($F$2+1)</f>
+        <f t="shared" ref="MB26" si="271">MA26*($F$2+1)</f>
         <v>13265.751103156965</v>
       </c>
       <c r="MC26" s="17">
-        <f t="shared" ref="MC26" si="271">MB26*($F$2+1)</f>
+        <f t="shared" ref="MC26" si="272">MB26*($F$2+1)</f>
         <v>13133.093592125395</v>
       </c>
       <c r="MD26" s="17">
-        <f t="shared" ref="MD26" si="272">MC26*($F$2+1)</f>
+        <f t="shared" ref="MD26" si="273">MC26*($F$2+1)</f>
         <v>13001.762656204141</v>
       </c>
       <c r="ME26" s="17">
-        <f t="shared" ref="ME26" si="273">MD26*($F$2+1)</f>
+        <f t="shared" ref="ME26" si="274">MD26*($F$2+1)</f>
         <v>12871.745029642099</v>
       </c>
       <c r="MF26" s="17">
-        <f t="shared" ref="MF26" si="274">ME26*($F$2+1)</f>
+        <f t="shared" ref="MF26" si="275">ME26*($F$2+1)</f>
         <v>12743.027579345679</v>
       </c>
       <c r="MG26" s="17">
-        <f t="shared" ref="MG26" si="275">MF26*($F$2+1)</f>
+        <f t="shared" ref="MG26" si="276">MF26*($F$2+1)</f>
         <v>12615.597303552222</v>
       </c>
       <c r="MH26" s="17">
-        <f t="shared" ref="MH26" si="276">MG26*($F$2+1)</f>
+        <f t="shared" ref="MH26" si="277">MG26*($F$2+1)</f>
         <v>12489.4413305167</v>
       </c>
     </row>
@@ -4397,87 +4397,87 @@
         <v>16</v>
       </c>
       <c r="B27" s="30">
-        <f t="shared" ref="B27:G27" si="277">B26/B28</f>
+        <f t="shared" ref="B27:G27" si="278">B26/B28</f>
         <v>23.750650135547815</v>
       </c>
       <c r="C27" s="30">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>28.188133140376266</v>
       </c>
       <c r="D27" s="30">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>31.582078349014594</v>
       </c>
       <c r="E27" s="30">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>43.852252607009</v>
       </c>
       <c r="F27" s="30">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>51.841644202913145</v>
       </c>
       <c r="G27" s="30">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>58.96168054479778</v>
       </c>
       <c r="H27" s="54">
-        <f t="shared" ref="H27" si="278">H26/H28</f>
+        <f t="shared" ref="H27" si="279">H26/H28</f>
         <v>62.508849558748274</v>
       </c>
       <c r="I27" s="54">
-        <f t="shared" ref="I27:Q27" si="279">I26/I28</f>
+        <f t="shared" ref="I27:Q27" si="280">I26/I28</f>
         <v>69.857063777688609</v>
       </c>
       <c r="J27" s="54">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>78.732194009679688</v>
       </c>
       <c r="K27" s="54">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>89.152719089610656</v>
       </c>
       <c r="L27" s="54">
-        <f t="shared" ref="L27" si="280">L26/L28</f>
+        <f t="shared" ref="L27" si="281">L26/L28</f>
         <v>100.97295837770773</v>
       </c>
       <c r="M27" s="54">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>121.65107244501893</v>
       </c>
       <c r="N27" s="54">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>145.03076044495251</v>
       </c>
       <c r="O27" s="54">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>171.42296647122552</v>
       </c>
       <c r="P27" s="54">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>201.17206209324056</v>
       </c>
       <c r="Q27" s="54">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>234.65932009971158</v>
       </c>
       <c r="R27" s="54">
-        <f t="shared" ref="R27:U27" si="281">R26/R28</f>
+        <f t="shared" ref="R27:U27" si="282">R26/R28</f>
         <v>272.30674273883955</v>
       </c>
       <c r="S27" s="54">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>314.58128028587004</v>
       </c>
       <c r="T27" s="54">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>361.99947937206161</v>
       </c>
       <c r="U27" s="54">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>415.13260447365371</v>
       </c>
       <c r="V27" s="54">
-        <f t="shared" ref="V27" si="282">V26/V28</f>
+        <f t="shared" ref="V27" si="283">V26/V28</f>
         <v>474.61228032154833</v>
       </c>
     </row>
@@ -4510,63 +4510,63 @@
         <v>682.96900000000005</v>
       </c>
       <c r="H28" s="23">
-        <f t="shared" ref="H28" si="283">G28</f>
+        <f t="shared" ref="H28" si="284">G28</f>
         <v>682.96900000000005</v>
       </c>
       <c r="I28" s="23">
-        <f t="shared" ref="I28" si="284">H28</f>
+        <f t="shared" ref="I28" si="285">H28</f>
         <v>682.96900000000005</v>
       </c>
       <c r="J28" s="23">
-        <f t="shared" ref="J28" si="285">I28</f>
+        <f t="shared" ref="J28" si="286">I28</f>
         <v>682.96900000000005</v>
       </c>
       <c r="K28" s="23">
-        <f t="shared" ref="K28:L28" si="286">J28</f>
+        <f t="shared" ref="K28:L28" si="287">J28</f>
         <v>682.96900000000005</v>
       </c>
       <c r="L28" s="23">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>682.96900000000005</v>
       </c>
       <c r="M28" s="23">
-        <f t="shared" ref="M28" si="287">L28</f>
+        <f t="shared" ref="M28" si="288">L28</f>
         <v>682.96900000000005</v>
       </c>
       <c r="N28" s="23">
-        <f t="shared" ref="N28" si="288">M28</f>
+        <f t="shared" ref="N28" si="289">M28</f>
         <v>682.96900000000005</v>
       </c>
       <c r="O28" s="23">
-        <f t="shared" ref="O28" si="289">N28</f>
+        <f t="shared" ref="O28" si="290">N28</f>
         <v>682.96900000000005</v>
       </c>
       <c r="P28" s="23">
-        <f t="shared" ref="P28" si="290">O28</f>
+        <f t="shared" ref="P28" si="291">O28</f>
         <v>682.96900000000005</v>
       </c>
       <c r="Q28" s="23">
-        <f t="shared" ref="Q28:V28" si="291">P28</f>
+        <f t="shared" ref="Q28:V28" si="292">P28</f>
         <v>682.96900000000005</v>
       </c>
       <c r="R28" s="23">
-        <f t="shared" si="291"/>
+        <f t="shared" si="292"/>
         <v>682.96900000000005</v>
       </c>
       <c r="S28" s="23">
-        <f t="shared" si="291"/>
+        <f t="shared" si="292"/>
         <v>682.96900000000005</v>
       </c>
       <c r="T28" s="23">
-        <f t="shared" si="291"/>
+        <f t="shared" si="292"/>
         <v>682.96900000000005</v>
       </c>
       <c r="U28" s="23">
-        <f t="shared" si="291"/>
+        <f t="shared" si="292"/>
         <v>682.96900000000005</v>
       </c>
       <c r="V28" s="23">
-        <f t="shared" si="291"/>
+        <f t="shared" si="292"/>
         <v>682.96900000000005</v>
       </c>
     </row>
@@ -4598,15 +4598,15 @@
         <v>19</v>
       </c>
       <c r="B30" s="36">
-        <f t="shared" ref="B30:Q30" si="292">IFERROR(B17/B15,0)</f>
+        <f t="shared" ref="B30:Q30" si="293">IFERROR(B17/B15,0)</f>
         <v>0.62442491565429592</v>
       </c>
       <c r="C30" s="36">
-        <f t="shared" si="292"/>
+        <f t="shared" si="293"/>
         <v>0.61075416518964909</v>
       </c>
       <c r="D30" s="36">
-        <f t="shared" si="292"/>
+        <f t="shared" si="293"/>
         <v>0.58880519597672631</v>
       </c>
       <c r="E30" s="36">
@@ -4614,11 +4614,11 @@
         <v>0.5647607422945643</v>
       </c>
       <c r="F30" s="36">
-        <f t="shared" si="292"/>
+        <f t="shared" si="293"/>
         <v>0.5558054331910266</v>
       </c>
       <c r="G30" s="36">
-        <f t="shared" si="292"/>
+        <f t="shared" si="293"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="H30" s="36">
@@ -4626,59 +4626,59 @@
         <v>0.53578374706207854</v>
       </c>
       <c r="I30" s="36">
-        <f t="shared" si="292"/>
+        <f t="shared" si="293"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="J30" s="36">
-        <f t="shared" si="292"/>
+        <f t="shared" si="293"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="K30" s="36">
-        <f t="shared" si="292"/>
+        <f t="shared" si="293"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="L30" s="36">
-        <f t="shared" ref="L30" si="293">IFERROR(L17/L15,0)</f>
+        <f t="shared" ref="L30" si="294">IFERROR(L17/L15,0)</f>
         <v>0.53578374706207854</v>
       </c>
       <c r="M30" s="36">
-        <f t="shared" si="292"/>
+        <f t="shared" si="293"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="N30" s="36">
-        <f t="shared" si="292"/>
+        <f t="shared" si="293"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="O30" s="36">
-        <f t="shared" si="292"/>
+        <f t="shared" si="293"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="P30" s="36">
-        <f t="shared" si="292"/>
+        <f t="shared" si="293"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="Q30" s="36">
-        <f t="shared" si="292"/>
+        <f t="shared" si="293"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="R30" s="36">
-        <f t="shared" ref="R30:U30" si="294">IFERROR(R17/R15,0)</f>
+        <f t="shared" ref="R30:U30" si="295">IFERROR(R17/R15,0)</f>
         <v>0.53578374706207854</v>
       </c>
       <c r="S30" s="36">
-        <f t="shared" si="294"/>
+        <f t="shared" si="295"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="T30" s="36">
-        <f t="shared" si="294"/>
+        <f t="shared" si="295"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="U30" s="36">
-        <f t="shared" si="294"/>
+        <f t="shared" si="295"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="V30" s="36">
-        <f t="shared" ref="V30" si="295">IFERROR(V17/V15,0)</f>
+        <f t="shared" ref="V30" si="296">IFERROR(V17/V15,0)</f>
         <v>0.53578374706207854</v>
       </c>
     </row>
@@ -4687,15 +4687,15 @@
         <v>20</v>
       </c>
       <c r="B31" s="38">
-        <f t="shared" ref="B31:Q31" si="296">IFERROR(B22/B15,0)</f>
+        <f t="shared" ref="B31:Q31" si="297">IFERROR(B22/B15,0)</f>
         <v>0.25817119844243824</v>
       </c>
       <c r="C31" s="38">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>0.26271712158808935</v>
       </c>
       <c r="D31" s="38">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>0.23585765188760091</v>
       </c>
       <c r="E31" s="38">
@@ -4703,71 +4703,71 @@
         <v>0.19237825155862856</v>
       </c>
       <c r="F31" s="38">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>0.22197371754079218</v>
       </c>
       <c r="G31" s="38">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>0.22585151785763202</v>
       </c>
       <c r="H31" s="38">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>0.21919175214918762</v>
       </c>
       <c r="I31" s="38">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>0.21444305278012948</v>
       </c>
       <c r="J31" s="38">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>0.21126415153736594</v>
       </c>
       <c r="K31" s="38">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>0.20906649731006344</v>
       </c>
       <c r="L31" s="38">
-        <f t="shared" ref="L31" si="297">IFERROR(L22/L15,0)</f>
+        <f t="shared" ref="L31" si="298">IFERROR(L22/L15,0)</f>
         <v>0.20711885184494191</v>
       </c>
       <c r="M31" s="38">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>0.22658383975149304</v>
       </c>
       <c r="N31" s="38">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>0.24467034553637301</v>
       </c>
       <c r="O31" s="38">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>0.26149488674446858</v>
       </c>
       <c r="P31" s="38">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>0.27716280911226698</v>
       </c>
       <c r="Q31" s="38">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v>0.29176943534711269</v>
       </c>
       <c r="R31" s="38">
-        <f t="shared" ref="R31:U31" si="298">IFERROR(R22/R15,0)</f>
+        <f t="shared" ref="R31:U31" si="299">IFERROR(R22/R15,0)</f>
         <v>0.30540109176524993</v>
       </c>
       <c r="S31" s="38">
-        <f t="shared" si="298"/>
+        <f t="shared" si="299"/>
         <v>0.31813602596859231</v>
       </c>
       <c r="T31" s="38">
-        <f t="shared" si="298"/>
+        <f t="shared" si="299"/>
         <v>0.33004522730892305</v>
       </c>
       <c r="U31" s="38">
-        <f t="shared" si="298"/>
+        <f t="shared" si="299"/>
         <v>0.34119316061282323</v>
       </c>
       <c r="V31" s="38">
-        <f t="shared" ref="V31" si="299">IFERROR(V22/V15,0)</f>
+        <f t="shared" ref="V31" si="300">IFERROR(V22/V15,0)</f>
         <v>0.35163842250407018</v>
       </c>
     </row>
@@ -4776,15 +4776,15 @@
         <v>21</v>
       </c>
       <c r="B32" s="38">
-        <f t="shared" ref="B32:Q32" si="300">IFERROR(B25/B24,0)</f>
+        <f t="shared" ref="B32:Q32" si="301">IFERROR(B25/B24,0)</f>
         <v>0.16808304920869166</v>
       </c>
       <c r="C32" s="38">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.19345755693581781</v>
       </c>
       <c r="D32" s="38">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.19398512947390398</v>
       </c>
       <c r="E32" s="38">
@@ -4792,71 +4792,71 @@
         <v>0.1196402486179933</v>
       </c>
       <c r="F32" s="38">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.12782537147282319</v>
       </c>
       <c r="G32" s="38">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.16249324071378063</v>
       </c>
       <c r="H32" s="38">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.15</v>
       </c>
       <c r="I32" s="38">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.15</v>
       </c>
       <c r="J32" s="38">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.15</v>
       </c>
       <c r="K32" s="38">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.15</v>
       </c>
       <c r="L32" s="38">
-        <f t="shared" ref="L32" si="301">IFERROR(L25/L24,0)</f>
+        <f t="shared" ref="L32" si="302">IFERROR(L25/L24,0)</f>
         <v>0.15</v>
       </c>
       <c r="M32" s="38">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.15</v>
       </c>
       <c r="N32" s="38">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.15</v>
       </c>
       <c r="O32" s="38">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.15</v>
       </c>
       <c r="P32" s="38">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.15</v>
       </c>
       <c r="Q32" s="38">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>0.15</v>
       </c>
       <c r="R32" s="38">
-        <f t="shared" ref="R32:U32" si="302">IFERROR(R25/R24,0)</f>
+        <f t="shared" ref="R32:U32" si="303">IFERROR(R25/R24,0)</f>
         <v>0.15</v>
       </c>
       <c r="S32" s="38">
-        <f t="shared" si="302"/>
+        <f t="shared" si="303"/>
         <v>0.15</v>
       </c>
       <c r="T32" s="38">
-        <f t="shared" si="302"/>
+        <f t="shared" si="303"/>
         <v>0.15</v>
       </c>
       <c r="U32" s="38">
-        <f t="shared" si="302"/>
+        <f t="shared" si="303"/>
         <v>0.15</v>
       </c>
       <c r="V32" s="38">
-        <f t="shared" ref="V32" si="303">IFERROR(V25/V24,0)</f>
+        <f t="shared" ref="V32" si="304">IFERROR(V25/V24,0)</f>
         <v>0.15</v>
       </c>
     </row>
@@ -4893,79 +4893,79 @@
         <v>0.20380322447292265</v>
       </c>
       <c r="D34" s="55">
-        <f t="shared" ref="D34:V34" si="304">D15/C15-1</f>
+        <f t="shared" ref="D34:V34" si="305">D15/C15-1</f>
         <v>0.22801090038993266</v>
       </c>
       <c r="E34" s="55">
-        <f t="shared" si="304"/>
+        <f t="shared" si="305"/>
         <v>0.23421586757475987</v>
       </c>
       <c r="F34" s="55">
-        <f t="shared" si="304"/>
+        <f t="shared" si="305"/>
         <v>0.18300089899794614</v>
       </c>
       <c r="G34" s="55">
-        <f>G15/F15-1</f>
+        <f t="shared" ref="G34:L34" si="306">G15/F15-1</f>
         <v>0.12770532012826141</v>
       </c>
       <c r="H34" s="55">
-        <f>H15/G15-1</f>
+        <f t="shared" si="306"/>
         <v>0.10195121817594122</v>
       </c>
       <c r="I34" s="55">
-        <f>I15/H15-1</f>
+        <f t="shared" si="306"/>
         <v>0.10954213284205672</v>
       </c>
       <c r="J34" s="55">
-        <f>J15/I15-1</f>
+        <f t="shared" si="306"/>
         <v>0.11570115007167248</v>
       </c>
       <c r="K34" s="55">
-        <f>K15/J15-1</f>
+        <f t="shared" si="306"/>
         <v>0.11970768713940361</v>
       </c>
       <c r="L34" s="55">
-        <f>L15/K15-1</f>
+        <f t="shared" si="306"/>
         <v>0.12115664410100258</v>
       </c>
       <c r="M34" s="55">
-        <f t="shared" si="304"/>
+        <f t="shared" si="305"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N34" s="55">
-        <f t="shared" si="304"/>
+        <f t="shared" si="305"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O34" s="55">
-        <f t="shared" si="304"/>
+        <f t="shared" si="305"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P34" s="55">
-        <f t="shared" si="304"/>
+        <f t="shared" si="305"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q34" s="55">
-        <f t="shared" si="304"/>
+        <f t="shared" si="305"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R34" s="55">
-        <f t="shared" si="304"/>
+        <f t="shared" si="305"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S34" s="55">
-        <f t="shared" si="304"/>
+        <f t="shared" si="305"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="T34" s="55">
-        <f t="shared" si="304"/>
+        <f t="shared" si="305"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="U34" s="55">
-        <f t="shared" si="304"/>
+        <f t="shared" si="305"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="V34" s="55">
-        <f t="shared" si="304"/>
+        <f t="shared" si="305"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -4975,83 +4975,83 @@
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="38">
-        <f t="shared" ref="C35:V35" si="305">C18/B18-1</f>
+        <f t="shared" ref="C35:V35" si="307">C18/B18-1</f>
         <v>0.13564566031590952</v>
       </c>
       <c r="D35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>0.19192715801548599</v>
       </c>
       <c r="E35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>0.28836090225563904</v>
       </c>
       <c r="F35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>0.21471590643820915</v>
       </c>
       <c r="G35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>5.9766315627642452E-2</v>
       </c>
       <c r="H35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="I35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="J35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="K35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="L35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="N35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="O35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="P35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Q35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="R35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="S35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="T35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="U35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="V35" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="307"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -5061,83 +5061,83 @@
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="38">
-        <f t="shared" ref="C36:V36" si="306">C19/B19-1</f>
+        <f t="shared" ref="C36:V36" si="308">C19/B19-1</f>
         <v>0.15894771747540615</v>
       </c>
       <c r="D36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>0.22966142107773013</v>
       </c>
       <c r="E36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>0.2668114480725976</v>
       </c>
       <c r="F36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>0.1304720504500092</v>
       </c>
       <c r="G36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>-2.805459272097055E-2</v>
       </c>
       <c r="H36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="I36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="J36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="K36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="L36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="M36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="N36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="O36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="P36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Q36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="R36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="S36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="T36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="U36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="V36" s="38">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="38">
-        <f t="shared" ref="C37:V37" si="307">C20/B20-1</f>
+        <f t="shared" ref="C37:V37" si="309">C20/B20-1</f>
         <v>0.13836375488917851</v>
       </c>
       <c r="D37" s="38">
@@ -5155,81 +5155,81 @@
         <v>0.37551896921975669</v>
       </c>
       <c r="E37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>0.37354288093255628</v>
       </c>
       <c r="F37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>-0.27627491096461321</v>
       </c>
       <c r="G37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>0.15715631871008262</v>
       </c>
       <c r="H37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="I37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="J37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="K37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="L37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="M37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="N37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="O37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="P37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="Q37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="R37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="S37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="U37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="V37" s="38">
-        <f t="shared" si="307"/>
+        <f t="shared" si="309"/>
         <v>-2.0000000000000129E-2</v>
       </c>
     </row>
     <row r="38" spans="1:122" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B38" s="44"/>
       <c r="C38" s="47">
@@ -5245,71 +5245,71 @@
         <v>0.30217758012574758</v>
       </c>
       <c r="F38" s="47">
-        <f t="shared" ref="F38:V38" si="308">F21/E21-1</f>
+        <f t="shared" ref="F38:V38" si="310">F21/E21-1</f>
         <v>6.0531119354648721E-2</v>
       </c>
       <c r="G38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>4.6971295319526929E-2</v>
       </c>
       <c r="H38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>0.12562973961923962</v>
       </c>
       <c r="I38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>0.12618463205502706</v>
       </c>
       <c r="J38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>0.12673835710964454</v>
       </c>
       <c r="K38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>0.12729037356549222</v>
       </c>
       <c r="L38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>0.12784014690115053</v>
       </c>
       <c r="M38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>3.4853137621952079E-2</v>
       </c>
       <c r="N38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>3.5656007996847316E-2</v>
       </c>
       <c r="O38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>3.6426852106735019E-2</v>
       </c>
       <c r="P38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>3.7165823706360568E-2</v>
       </c>
       <c r="Q38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>3.7873209394019058E-2</v>
       </c>
       <c r="R38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>3.8549415587285418E-2</v>
       </c>
       <c r="S38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>3.9194955429141087E-2</v>
       </c>
       <c r="T38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>3.9810435833890878E-2</v>
       </c>
       <c r="U38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>4.0396544852159932E-2</v>
       </c>
       <c r="V38" s="47">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>4.0954039504023543E-2</v>
       </c>
     </row>
@@ -5341,27 +5341,27 @@
         <v>33</v>
       </c>
       <c r="B40" s="25">
-        <f t="shared" ref="B40:G40" si="309">B41-B42</f>
+        <f t="shared" ref="B40:G40" si="311">B41-B42</f>
         <v>67846</v>
       </c>
       <c r="C40" s="25">
-        <f t="shared" si="309"/>
+        <f t="shared" si="311"/>
         <v>82398</v>
       </c>
       <c r="D40" s="25">
-        <f t="shared" si="309"/>
+        <f t="shared" si="311"/>
         <v>97902</v>
       </c>
       <c r="E40" s="25">
-        <f t="shared" si="309"/>
+        <f t="shared" si="311"/>
         <v>105128</v>
       </c>
       <c r="F40" s="25">
-        <f t="shared" si="309"/>
+        <f t="shared" si="311"/>
         <v>115121</v>
       </c>
       <c r="G40" s="25">
-        <f t="shared" si="309"/>
+        <f t="shared" si="311"/>
         <v>122762</v>
       </c>
       <c r="H40" s="56">
@@ -5369,59 +5369,59 @@
         <v>165453.60647428874</v>
       </c>
       <c r="I40" s="56">
-        <f t="shared" ref="I40:V40" si="310">H40+I26</f>
+        <f t="shared" ref="I40:V40" si="312">H40+I26</f>
         <v>213163.81546547296</v>
       </c>
       <c r="J40" s="56">
-        <f t="shared" si="310"/>
+        <f t="shared" si="312"/>
         <v>266935.4632760699</v>
       </c>
       <c r="K40" s="56">
-        <f t="shared" si="310"/>
+        <f t="shared" si="312"/>
         <v>327824.00667998218</v>
       </c>
       <c r="L40" s="56">
-        <f t="shared" si="310"/>
+        <f t="shared" si="312"/>
         <v>396785.40709024685</v>
       </c>
       <c r="M40" s="56">
-        <f t="shared" si="310"/>
+        <f t="shared" si="312"/>
         <v>479869.31838694902</v>
       </c>
       <c r="N40" s="56">
-        <f t="shared" si="310"/>
+        <f t="shared" si="312"/>
         <v>578920.83181727782</v>
       </c>
       <c r="O40" s="56">
-        <f t="shared" si="310"/>
+        <f t="shared" si="312"/>
         <v>695997.40380516427</v>
       </c>
       <c r="P40" s="56">
-        <f t="shared" si="310"/>
+        <f t="shared" si="312"/>
         <v>833391.68588092271</v>
       </c>
       <c r="Q40" s="56">
-        <f t="shared" si="310"/>
+        <f t="shared" si="312"/>
         <v>993656.7270701027</v>
       </c>
       <c r="R40" s="56">
-        <f t="shared" si="310"/>
+        <f t="shared" si="312"/>
         <v>1179633.7908517052</v>
       </c>
       <c r="S40" s="56">
-        <f t="shared" si="310"/>
+        <f t="shared" si="312"/>
         <v>1394483.0532672657</v>
       </c>
       <c r="T40" s="56">
-        <f t="shared" si="310"/>
+        <f t="shared" si="312"/>
         <v>1641717.4756945232</v>
       </c>
       <c r="U40" s="56">
-        <f t="shared" si="310"/>
+        <f t="shared" si="312"/>
         <v>1925240.17543929</v>
       </c>
       <c r="V40" s="56">
-        <f t="shared" si="310"/>
+        <f t="shared" si="312"/>
         <v>2249385.6499182177</v>
       </c>
     </row>
@@ -5996,27 +5996,27 @@
         <v>81</v>
       </c>
       <c r="B48" s="60">
-        <f t="shared" ref="B48:G48" si="311">B45-B44-B41</f>
+        <f t="shared" ref="B48:G48" si="313">B45-B44-B41</f>
         <v>54679</v>
       </c>
       <c r="C48" s="60">
-        <f t="shared" si="311"/>
+        <f t="shared" si="313"/>
         <v>61360</v>
       </c>
       <c r="D48" s="60">
-        <f t="shared" si="311"/>
+        <f t="shared" si="313"/>
         <v>75985</v>
       </c>
       <c r="E48" s="60">
-        <f t="shared" si="311"/>
+        <f t="shared" si="313"/>
         <v>103544</v>
       </c>
       <c r="F48" s="60">
-        <f t="shared" si="311"/>
+        <f t="shared" si="313"/>
         <v>133631</v>
       </c>
       <c r="G48" s="60">
-        <f t="shared" si="311"/>
+        <f t="shared" si="313"/>
         <v>160302</v>
       </c>
       <c r="H48" s="40"/>
@@ -6140,27 +6140,27 @@
         <v>82</v>
       </c>
       <c r="B49" s="60">
-        <f t="shared" ref="B49:G49" si="312">B45-B46</f>
+        <f t="shared" ref="B49:G49" si="314">B45-B46</f>
         <v>120331</v>
       </c>
       <c r="C49" s="60">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>139007</v>
       </c>
       <c r="D49" s="60">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>152502</v>
       </c>
       <c r="E49" s="60">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>177628</v>
       </c>
       <c r="F49" s="60">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>201442</v>
       </c>
       <c r="G49" s="60">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>222544</v>
       </c>
       <c r="H49" s="40"/>
@@ -6304,30 +6304,30 @@
     </row>
     <row r="51" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" s="61">
-        <f t="shared" ref="B51:G51" si="313">B26/B49</f>
+        <f t="shared" ref="B51:G51" si="315">B26/B49</f>
         <v>0.13585859005576287</v>
       </c>
       <c r="C51" s="61">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>0.1401224398771285</v>
       </c>
       <c r="D51" s="61">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>0.14372245855278049</v>
       </c>
       <c r="E51" s="61">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>0.17303578264687999</v>
       </c>
       <c r="F51" s="61">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>0.17891005847837094</v>
       </c>
       <c r="G51" s="61">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>0.18094848659141563</v>
       </c>
       <c r="H51" s="41"/>
@@ -6348,30 +6348,30 @@
     </row>
     <row r="52" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" s="61">
-        <f t="shared" ref="B52:G52" si="314">B26/B45</f>
+        <f t="shared" ref="B52:G52" si="316">B26/B45</f>
         <v>0.11086321128976476</v>
       </c>
       <c r="C52" s="61">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>0.11630878735041919</v>
       </c>
       <c r="D52" s="61">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>0.11109233571157975</v>
       </c>
       <c r="E52" s="61">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>0.13203202859204782</v>
       </c>
       <c r="F52" s="61">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>0.13062277779992679</v>
       </c>
       <c r="G52" s="61">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>0.12599181517821387</v>
       </c>
       <c r="H52" s="41"/>
@@ -6392,30 +6392,30 @@
     </row>
     <row r="53" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" s="61">
-        <f t="shared" ref="B53:G53" si="315">B26/(B49-B44)</f>
+        <f t="shared" ref="B53:G53" si="317">B26/(B49-B44)</f>
         <v>0.16248074342791829</v>
       </c>
       <c r="C53" s="61">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>0.16336218464841654</v>
       </c>
       <c r="D53" s="61">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>0.16471868494033748</v>
       </c>
       <c r="E53" s="61">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>0.19512442864398172</v>
       </c>
       <c r="F53" s="61">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>0.2015220393761987</v>
       </c>
       <c r="G53" s="61">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>0.20142154018527039</v>
       </c>
       <c r="H53" s="41"/>
@@ -6436,30 +6436,30 @@
     </row>
     <row r="54" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54" s="61">
-        <f t="shared" ref="B54:G54" si="316">B26/B48</f>
+        <f t="shared" ref="B54:G54" si="318">B26/B48</f>
         <v>0.29898132738345617</v>
       </c>
       <c r="C54" s="61">
-        <f t="shared" si="316"/>
+        <f t="shared" si="318"/>
         <v>0.3174380704041721</v>
       </c>
       <c r="D54" s="61">
-        <f t="shared" si="316"/>
+        <f t="shared" si="318"/>
         <v>0.28845117291855138</v>
       </c>
       <c r="E54" s="61">
-        <f t="shared" si="316"/>
+        <f t="shared" si="318"/>
         <v>0.29683999072857914</v>
       </c>
       <c r="F54" s="61">
-        <f t="shared" si="316"/>
+        <f t="shared" si="318"/>
         <v>0.26969789943950129</v>
       </c>
       <c r="G54" s="61">
-        <f t="shared" si="316"/>
+        <f t="shared" si="318"/>
         <v>0.25120709660515778</v>
       </c>
       <c r="H54" s="41"/>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="56" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" s="41"/>
       <c r="C56" s="61">
@@ -6511,39 +6511,39 @@
         <v>0.17796408962754118</v>
       </c>
       <c r="D56" s="61">
-        <f t="shared" ref="D56:E56" si="317">D10/C10-1</f>
+        <f t="shared" ref="D56:E56" si="319">D10/C10-1</f>
         <v>0.20145371175188642</v>
       </c>
       <c r="E56" s="61">
-        <f t="shared" si="317"/>
+        <f t="shared" si="319"/>
         <v>0.21835910878112719</v>
       </c>
       <c r="F56" s="61">
-        <f t="shared" ref="F56:L56" si="318">F10/E10-1</f>
+        <f t="shared" ref="F56:L56" si="320">F10/E10-1</f>
         <v>0.16015352707808028</v>
       </c>
       <c r="G56" s="61">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>8.9851718331590114E-2</v>
       </c>
       <c r="H56" s="61">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="I56" s="61">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="J56" s="61">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K56" s="61">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="L56" s="61">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="M56" s="41"/>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="57" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A57" s="51" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B57" s="41"/>
       <c r="C57" s="61"/>
@@ -6574,23 +6574,23 @@
         <v>0.46434178066831122</v>
       </c>
       <c r="H57" s="61">
-        <f t="shared" ref="H57" si="319">H11/G11-1</f>
+        <f t="shared" ref="H57" si="321">H11/G11-1</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="I57" s="61">
-        <f t="shared" ref="I57" si="320">I11/H11-1</f>
+        <f t="shared" ref="I57" si="322">I11/H11-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="J57" s="61">
-        <f t="shared" ref="J57" si="321">J11/I11-1</f>
+        <f t="shared" ref="J57" si="323">J11/I11-1</f>
         <v>0.35000000000000009</v>
       </c>
       <c r="K57" s="61">
-        <f t="shared" ref="K57:L57" si="322">K11/J11-1</f>
+        <f t="shared" ref="K57:L57" si="324">K11/J11-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="L57" s="61">
-        <f t="shared" si="322"/>
+        <f t="shared" si="324"/>
         <v>0.25</v>
       </c>
       <c r="M57" s="41"/>
@@ -6606,19 +6606,19 @@
     </row>
     <row r="58" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B58" s="41"/>
       <c r="C58" s="61">
-        <f t="shared" ref="C58:E58" si="323">C12/B12-1</f>
+        <f t="shared" ref="C58:E58" si="325">C12/B12-1</f>
         <v>0.40886217500698918</v>
       </c>
       <c r="D58" s="61">
-        <f t="shared" si="323"/>
+        <f t="shared" si="325"/>
         <v>0.41650957436253599</v>
       </c>
       <c r="E58" s="61">
-        <f t="shared" si="323"/>
+        <f t="shared" si="325"/>
         <v>0.27407718708412121</v>
       </c>
       <c r="F58" s="61">
@@ -6630,23 +6630,23 @@
         <v>0.27606676854355228</v>
       </c>
       <c r="H58" s="61">
-        <f t="shared" ref="H58:H59" si="324">H12/G12-1</f>
+        <f t="shared" ref="H58:H59" si="326">H12/G12-1</f>
         <v>0.25</v>
       </c>
       <c r="I58" s="61">
-        <f t="shared" ref="I58:I59" si="325">I12/H12-1</f>
+        <f t="shared" ref="I58:I59" si="327">I12/H12-1</f>
         <v>0.25</v>
       </c>
       <c r="J58" s="61">
-        <f t="shared" ref="J58:J59" si="326">J12/I12-1</f>
+        <f t="shared" ref="J58:J59" si="328">J12/I12-1</f>
         <v>0.25</v>
       </c>
       <c r="K58" s="61">
-        <f t="shared" ref="K58:L59" si="327">K12/J12-1</f>
+        <f t="shared" ref="K58:L59" si="329">K12/J12-1</f>
         <v>0.25</v>
       </c>
       <c r="L58" s="61">
-        <f t="shared" si="327"/>
+        <f t="shared" si="329"/>
         <v>0.25</v>
       </c>
       <c r="M58" s="41"/>
@@ -6662,47 +6662,47 @@
     </row>
     <row r="59" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B59" s="41"/>
       <c r="C59" s="61">
-        <f t="shared" ref="C59:E59" si="328">C13/B13-1</f>
+        <f t="shared" ref="C59:E59" si="330">C13/B13-1</f>
         <v>0.8202247191011236</v>
       </c>
       <c r="D59" s="61">
-        <f t="shared" si="328"/>
+        <f t="shared" si="330"/>
         <v>0.48518518518518516</v>
       </c>
       <c r="E59" s="61">
-        <f t="shared" si="328"/>
+        <f t="shared" si="330"/>
         <v>-0.40232751454696591</v>
       </c>
       <c r="F59" s="61">
-        <f t="shared" ref="F59:G59" si="329">F13/E13-1</f>
+        <f t="shared" ref="F59:G59" si="331">F13/E13-1</f>
         <v>0.54937413073713492</v>
       </c>
       <c r="G59" s="61">
-        <f t="shared" si="329"/>
+        <f t="shared" si="331"/>
         <v>-0.25224416517055659</v>
       </c>
       <c r="H59" s="61">
-        <f t="shared" si="324"/>
-        <v>-5.0000000000000155E-2</v>
-      </c>
-      <c r="I59" s="61">
-        <f t="shared" si="325"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="J59" s="61">
         <f t="shared" si="326"/>
         <v>-5.0000000000000155E-2</v>
       </c>
-      <c r="K59" s="61">
+      <c r="I59" s="61">
         <f t="shared" si="327"/>
         <v>-5.0000000000000044E-2</v>
       </c>
+      <c r="J59" s="61">
+        <f t="shared" si="328"/>
+        <v>-5.0000000000000155E-2</v>
+      </c>
+      <c r="K59" s="61">
+        <f t="shared" si="329"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
       <c r="L59" s="61">
-        <f t="shared" si="327"/>
+        <f t="shared" si="329"/>
         <v>-5.0000000000000155E-2</v>
       </c>
       <c r="M59" s="41"/>
@@ -6745,22 +6745,21 @@
     <hyperlink ref="A7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="A1" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L4" r:id="rId5" xr:uid="{9F9ED643-90F4-6643-BA04-1099F712C68D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y52" sqref="Y52"/>
+      <selection pane="bottomRight" activeCell="AA44" sqref="AA44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6845,16 +6844,16 @@
         <v>76</v>
       </c>
       <c r="V1" s="71" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="W1" s="77" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="X1" s="77" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Y1" s="77" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.15">
@@ -6908,16 +6907,16 @@
         <v>49</v>
       </c>
       <c r="R2" s="69" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S2" s="68" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="T2" s="68" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="U2" s="68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="V2" s="72">
         <v>43921</v>
@@ -7011,7 +7010,7 @@
     </row>
     <row r="4" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -7229,99 +7228,99 @@
         <v>4</v>
       </c>
       <c r="B8" s="25">
-        <f>SUM(B3:B6)</f>
+        <f t="shared" ref="B8:Y8" si="0">SUM(B3:B6)</f>
         <v>17258</v>
       </c>
       <c r="C8" s="25">
-        <f>SUM(C3:C6)</f>
+        <f t="shared" si="0"/>
         <v>17727</v>
       </c>
       <c r="D8" s="25">
-        <f>SUM(D3:D6)</f>
+        <f t="shared" si="0"/>
         <v>18675</v>
       </c>
       <c r="E8" s="25">
-        <f>SUM(E3:E6)</f>
+        <f t="shared" si="0"/>
         <v>21329</v>
       </c>
       <c r="F8" s="26">
-        <f>SUM(F3:F6)</f>
+        <f t="shared" si="0"/>
         <v>20257</v>
       </c>
       <c r="G8" s="25">
-        <f>SUM(G3:G6)</f>
+        <f t="shared" si="0"/>
         <v>21500</v>
       </c>
       <c r="H8" s="25">
-        <f>SUM(H3:H6)</f>
+        <f t="shared" si="0"/>
         <v>22451</v>
       </c>
       <c r="I8" s="25">
-        <f>SUM(I3:I6)</f>
+        <f t="shared" si="0"/>
         <v>26064</v>
       </c>
       <c r="J8" s="26">
-        <f>SUM(J3:J6)</f>
+        <f t="shared" si="0"/>
         <v>24750</v>
       </c>
       <c r="K8" s="25">
-        <f>SUM(K3:K6)</f>
+        <f t="shared" si="0"/>
         <v>26010</v>
       </c>
       <c r="L8" s="25">
-        <f>SUM(L3:L6)</f>
+        <f t="shared" si="0"/>
         <v>27772</v>
       </c>
       <c r="M8" s="25">
-        <f>SUM(M3:M6)</f>
+        <f t="shared" si="0"/>
         <v>32323</v>
       </c>
       <c r="N8" s="26">
-        <f>SUM(N3:N6)</f>
+        <f t="shared" si="0"/>
         <v>31146</v>
       </c>
       <c r="O8" s="25">
-        <f>SUM(O3:O6)</f>
+        <f t="shared" si="0"/>
         <v>32657</v>
       </c>
       <c r="P8" s="25">
-        <f>SUM(P3:P6)</f>
+        <f t="shared" si="0"/>
         <v>33740</v>
       </c>
       <c r="Q8" s="25">
-        <f>SUM(Q3:Q6)</f>
+        <f t="shared" si="0"/>
         <v>39276</v>
       </c>
       <c r="R8" s="26">
-        <f>SUM(R3:R6)</f>
+        <f t="shared" si="0"/>
         <v>36339</v>
       </c>
       <c r="S8" s="25">
-        <f>SUM(S3:S6)</f>
+        <f t="shared" si="0"/>
         <v>38944</v>
       </c>
       <c r="T8" s="25">
-        <f>SUM(T3:T6)</f>
+        <f t="shared" si="0"/>
         <v>40499</v>
       </c>
       <c r="U8" s="25">
-        <f>SUM(U3:U6)</f>
+        <f t="shared" si="0"/>
         <v>46075</v>
       </c>
       <c r="V8" s="26">
-        <f>SUM(V3:V6)</f>
+        <f t="shared" si="0"/>
         <v>41159</v>
       </c>
       <c r="W8" s="25">
-        <f>SUM(W3:W6)</f>
+        <f t="shared" si="0"/>
         <v>38297</v>
       </c>
       <c r="X8" s="25">
-        <f>SUM(X3:X6)</f>
+        <f t="shared" si="0"/>
         <v>46173</v>
       </c>
       <c r="Y8" s="25">
-        <f>SUM(Y3:Y6)</f>
+        <f t="shared" si="0"/>
         <v>56898</v>
       </c>
     </row>
@@ -7427,31 +7426,31 @@
         <v>12609</v>
       </c>
       <c r="G10" s="28">
-        <f t="shared" ref="G10:L10" si="0">G8-G9</f>
+        <f t="shared" ref="G10:L10" si="1">G8-G9</f>
         <v>13370</v>
       </c>
       <c r="H10" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13752</v>
       </c>
       <c r="I10" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15403</v>
       </c>
       <c r="J10" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14955</v>
       </c>
       <c r="K10" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15637</v>
       </c>
       <c r="L10" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16624</v>
       </c>
       <c r="M10" s="28">
-        <f t="shared" ref="M10" si="1">M8-M9</f>
+        <f t="shared" ref="M10" si="2">M8-M9</f>
         <v>18056</v>
       </c>
       <c r="N10" s="29">
@@ -7463,43 +7462,43 @@
         <v>18774</v>
       </c>
       <c r="P10" s="28">
-        <f t="shared" ref="P10:Q10" si="2">P8-P9</f>
+        <f t="shared" ref="P10:Q10" si="3">P8-P9</f>
         <v>19459</v>
       </c>
       <c r="Q10" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21358</v>
       </c>
       <c r="R10" s="29">
-        <f t="shared" ref="R10" si="3">R8-R9</f>
+        <f t="shared" ref="R10" si="4">R8-R9</f>
         <v>20327</v>
       </c>
       <c r="S10" s="28">
-        <f t="shared" ref="S10:Y10" si="4">S8-S9</f>
+        <f t="shared" ref="S10:Y10" si="5">S8-S9</f>
         <v>21648</v>
       </c>
       <c r="T10" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22931</v>
       </c>
       <c r="U10" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25055</v>
       </c>
       <c r="V10" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22177</v>
       </c>
       <c r="W10" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19744</v>
       </c>
       <c r="X10" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25056</v>
       </c>
       <c r="Y10" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30818</v>
       </c>
     </row>
@@ -7762,79 +7761,79 @@
         <v>7267</v>
       </c>
       <c r="G14" s="28">
-        <f t="shared" ref="G14:L14" si="5">SUM(G11:G13)</f>
+        <f t="shared" ref="G14:L14" si="6">SUM(G11:G13)</f>
         <v>7402</v>
       </c>
       <c r="H14" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7985</v>
       </c>
       <c r="I14" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8764</v>
       </c>
       <c r="J14" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8387</v>
       </c>
       <c r="K14" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11505</v>
       </c>
       <c r="L14" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8842</v>
       </c>
       <c r="M14" s="28">
-        <f t="shared" ref="M14:N14" si="6">SUM(M11:M13)</f>
+        <f t="shared" ref="M14:N14" si="7">SUM(M11:M13)</f>
         <v>10392</v>
       </c>
       <c r="N14" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10678</v>
       </c>
       <c r="O14" s="28">
-        <f t="shared" ref="O14:P14" si="7">SUM(O11:O13)</f>
+        <f t="shared" ref="O14:P14" si="8">SUM(O11:O13)</f>
         <v>15967</v>
       </c>
       <c r="P14" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11149</v>
       </c>
       <c r="Q14" s="28">
-        <f t="shared" ref="Q14:S14" si="8">SUM(Q11:Q13)</f>
+        <f t="shared" ref="Q14:S14" si="9">SUM(Q11:Q13)</f>
         <v>13155</v>
       </c>
       <c r="R14" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12022</v>
       </c>
       <c r="S14" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12468</v>
       </c>
       <c r="T14" s="28">
-        <f t="shared" ref="T14" si="9">SUM(T11:T13)</f>
+        <f t="shared" ref="T14" si="10">SUM(T11:T13)</f>
         <v>13754</v>
       </c>
       <c r="U14" s="28">
-        <f t="shared" ref="U14:W14" si="10">SUM(U11:U13)</f>
+        <f t="shared" ref="U14:W14" si="11">SUM(U11:U13)</f>
         <v>15789</v>
       </c>
       <c r="V14" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14200</v>
       </c>
       <c r="W14" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13361</v>
       </c>
       <c r="X14" s="28">
-        <f t="shared" ref="X14:Y14" si="11">SUM(X11:X13)</f>
+        <f t="shared" ref="X14:Y14" si="12">SUM(X11:X13)</f>
         <v>13843</v>
       </c>
       <c r="Y14" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15167</v>
       </c>
     </row>
@@ -7863,79 +7862,79 @@
         <v>5342</v>
       </c>
       <c r="G15" s="28">
-        <f t="shared" ref="G15:H15" si="12">G10-G14</f>
+        <f t="shared" ref="G15:H15" si="13">G10-G14</f>
         <v>5968</v>
       </c>
       <c r="H15" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5767</v>
       </c>
       <c r="I15" s="28">
-        <f t="shared" ref="I15:P15" si="13">I10-I14</f>
+        <f t="shared" ref="I15:P15" si="14">I10-I14</f>
         <v>6639</v>
       </c>
       <c r="J15" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6568</v>
       </c>
       <c r="K15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4132</v>
       </c>
       <c r="L15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7782</v>
       </c>
       <c r="M15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7664</v>
       </c>
       <c r="N15" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7001</v>
       </c>
       <c r="O15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2807</v>
       </c>
       <c r="P15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8310</v>
       </c>
       <c r="Q15" s="28">
-        <f t="shared" ref="Q15:S15" si="14">Q10-Q14</f>
+        <f t="shared" ref="Q15:S15" si="15">Q10-Q14</f>
         <v>8203</v>
       </c>
       <c r="R15" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8305</v>
       </c>
       <c r="S15" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9180</v>
       </c>
       <c r="T15" s="28">
-        <f t="shared" ref="T15" si="15">T10-T14</f>
+        <f t="shared" ref="T15" si="16">T10-T14</f>
         <v>9177</v>
       </c>
       <c r="U15" s="28">
-        <f t="shared" ref="U15:W15" si="16">U10-U14</f>
+        <f t="shared" ref="U15:W15" si="17">U10-U14</f>
         <v>9266</v>
       </c>
       <c r="V15" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7977</v>
       </c>
       <c r="W15" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6383</v>
       </c>
       <c r="X15" s="28">
-        <f t="shared" ref="X15:Y15" si="17">X10-X14</f>
+        <f t="shared" ref="X15:Y15" si="18">X10-X14</f>
         <v>11213</v>
       </c>
       <c r="Y15" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>15651</v>
       </c>
     </row>
@@ -8041,27 +8040,27 @@
         <v>5129</v>
       </c>
       <c r="G17" s="28">
-        <f t="shared" ref="G17:I17" si="18">G15+G16</f>
+        <f t="shared" ref="G17:I17" si="19">G15+G16</f>
         <v>6119</v>
       </c>
       <c r="H17" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6045</v>
       </c>
       <c r="I17" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6857</v>
       </c>
       <c r="J17" s="29">
-        <f t="shared" ref="J17:K17" si="19">J15+J16</f>
+        <f t="shared" ref="J17:K17" si="20">J15+J16</f>
         <v>6819</v>
       </c>
       <c r="K17" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4377</v>
       </c>
       <c r="L17" s="28">
-        <f t="shared" ref="L17:N17" si="20">L15+L16</f>
+        <f t="shared" ref="L17:N17" si="21">L15+L16</f>
         <v>7979</v>
       </c>
       <c r="M17" s="28">
@@ -8069,11 +8068,11 @@
         <v>8018</v>
       </c>
       <c r="N17" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10543</v>
       </c>
       <c r="O17" s="28">
-        <f t="shared" ref="O17" si="21">O15+O16</f>
+        <f t="shared" ref="O17" si="22">O15+O16</f>
         <v>4215</v>
       </c>
       <c r="P17" s="28">
@@ -8089,31 +8088,31 @@
         <v>9843</v>
       </c>
       <c r="S17" s="28">
-        <f t="shared" ref="S17:V17" si="22">S15+S16</f>
+        <f t="shared" ref="S17:V17" si="23">S15+S16</f>
         <v>12147</v>
       </c>
       <c r="T17" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8628</v>
       </c>
       <c r="U17" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10704</v>
       </c>
       <c r="V17" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7757</v>
       </c>
       <c r="W17" s="28">
-        <f t="shared" ref="W17:Y17" si="23">W15+W16</f>
+        <f t="shared" ref="W17:Y17" si="24">W15+W16</f>
         <v>8277</v>
       </c>
       <c r="X17" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13359</v>
       </c>
       <c r="Y17" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>18689</v>
       </c>
     </row>
@@ -8197,7 +8196,7 @@
     </row>
     <row r="19" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -8250,39 +8249,39 @@
         <v>4207</v>
       </c>
       <c r="G20" s="25">
-        <f t="shared" ref="G20:H20" si="24">G17-G18</f>
+        <f t="shared" ref="G20:H20" si="25">G17-G18</f>
         <v>4877</v>
       </c>
       <c r="H20" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5061</v>
       </c>
       <c r="I20" s="25">
-        <f t="shared" ref="I20:O20" si="25">I17-I18</f>
+        <f t="shared" ref="I20:O20" si="26">I17-I18</f>
         <v>5333</v>
       </c>
       <c r="J20" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5426</v>
       </c>
       <c r="K20" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3524</v>
       </c>
       <c r="L20" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6732</v>
       </c>
       <c r="M20" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6235.9623742161293</v>
       </c>
       <c r="N20" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9401</v>
       </c>
       <c r="O20" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3195</v>
       </c>
       <c r="P20" s="25">
@@ -8298,31 +8297,31 @@
         <v>8354</v>
       </c>
       <c r="S20" s="25">
-        <f t="shared" ref="S20:T20" si="26">S17-S18</f>
+        <f t="shared" ref="S20:T20" si="27">S17-S18</f>
         <v>9947</v>
       </c>
       <c r="T20" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7068</v>
       </c>
       <c r="U20" s="25">
-        <f t="shared" ref="U20:W20" si="27">U17-U18</f>
+        <f t="shared" ref="U20:W20" si="28">U17-U18</f>
         <v>10671</v>
       </c>
       <c r="V20" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6836</v>
       </c>
       <c r="W20" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6959</v>
       </c>
       <c r="X20" s="25">
-        <f t="shared" ref="X20:Y20" si="28">X17-X18</f>
+        <f t="shared" ref="X20:Y20" si="29">X17-X18</f>
         <v>11247</v>
       </c>
       <c r="Y20" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15227</v>
       </c>
     </row>
@@ -8338,83 +8337,83 @@
         <v>7.1522174343835268</v>
       </c>
       <c r="F21" s="31">
-        <f t="shared" ref="F21:H21" si="29">IFERROR(F20/F22,0)</f>
+        <f t="shared" ref="F21:H21" si="30">IFERROR(F20/F22,0)</f>
         <v>6.1326530612244898</v>
       </c>
       <c r="G21" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7.0886627906976747</v>
       </c>
       <c r="H21" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7.3454281567489117</v>
       </c>
       <c r="I21" s="30">
-        <f t="shared" ref="I21:L21" si="30">IFERROR(I20/I22,0)</f>
+        <f t="shared" ref="I21:L21" si="31">IFERROR(I20/I22,0)</f>
         <v>7.7178002894356004</v>
       </c>
       <c r="J21" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7.8410404624277454</v>
       </c>
       <c r="K21" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5.0851370851370854</v>
       </c>
       <c r="L21" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9.6863309352517994</v>
       </c>
       <c r="M21" s="30">
-        <f t="shared" ref="M21" si="31">IFERROR(M20/M22,0)</f>
+        <f t="shared" ref="M21" si="32">IFERROR(M20/M22,0)</f>
         <v>8.9855365622710792</v>
       </c>
       <c r="N21" s="31">
-        <f t="shared" ref="N21:T21" si="32">IFERROR(N20/N22,0)</f>
+        <f t="shared" ref="N21:T21" si="33">IFERROR(N20/N22,0)</f>
         <v>13.526618705035972</v>
       </c>
       <c r="O21" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.5905172413793105</v>
       </c>
       <c r="P21" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13.206896551724139</v>
       </c>
       <c r="Q21" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>12.766461358911911</v>
       </c>
       <c r="R21" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>12.033236479031505</v>
       </c>
       <c r="S21" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>14.149359886201992</v>
       </c>
       <c r="T21" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>10.126074498567336</v>
       </c>
       <c r="U21" s="30">
-        <f t="shared" ref="U21:W21" si="33">IFERROR(U20/U22,0)</f>
+        <f t="shared" ref="U21:W21" si="34">IFERROR(U20/U22,0)</f>
         <v>15.34967217783813</v>
       </c>
       <c r="V21" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8748026411774639</v>
       </c>
       <c r="W21" s="30">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>10.129194904399265</v>
       </c>
       <c r="X21" s="30">
-        <f t="shared" ref="X21:Y21" si="34">IFERROR(X20/X22,0)</f>
+        <f t="shared" ref="X21:Y21" si="35">IFERROR(X20/X22,0)</f>
         <v>16.398605528022852</v>
       </c>
       <c r="Y21" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>22.295301836540162</v>
       </c>
     </row>
@@ -8521,99 +8520,99 @@
         <v>19</v>
       </c>
       <c r="B24" s="36">
-        <f t="shared" ref="B24:Q24" si="35">IFERROR(B10/B8,0)</f>
+        <f t="shared" ref="B24:Q24" si="36">IFERROR(B10/B8,0)</f>
         <v>0.63170703441882026</v>
       </c>
       <c r="C24" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.62864556890618828</v>
       </c>
       <c r="D24" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.62318607764390899</v>
       </c>
       <c r="E24" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.61610952224670634</v>
       </c>
       <c r="F24" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.62245149824751933</v>
       </c>
       <c r="G24" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.62186046511627902</v>
       </c>
       <c r="H24" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.61253396285243422</v>
       </c>
       <c r="I24" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.59096838551258446</v>
       </c>
       <c r="J24" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.60424242424242425</v>
       </c>
       <c r="K24" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.60119184928873515</v>
       </c>
       <c r="L24" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.59858850640933314</v>
       </c>
       <c r="M24" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.55861151502026418</v>
       </c>
       <c r="N24" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.56761702947408976</v>
       </c>
       <c r="O24" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.57488440456869894</v>
       </c>
       <c r="P24" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.57673384706579722</v>
       </c>
       <c r="Q24" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.54379264690905382</v>
       </c>
       <c r="R24" s="37">
-        <f t="shared" ref="R24:S24" si="36">IFERROR(R10/R8,0)</f>
+        <f t="shared" ref="R24:S24" si="37">IFERROR(R10/R8,0)</f>
         <v>0.55937147417375277</v>
       </c>
       <c r="S24" s="36">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.55587510271158591</v>
       </c>
       <c r="T24" s="36">
-        <f t="shared" ref="T24:U24" si="37">IFERROR(T10/T8,0)</f>
+        <f t="shared" ref="T24:U24" si="38">IFERROR(T10/T8,0)</f>
         <v>0.56621151139534309</v>
       </c>
       <c r="U24" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.54378730330982095</v>
       </c>
       <c r="V24" s="37">
-        <f t="shared" ref="V24:W24" si="38">IFERROR(V10/V8,0)</f>
+        <f t="shared" ref="V24:W24" si="39">IFERROR(V10/V8,0)</f>
         <v>0.53881289632887097</v>
       </c>
       <c r="W24" s="36">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.51554952085019712</v>
       </c>
       <c r="X24" s="36">
-        <f t="shared" ref="X24:Y24" si="39">IFERROR(X10/X8,0)</f>
+        <f t="shared" ref="X24:Y24" si="40">IFERROR(X10/X8,0)</f>
         <v>0.54265479825872265</v>
       </c>
       <c r="Y24" s="36">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.54163590987380927</v>
       </c>
     </row>
@@ -8622,99 +8621,99 @@
         <v>20</v>
       </c>
       <c r="B25" s="38">
-        <f t="shared" ref="B25:Q25" si="40">IFERROR(B15/B8,0)</f>
+        <f t="shared" ref="B25:Q25" si="41">IFERROR(B15/B8,0)</f>
         <v>0.25767759879476188</v>
       </c>
       <c r="C25" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.2721836746206352</v>
       </c>
       <c r="D25" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.25210174029451138</v>
       </c>
       <c r="E25" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.25223873599324864</v>
       </c>
       <c r="F25" s="39">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.26371130967073109</v>
       </c>
       <c r="G25" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.27758139534883719</v>
       </c>
       <c r="H25" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.25687051801701483</v>
       </c>
       <c r="I25" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.25471915285451197</v>
       </c>
       <c r="J25" s="39">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.26537373737373737</v>
       </c>
       <c r="K25" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.15886197616301423</v>
       </c>
       <c r="L25" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.28021028373901774</v>
       </c>
       <c r="M25" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.23710670420443647</v>
       </c>
       <c r="N25" s="39">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.2247800680665254</v>
       </c>
       <c r="O25" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8.5954006797929999E-2</v>
       </c>
       <c r="P25" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.24629519857735627</v>
       </c>
       <c r="Q25" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.2088552805784703</v>
       </c>
       <c r="R25" s="39">
-        <f t="shared" ref="R25:S25" si="41">IFERROR(R15/R8,0)</f>
+        <f t="shared" ref="R25:S25" si="42">IFERROR(R15/R8,0)</f>
         <v>0.22854233743361127</v>
       </c>
       <c r="S25" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.23572308956450289</v>
       </c>
       <c r="T25" s="38">
-        <f t="shared" ref="T25:U25" si="42">IFERROR(T15/T8,0)</f>
+        <f t="shared" ref="T25:U25" si="43">IFERROR(T15/T8,0)</f>
         <v>0.22659818760957059</v>
       </c>
       <c r="U25" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.20110689093868692</v>
       </c>
       <c r="V25" s="39">
-        <f t="shared" ref="V25:W25" si="43">IFERROR(V15/V8,0)</f>
+        <f t="shared" ref="V25:W25" si="44">IFERROR(V15/V8,0)</f>
         <v>0.1938093734055735</v>
       </c>
       <c r="W25" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.1666710186176463</v>
       </c>
       <c r="X25" s="38">
-        <f t="shared" ref="X25:Y25" si="44">IFERROR(X15/X8,0)</f>
+        <f t="shared" ref="X25:Y25" si="45">IFERROR(X15/X8,0)</f>
         <v>0.24284755159941956</v>
       </c>
       <c r="Y25" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.27507118000632713</v>
       </c>
     </row>
@@ -8723,99 +8722,99 @@
         <v>21</v>
       </c>
       <c r="B26" s="38">
-        <f t="shared" ref="B26:Q26" si="45">IFERROR(B18/B17,0)</f>
+        <f t="shared" ref="B26:Q26" si="46">IFERROR(B18/B17,0)</f>
         <v>0.23653344917463076</v>
       </c>
       <c r="C26" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.20682001614205003</v>
       </c>
       <c r="D26" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.18646493559599264</v>
       </c>
       <c r="E26" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>5.326923076923077E-2</v>
       </c>
       <c r="F26" s="39">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.17976213686878534</v>
       </c>
       <c r="G26" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.20297434221277988</v>
       </c>
       <c r="H26" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.16277915632754342</v>
       </c>
       <c r="I26" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.22225463030479803</v>
       </c>
       <c r="J26" s="39">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.20428215280832968</v>
       </c>
       <c r="K26" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.19488233950194198</v>
       </c>
       <c r="L26" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.15628524877804237</v>
       </c>
       <c r="M26" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.22225463030479803</v>
       </c>
       <c r="N26" s="39">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.10831831546998008</v>
       </c>
       <c r="O26" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24199288256227758</v>
       </c>
       <c r="P26" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>8.8366557572151144E-2</v>
       </c>
       <c r="Q26" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.11159650516282764</v>
       </c>
       <c r="R26" s="39">
-        <f t="shared" ref="R26:S26" si="46">IFERROR(R18/R17,0)</f>
+        <f t="shared" ref="R26:S26" si="47">IFERROR(R18/R17,0)</f>
         <v>0.15127501777913238</v>
       </c>
       <c r="S26" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.18111467852144564</v>
       </c>
       <c r="T26" s="38">
-        <f t="shared" ref="T26:U26" si="47">IFERROR(T18/T17,0)</f>
+        <f t="shared" ref="T26:U26" si="48">IFERROR(T18/T17,0)</f>
         <v>0.1808066759388039</v>
       </c>
       <c r="U26" s="38">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3.0829596412556052E-3</v>
       </c>
       <c r="V26" s="39">
-        <f t="shared" ref="V26:W26" si="48">IFERROR(V18/V17,0)</f>
+        <f t="shared" ref="V26:W26" si="49">IFERROR(V18/V17,0)</f>
         <v>0.11873146835116669</v>
       </c>
       <c r="W26" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.15923643832306392</v>
       </c>
       <c r="X26" s="38">
-        <f t="shared" ref="X26:Y26" si="49">IFERROR(X18/X17,0)</f>
+        <f t="shared" ref="X26:Y26" si="50">IFERROR(X18/X17,0)</f>
         <v>0.15809566584325174</v>
       </c>
       <c r="Y26" s="38">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.18524265610787094</v>
       </c>
     </row>
@@ -8846,83 +8845,83 @@
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="33">
-        <f t="shared" ref="F28:Y28" si="50">IFERROR((F8/B8)-1,0)</f>
+        <f t="shared" ref="F28:Y28" si="51">IFERROR((F8/B8)-1,0)</f>
         <v>0.17377448139993046</v>
       </c>
       <c r="G28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.21283917188469559</v>
       </c>
       <c r="H28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.20219544846050863</v>
       </c>
       <c r="I28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.22199821838811018</v>
       </c>
       <c r="J28" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.22179987164930637</v>
       </c>
       <c r="K28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.20976744186046514</v>
       </c>
       <c r="L28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.23700503318337707</v>
       </c>
       <c r="M28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.24013965623081646</v>
       </c>
       <c r="N28" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.25842424242424245</v>
       </c>
       <c r="O28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.25555555555555554</v>
       </c>
       <c r="P28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.21489269768111763</v>
       </c>
       <c r="Q28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.21510998360300704</v>
       </c>
       <c r="R28" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.16673088036987083</v>
       </c>
       <c r="S28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.19251615273907574</v>
       </c>
       <c r="T28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.2003260225251926</v>
       </c>
       <c r="U28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.17310825949689379</v>
       </c>
       <c r="V28" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.13263986350752632</v>
       </c>
       <c r="W28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-1.6613599013968749E-2</v>
       </c>
       <c r="X28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.14010222474628997</v>
       </c>
       <c r="Y28" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.23489962018448174</v>
       </c>
     </row>
@@ -8935,83 +8934,83 @@
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
       <c r="F29" s="35">
-        <f t="shared" ref="F29:Y32" si="51">F11/B11-1</f>
+        <f t="shared" ref="F29:Y32" si="52">F11/B11-1</f>
         <v>0.22302942244823831</v>
       </c>
       <c r="G29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.20580853352456074</v>
       </c>
       <c r="H29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.11331269349845208</v>
       </c>
       <c r="I29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>3.1908831908831869E-2</v>
       </c>
       <c r="J29" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.17077517077517079</v>
       </c>
       <c r="K29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.24055902468034485</v>
       </c>
       <c r="L29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.16935483870967749</v>
       </c>
       <c r="M29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.18884594146880174</v>
       </c>
       <c r="N29" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.27828513444951808</v>
       </c>
       <c r="O29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.22579098753595406</v>
       </c>
       <c r="P29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.24423305588585009</v>
       </c>
       <c r="Q29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.4013005109150023</v>
       </c>
       <c r="R29" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.19646755308592967</v>
       </c>
       <c r="S29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.21490027375831056</v>
       </c>
       <c r="T29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.25267584097859319</v>
       </c>
       <c r="U29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.19688432217434548</v>
       </c>
       <c r="V29" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.1311992038480676</v>
       </c>
       <c r="W29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.10655078062127799</v>
       </c>
       <c r="X29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>4.607873054623135E-2</v>
       </c>
       <c r="Y29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-2.7693159789532018E-2</v>
       </c>
     </row>
@@ -9024,83 +9023,83 @@
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
       <c r="F30" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.15593220338983049</v>
       </c>
       <c r="G30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.16105769230769229</v>
       </c>
       <c r="H30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.15384615384615374</v>
       </c>
       <c r="I30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.16386711459499814</v>
       </c>
       <c r="J30" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.1076665270213657</v>
       </c>
       <c r="K30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.19958592132505171</v>
       </c>
       <c r="L30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.18596491228070167</v>
       </c>
       <c r="M30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.38229634381013478</v>
       </c>
       <c r="N30" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.36308623298033282</v>
       </c>
       <c r="O30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.30479806696582679</v>
       </c>
       <c r="P30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.26528599605522674</v>
       </c>
       <c r="Q30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.18329466357308588</v>
       </c>
       <c r="R30" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>8.3518312985571663E-2</v>
       </c>
       <c r="S30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.11428571428571432</v>
       </c>
       <c r="T30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.19745388412574694</v>
       </c>
       <c r="U30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.12509803921568619</v>
       </c>
       <c r="V30" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.15236875800256078</v>
       </c>
       <c r="W30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-7.3836657169990549E-2</v>
       </c>
       <c r="X30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-8.2013451941852944E-2</v>
       </c>
       <c r="Y30" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-7.3893342628093439E-2</v>
       </c>
     </row>
@@ -9113,165 +9112,165 @@
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
       <c r="F31" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-7.5748320097739796E-2</v>
       </c>
       <c r="G31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="H31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2349356804333107</v>
       </c>
       <c r="I31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.28753180661577615</v>
       </c>
       <c r="J31" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.19035029742233966</v>
       </c>
       <c r="K31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.7315270935960592</v>
       </c>
       <c r="L31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-0.1255482456140351</v>
       </c>
       <c r="M31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-0.12252964426877466</v>
       </c>
       <c r="N31" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.12992781787895624</v>
       </c>
       <c r="O31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.59445446348061326</v>
       </c>
       <c r="P31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.29655172413793096</v>
       </c>
       <c r="Q31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.13795045045045051</v>
       </c>
       <c r="R31" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2.604422604422596E-2</v>
       </c>
       <c r="S31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-0.71115509684716527</v>
       </c>
       <c r="T31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.25290135396518365</v>
       </c>
       <c r="U31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.39980207817911917</v>
       </c>
       <c r="V31" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.3793103448275863</v>
       </c>
       <c r="W31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.26529613313754274</v>
       </c>
       <c r="X31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>6.3681976071015001E-2</v>
       </c>
       <c r="Y31" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>7.0696359137500941E-4</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F32" s="48">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.12579395817195982</v>
       </c>
       <c r="G32" s="47">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.1713878778287703</v>
       </c>
       <c r="H32" s="47">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.15223665223665228</v>
       </c>
       <c r="I32" s="47">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.12923592320577248</v>
       </c>
       <c r="J32" s="48">
-        <f t="shared" ref="J32:Y32" si="52">J14/F14-1</f>
+        <f t="shared" ref="J32:Y32" si="53">J14/F14-1</f>
         <v>0.15412137057933117</v>
       </c>
       <c r="K32" s="47">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.55430964604161037</v>
       </c>
       <c r="L32" s="47">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.10732623669380081</v>
       </c>
       <c r="M32" s="47">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.18575992697398447</v>
       </c>
       <c r="N32" s="48">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.27316084416358644</v>
       </c>
       <c r="O32" s="47">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.38783137766188625</v>
       </c>
       <c r="P32" s="47">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.26091382040262379</v>
       </c>
       <c r="Q32" s="47">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.26587759815242484</v>
       </c>
       <c r="R32" s="48">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.12586626709121562</v>
       </c>
       <c r="S32" s="47">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-0.21913947516753307</v>
       </c>
       <c r="T32" s="47">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.23365324244326846</v>
       </c>
       <c r="U32" s="47">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.20022805017103762</v>
       </c>
       <c r="V32" s="48">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.18116785892530363</v>
       </c>
       <c r="W32" s="47">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7.1623355790824572E-2</v>
       </c>
       <c r="X32" s="47">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6.4708448451360479E-3</v>
       </c>
       <c r="Y32" s="47">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-3.9394515168788447E-2</v>
       </c>
     </row>
@@ -9305,79 +9304,79 @@
         <v>70056</v>
       </c>
       <c r="G34" s="25">
-        <f t="shared" ref="G34:K34" si="53">G35-G36</f>
+        <f t="shared" ref="G34:K34" si="54">G35-G36</f>
         <v>74257</v>
       </c>
       <c r="H34" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>79118</v>
       </c>
       <c r="I34" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>82398</v>
       </c>
       <c r="J34" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>88502</v>
       </c>
       <c r="K34" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>90758</v>
       </c>
       <c r="L34" s="25">
-        <f t="shared" ref="L34:P34" si="54">L35-L36</f>
+        <f t="shared" ref="L34:P34" si="55">L35-L36</f>
         <v>96179</v>
       </c>
       <c r="M34" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>97902</v>
       </c>
       <c r="N34" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>98912</v>
       </c>
       <c r="O34" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>98273</v>
       </c>
       <c r="P34" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>102430</v>
       </c>
       <c r="Q34" s="25">
-        <f t="shared" ref="Q34:R34" si="55">Q35-Q36</f>
+        <f t="shared" ref="Q34:R34" si="56">Q35-Q36</f>
         <v>105128</v>
       </c>
       <c r="R34" s="26">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>109422</v>
       </c>
       <c r="S34" s="25">
-        <f t="shared" ref="S34:Y34" si="56">S35-S36</f>
+        <f t="shared" ref="S34:Y34" si="57">S35-S36</f>
         <v>116982</v>
       </c>
       <c r="T34" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>117095</v>
       </c>
       <c r="U34" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>115121</v>
       </c>
       <c r="V34" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>112213</v>
       </c>
       <c r="W34" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>117062</v>
       </c>
       <c r="X34" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>118704</v>
       </c>
       <c r="Y34" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>122762</v>
       </c>
     </row>
@@ -9802,11 +9801,11 @@
         <v>54679</v>
       </c>
       <c r="F42" s="29">
-        <f t="shared" ref="F42:O42" si="57">F39-F35-F38</f>
+        <f t="shared" ref="F42:O42" si="58">F39-F35-F38</f>
         <v>54960</v>
       </c>
       <c r="G42" s="28">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>56539</v>
       </c>
       <c r="H42" s="28">
@@ -9814,31 +9813,31 @@
         <v>57497</v>
       </c>
       <c r="I42" s="28">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>61360</v>
       </c>
       <c r="J42" s="29">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>60633</v>
       </c>
       <c r="K42" s="28">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>64371</v>
       </c>
       <c r="L42" s="28">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>69779</v>
       </c>
       <c r="M42" s="28">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>75985</v>
       </c>
       <c r="N42" s="29">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>83379</v>
       </c>
       <c r="O42" s="28">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>88799</v>
       </c>
       <c r="P42" s="28">
@@ -9854,31 +9853,31 @@
         <v>111855</v>
       </c>
       <c r="S42" s="28">
-        <f t="shared" ref="S42:T42" si="58">S39-S35-S38</f>
+        <f t="shared" ref="S42:T42" si="59">S39-S35-S38</f>
         <v>116143</v>
       </c>
       <c r="T42" s="28">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>122051</v>
       </c>
       <c r="U42" s="28">
-        <f t="shared" ref="U42:W42" si="59">U39-U35-U38</f>
+        <f t="shared" ref="U42:W42" si="60">U39-U35-U38</f>
         <v>133631</v>
       </c>
       <c r="V42" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>133600</v>
       </c>
       <c r="W42" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>134891</v>
       </c>
       <c r="X42" s="28">
-        <f t="shared" ref="X42:Y42" si="60">X39-X35-X38</f>
+        <f t="shared" ref="X42:Y42" si="61">X39-X35-X38</f>
         <v>144247</v>
       </c>
       <c r="Y42" s="28">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>160302</v>
       </c>
     </row>
@@ -9891,11 +9890,11 @@
         <v>120331</v>
       </c>
       <c r="F43" s="29">
-        <f t="shared" ref="F43:P43" si="61">F39-F40</f>
+        <f t="shared" ref="F43:P43" si="62">F39-F40</f>
         <v>123569</v>
       </c>
       <c r="G43" s="28">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>127879</v>
       </c>
       <c r="H43" s="28">
@@ -9907,67 +9906,67 @@
         <v>139007</v>
       </c>
       <c r="J43" s="29">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>144949</v>
       </c>
       <c r="K43" s="28">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>148286</v>
       </c>
       <c r="L43" s="28">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>157100</v>
       </c>
       <c r="M43" s="28">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>152502</v>
       </c>
       <c r="N43" s="29">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>160825</v>
       </c>
       <c r="O43" s="28">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>162000</v>
       </c>
       <c r="P43" s="28">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>169840</v>
       </c>
       <c r="Q43" s="28">
-        <f t="shared" ref="Q43:S43" si="62">Q39-Q40</f>
+        <f t="shared" ref="Q43:S43" si="63">Q39-Q40</f>
         <v>177628</v>
       </c>
       <c r="R43" s="29">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>183472</v>
       </c>
       <c r="S43" s="28">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>192192</v>
       </c>
       <c r="T43" s="28">
-        <f t="shared" ref="T43:U43" si="63">T39-T40</f>
+        <f t="shared" ref="T43:U43" si="64">T39-T40</f>
         <v>194969</v>
       </c>
       <c r="U43" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>201442</v>
       </c>
       <c r="V43" s="29">
-        <f t="shared" ref="V43:W43" si="64">V39-V40</f>
+        <f t="shared" ref="V43:W43" si="65">V39-V40</f>
         <v>203659</v>
       </c>
       <c r="W43" s="28">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>207322</v>
       </c>
       <c r="X43" s="28">
-        <f t="shared" ref="X43:Y43" si="65">X39-X40</f>
+        <f t="shared" ref="X43:Y43" si="66">X39-X40</f>
         <v>212920</v>
       </c>
       <c r="Y43" s="28">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>222544</v>
       </c>
     </row>
@@ -9980,61 +9979,61 @@
     </row>
     <row r="45" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="24" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="25">
-        <f t="shared" ref="E45:T45" si="66">SUM(B20:E20)</f>
+        <f t="shared" ref="E45:T45" si="67">SUM(B20:E20)</f>
         <v>16348</v>
       </c>
       <c r="F45" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>17040</v>
       </c>
       <c r="G45" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>17986</v>
       </c>
       <c r="H45" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>19068</v>
       </c>
       <c r="I45" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>19478</v>
       </c>
       <c r="J45" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>20697</v>
       </c>
       <c r="K45" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>19344</v>
       </c>
       <c r="L45" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>21015</v>
       </c>
       <c r="M45" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>21917.962374216128</v>
       </c>
       <c r="N45" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>25892.962374216128</v>
       </c>
       <c r="O45" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>25563.962374216128</v>
       </c>
       <c r="P45" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>28023.962374216128</v>
       </c>
       <c r="Q45" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>30736</v>
       </c>
       <c r="R45" s="26">
@@ -10042,11 +10041,11 @@
         <v>29689</v>
       </c>
       <c r="S45" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>36441</v>
       </c>
       <c r="T45" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>34317</v>
       </c>
       <c r="U45" s="25">
@@ -10058,60 +10057,60 @@
         <v>34522</v>
       </c>
       <c r="W45" s="25">
-        <f t="shared" ref="W45:Y45" si="67">SUM(T20:W20)</f>
+        <f t="shared" ref="W45:Y45" si="68">SUM(T20:W20)</f>
         <v>31534</v>
       </c>
       <c r="X45" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>35713</v>
       </c>
       <c r="Y45" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>40269</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E46" s="36">
         <f>E20/E43</f>
         <v>4.0912150651120659E-2</v>
       </c>
       <c r="F46" s="37">
-        <f t="shared" ref="F46:N46" si="68">F45/F43</f>
+        <f t="shared" ref="F46:N46" si="69">F45/F43</f>
         <v>0.1378986639043773</v>
       </c>
       <c r="G46" s="36">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.14064858186254192</v>
       </c>
       <c r="H46" s="36">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.14218921276928928</v>
       </c>
       <c r="I46" s="36">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.1401224398771285</v>
       </c>
       <c r="J46" s="37">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.14278815307452966</v>
       </c>
       <c r="K46" s="36">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.13045061570208921</v>
       </c>
       <c r="L46" s="36">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.13376830044557605</v>
       </c>
       <c r="M46" s="36">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.14372245855278049</v>
       </c>
       <c r="N46" s="37">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.16100085418446217</v>
       </c>
       <c r="O46" s="36">
@@ -10131,80 +10130,80 @@
         <v>0.16181760704630679</v>
       </c>
       <c r="S46" s="36">
-        <f t="shared" ref="S46:T46" si="69">S45/S43</f>
+        <f t="shared" ref="S46:T46" si="70">S45/S43</f>
         <v>0.18960726773226774</v>
       </c>
       <c r="T46" s="36">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.1760125968743749</v>
       </c>
       <c r="U46" s="36">
-        <f t="shared" ref="U46:W46" si="70">U45/U43</f>
+        <f t="shared" ref="U46:W46" si="71">U45/U43</f>
         <v>0.17891005847837094</v>
       </c>
       <c r="V46" s="37">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.16950883584815796</v>
       </c>
       <c r="W46" s="36">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.15210156182170731</v>
       </c>
       <c r="X46" s="36">
-        <f t="shared" ref="X46:Y46" si="71">X45/X43</f>
+        <f t="shared" ref="X46:Y46" si="72">X45/X43</f>
         <v>0.16772966372346421</v>
       </c>
       <c r="Y46" s="36">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.18094848659141563</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47" s="36">
         <f>E20/E39</f>
         <v>3.338509843280596E-2</v>
       </c>
       <c r="F47" s="37">
-        <f t="shared" ref="F47:O47" si="72">F45/F39</f>
+        <f t="shared" ref="F47:O47" si="73">F45/F39</f>
         <v>0.11379192905367053</v>
       </c>
       <c r="G47" s="36">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.11657117672983694</v>
       </c>
       <c r="H47" s="36">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.11921374446695177</v>
       </c>
       <c r="I47" s="36">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.11630878735041919</v>
       </c>
       <c r="J47" s="37">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.11980481141031281</v>
       </c>
       <c r="K47" s="36">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.10829633693686633</v>
       </c>
       <c r="L47" s="36">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.11087603410433902</v>
       </c>
       <c r="M47" s="36">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.11109233571157975</v>
       </c>
       <c r="N47" s="37">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.12512606554819691</v>
       </c>
       <c r="O47" s="36">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.12080696741276938</v>
       </c>
       <c r="P47" s="36">
@@ -10220,64 +10219,64 @@
         <v>0.12100721828904948</v>
       </c>
       <c r="S47" s="36">
-        <f t="shared" ref="S47:T47" si="73">S45/S39</f>
+        <f t="shared" ref="S47:T47" si="74">S45/S39</f>
         <v>0.14173807180835546</v>
       </c>
       <c r="T47" s="36">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.1304610635483037</v>
       </c>
       <c r="U47" s="36">
-        <f t="shared" ref="U47:W47" si="74">U45/U39</f>
+        <f t="shared" ref="U47:W47" si="75">U45/U39</f>
         <v>0.13062277779992679</v>
       </c>
       <c r="V47" s="37">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.12626781710515247</v>
       </c>
       <c r="W47" s="36">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.11323125978484122</v>
       </c>
       <c r="X47" s="36">
-        <f t="shared" ref="X47:Y47" si="75">X45/X39</f>
+        <f t="shared" ref="X47:Y47" si="76">X45/X39</f>
         <v>0.11934447923593869</v>
       </c>
       <c r="Y47" s="36">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.12599181517821387</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" s="36">
         <f>E20/(E43-E38)</f>
         <v>4.8929086120359788E-2</v>
       </c>
       <c r="F48" s="37">
-        <f t="shared" ref="F48:O48" si="76">F45/(F43-F38)</f>
+        <f t="shared" ref="F48:O48" si="77">F45/(F43-F38)</f>
         <v>0.16377371547200276</v>
       </c>
       <c r="G48" s="36">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.16563829591291696</v>
       </c>
       <c r="H48" s="36">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.16623077727795796</v>
       </c>
       <c r="I48" s="36">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.16336218464841654</v>
       </c>
       <c r="J48" s="37">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.16522572147048259</v>
       </c>
       <c r="K48" s="36">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.15024582715205556</v>
       </c>
       <c r="L48" s="36">
@@ -10285,15 +10284,15 @@
         <v>0.15285192674163187</v>
       </c>
       <c r="M48" s="36">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.16471868494033748</v>
       </c>
       <c r="N48" s="37">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.18474651008330928</v>
       </c>
       <c r="O48" s="36">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.1807368507046381</v>
       </c>
       <c r="P48" s="36">
@@ -10309,80 +10308,80 @@
         <v>0.18162186632082514</v>
       </c>
       <c r="S48" s="36">
-        <f t="shared" ref="S48:T48" si="77">S45/(S43-S38)</f>
+        <f t="shared" ref="S48:T48" si="78">S45/(S43-S38)</f>
         <v>0.21150966393870799</v>
       </c>
       <c r="T48" s="36">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.19592584768745039</v>
       </c>
       <c r="U48" s="36">
-        <f t="shared" ref="U48:W48" si="78">U45/(U43-U38)</f>
+        <f t="shared" ref="U48:W48" si="79">U45/(U43-U38)</f>
         <v>0.2015220393761987</v>
       </c>
       <c r="V48" s="37">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.19063975481127649</v>
       </c>
       <c r="W48" s="36">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.17063760477486595</v>
       </c>
       <c r="X48" s="36">
-        <f t="shared" ref="X48:Y48" si="79">X45/(X43-X38)</f>
+        <f t="shared" ref="X48:Y48" si="80">X45/(X43-X38)</f>
         <v>0.18744029811578228</v>
       </c>
       <c r="Y48" s="36">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.20142154018527039</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E49" s="36">
         <f>E20/E42</f>
         <v>9.003456537244646E-2</v>
       </c>
       <c r="F49" s="37">
-        <f t="shared" ref="F49:O49" si="80">F45/F42</f>
+        <f t="shared" ref="F49:O49" si="81">F45/F42</f>
         <v>0.31004366812227074</v>
       </c>
       <c r="G49" s="36">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.3181166982083164</v>
       </c>
       <c r="H49" s="36">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.33163469398403395</v>
       </c>
       <c r="I49" s="36">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.3174380704041721</v>
       </c>
       <c r="J49" s="37">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.3413487704715254</v>
       </c>
       <c r="K49" s="36">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.30050799272964535</v>
       </c>
       <c r="L49" s="36">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.30116510698061022</v>
       </c>
       <c r="M49" s="36">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.28845117291855138</v>
       </c>
       <c r="N49" s="37">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.31054536962803736</v>
       </c>
       <c r="O49" s="36">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.28788570112519429</v>
       </c>
       <c r="P49" s="36">
@@ -10398,31 +10397,31 @@
         <v>0.26542398641097847</v>
       </c>
       <c r="S49" s="36">
-        <f t="shared" ref="S49:T49" si="81">S45/S42</f>
+        <f t="shared" ref="S49:T49" si="82">S45/S42</f>
         <v>0.31375976167310987</v>
       </c>
       <c r="T49" s="36">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.28116934724008819</v>
       </c>
       <c r="U49" s="36">
-        <f t="shared" ref="U49:W49" si="82">U45/U42</f>
+        <f t="shared" ref="U49:W49" si="83">U45/U42</f>
         <v>0.26969789943950129</v>
       </c>
       <c r="V49" s="37">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.25839820359281435</v>
       </c>
       <c r="W49" s="36">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.23377393599276453</v>
       </c>
       <c r="X49" s="36">
-        <f t="shared" ref="X49:Y49" si="83">X45/X42</f>
+        <f t="shared" ref="X49:Y49" si="84">X45/X42</f>
         <v>0.24758227207498248</v>
       </c>
       <c r="Y49" s="36">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.25120709660515778</v>
       </c>
     </row>
@@ -10432,298 +10431,476 @@
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A51" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="37">
-        <f t="shared" ref="F51:Y52" si="84">F3/B3-1</f>
-        <v>0.16198091307712148</v>
-      </c>
-      <c r="G51" s="36">
-        <f t="shared" si="84"/>
-        <v>0.1947200898708108</v>
-      </c>
-      <c r="H51" s="36">
-        <f t="shared" si="84"/>
-        <v>0.1811572611882486</v>
-      </c>
-      <c r="I51" s="36">
-        <f t="shared" si="84"/>
-        <v>0.17407485061327188</v>
-      </c>
-      <c r="J51" s="37">
-        <f t="shared" si="84"/>
-        <v>0.18817980022197567</v>
-      </c>
-      <c r="K51" s="36">
-        <f t="shared" si="84"/>
-        <v>0.18434937052708555</v>
-      </c>
-      <c r="L51" s="36">
-        <f t="shared" si="84"/>
-        <v>0.2141163412542253</v>
-      </c>
-      <c r="M51" s="36">
-        <f t="shared" si="84"/>
-        <v>0.21554533684539479</v>
-      </c>
-      <c r="N51" s="37">
-        <f t="shared" si="84"/>
-        <v>0.24431367054317876</v>
-      </c>
-      <c r="O51" s="36">
-        <f t="shared" si="84"/>
-        <v>0.23884086097388857</v>
-      </c>
-      <c r="P51" s="36">
-        <f t="shared" si="84"/>
-        <v>0.20315811344275914</v>
-      </c>
-      <c r="Q51" s="36">
-        <f t="shared" si="84"/>
-        <v>0.19432915855584532</v>
-      </c>
-      <c r="R51" s="37">
-        <f t="shared" si="84"/>
-        <v>0.14807446888371745</v>
-      </c>
-      <c r="S51" s="36">
-        <f t="shared" si="84"/>
-        <v>0.15690532986791039</v>
-      </c>
-      <c r="T51" s="36">
-        <f t="shared" si="84"/>
-        <v>0.16723077985770529</v>
-      </c>
-      <c r="U51" s="36">
-        <f t="shared" si="84"/>
-        <v>0.16655390860446517</v>
-      </c>
-      <c r="V51" s="37">
-        <f t="shared" si="84"/>
-        <v>0.10383496256579594</v>
-      </c>
-      <c r="W51" s="36">
-        <f t="shared" si="84"/>
-        <v>-8.0845694589770423E-2</v>
-      </c>
-      <c r="X51" s="36">
-        <f t="shared" si="84"/>
-        <v>9.7615102378979746E-2</v>
-      </c>
-      <c r="Y51" s="36">
-        <f t="shared" si="84"/>
-        <v>0.21787842041440397</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A52" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" s="37"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36">
-        <f t="shared" ref="U52:Y54" si="85">U4/Q4-1</f>
-        <v>0.529549444119368</v>
-      </c>
-      <c r="V52" s="37">
-        <f t="shared" si="85"/>
-        <v>0.52164383561643834</v>
-      </c>
-      <c r="W52" s="36">
-        <f t="shared" si="84"/>
-        <v>0.43190476190476201</v>
-      </c>
-      <c r="X52" s="36">
-        <f t="shared" si="84"/>
-        <v>0.44766708701134927</v>
-      </c>
-      <c r="Y52" s="36">
-        <f t="shared" si="84"/>
-        <v>0.46557000765110934</v>
+    <row r="51" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="85">
+        <f>SUM(B8:E8)</f>
+        <v>74989</v>
+      </c>
+      <c r="F51" s="86">
+        <f>SUM(C8:F8)</f>
+        <v>77988</v>
+      </c>
+      <c r="G51" s="85">
+        <f>SUM(D8:G8)</f>
+        <v>81761</v>
+      </c>
+      <c r="H51" s="85">
+        <f>SUM(E8:H8)</f>
+        <v>85537</v>
+      </c>
+      <c r="I51" s="85">
+        <f>SUM(F8:I8)</f>
+        <v>90272</v>
+      </c>
+      <c r="J51" s="86">
+        <f>SUM(G8:J8)</f>
+        <v>94765</v>
+      </c>
+      <c r="K51" s="85">
+        <f>SUM(H8:K8)</f>
+        <v>99275</v>
+      </c>
+      <c r="L51" s="85">
+        <f>SUM(I8:L8)</f>
+        <v>104596</v>
+      </c>
+      <c r="M51" s="85">
+        <f>SUM(J8:M8)</f>
+        <v>110855</v>
+      </c>
+      <c r="N51" s="86">
+        <f>SUM(K8:N8)</f>
+        <v>117251</v>
+      </c>
+      <c r="O51" s="85">
+        <f>SUM(L8:O8)</f>
+        <v>123898</v>
+      </c>
+      <c r="P51" s="85">
+        <f>SUM(M8:P8)</f>
+        <v>129866</v>
+      </c>
+      <c r="Q51" s="85">
+        <f>SUM(N8:Q8)</f>
+        <v>136819</v>
+      </c>
+      <c r="R51" s="86">
+        <f>SUM(O8:R8)</f>
+        <v>142012</v>
+      </c>
+      <c r="S51" s="85">
+        <f>SUM(P8:S8)</f>
+        <v>148299</v>
+      </c>
+      <c r="T51" s="85">
+        <f>SUM(Q8:T8)</f>
+        <v>155058</v>
+      </c>
+      <c r="U51" s="85">
+        <f>SUM(R8:U8)</f>
+        <v>161857</v>
+      </c>
+      <c r="V51" s="86">
+        <f>SUM(S8:V8)</f>
+        <v>166677</v>
+      </c>
+      <c r="W51" s="85">
+        <f>SUM(T8:W8)</f>
+        <v>166030</v>
+      </c>
+      <c r="X51" s="85">
+        <f>SUM(U8:X8)</f>
+        <v>171704</v>
+      </c>
+      <c r="Y51" s="85">
+        <f>SUM(V8:Y8)</f>
+        <v>182527</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" s="84" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82">
+        <f>I51/E51-1</f>
+        <v>0.20380322447292265</v>
+      </c>
+      <c r="J52" s="83">
+        <f>J51/F51-1</f>
+        <v>0.21512283941119148</v>
+      </c>
+      <c r="K52" s="82">
+        <f>K51/G51-1</f>
+        <v>0.21420970878536227</v>
+      </c>
+      <c r="L52" s="82">
+        <f>L51/H51-1</f>
+        <v>0.22281585746519039</v>
+      </c>
+      <c r="M52" s="82">
+        <f>M51/I51-1</f>
+        <v>0.22801090038993266</v>
+      </c>
+      <c r="N52" s="83">
+        <f>N51/J51-1</f>
+        <v>0.23728169682899813</v>
+      </c>
+      <c r="O52" s="82">
+        <f>O51/K51-1</f>
+        <v>0.24802820448249818</v>
+      </c>
+      <c r="P52" s="82">
+        <f>P51/L51-1</f>
+        <v>0.24159623694978771</v>
+      </c>
+      <c r="Q52" s="82">
+        <f>Q51/M51-1</f>
+        <v>0.23421586757475987</v>
+      </c>
+      <c r="R52" s="83">
+        <f>R51/N51-1</f>
+        <v>0.21117943556984597</v>
+      </c>
+      <c r="S52" s="82">
+        <f>S51/O51-1</f>
+        <v>0.19694426060146242</v>
+      </c>
+      <c r="T52" s="82">
+        <f>T51/P51-1</f>
+        <v>0.19398456870928493</v>
+      </c>
+      <c r="U52" s="82">
+        <f>U51/Q51-1</f>
+        <v>0.18300089899794614</v>
+      </c>
+      <c r="V52" s="83">
+        <f>V51/R51-1</f>
+        <v>0.17368250570374344</v>
+      </c>
+      <c r="W52" s="82">
+        <f>W51/S51-1</f>
+        <v>0.11956250547879632</v>
+      </c>
+      <c r="X52" s="82">
+        <f>X51/T51-1</f>
+        <v>0.10735337744585904</v>
+      </c>
+      <c r="Y52" s="82">
+        <f>Y51/U51-1</f>
+        <v>0.12770532012826141</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" s="37">
-        <f t="shared" ref="F53:T54" si="86">F5/B5-1</f>
-        <v>0.24011976047904193</v>
-      </c>
-      <c r="G53" s="36">
-        <f t="shared" si="86"/>
-        <v>0.33251533742331296</v>
-      </c>
-      <c r="H53" s="36">
-        <f t="shared" si="86"/>
-        <v>0.38790644609241309</v>
-      </c>
-      <c r="I53" s="36">
-        <f t="shared" si="86"/>
-        <v>0.61970490242741549</v>
-      </c>
-      <c r="J53" s="37">
-        <f t="shared" si="86"/>
-        <v>0.49444712699179139</v>
-      </c>
-      <c r="K53" s="36">
-        <f t="shared" si="86"/>
-        <v>0.42265193370165743</v>
-      </c>
-      <c r="L53" s="36">
-        <f t="shared" si="86"/>
-        <v>0.3995067817509248</v>
-      </c>
-      <c r="M53" s="36">
-        <f t="shared" si="86"/>
-        <v>0.37731413458712892</v>
-      </c>
-      <c r="N53" s="37">
-        <f t="shared" si="86"/>
-        <v>0.40678513731825516</v>
-      </c>
-      <c r="O53" s="36">
-        <f t="shared" si="86"/>
-        <v>0.43203883495145634</v>
-      </c>
-      <c r="P53" s="36">
-        <f t="shared" si="86"/>
-        <v>0.3627019089574155</v>
-      </c>
-      <c r="Q53" s="36">
-        <f t="shared" si="86"/>
-        <v>1.7921911670578217E-2</v>
-      </c>
-      <c r="R53" s="37">
-        <f t="shared" si="86"/>
-        <v>-0.16858061552595316</v>
-      </c>
-      <c r="S53" s="36">
-        <f t="shared" si="86"/>
-        <v>-7.7966101694915246E-2</v>
-      </c>
-      <c r="T53" s="36">
-        <f t="shared" si="86"/>
-        <v>-0.12715517241379315</v>
-      </c>
-      <c r="U53" s="36">
-        <f t="shared" si="85"/>
-        <v>0.10333263466778453</v>
-      </c>
-      <c r="V53" s="37">
-        <f t="shared" si="85"/>
-        <v>0.22513812154696122</v>
-      </c>
-      <c r="W53" s="36">
-        <f t="shared" si="85"/>
-        <v>0.25588235294117645</v>
-      </c>
-      <c r="X53" s="36">
-        <f t="shared" si="85"/>
-        <v>0.35259259259259257</v>
-      </c>
-      <c r="Y53" s="36">
-        <f t="shared" si="85"/>
-        <v>0.26785714285714279</v>
-      </c>
+      <c r="V53" s="21"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F54" s="37">
-        <f t="shared" si="86"/>
-        <v>1.0750000000000002</v>
+        <f t="shared" ref="F54:Y55" si="85">F3/B3-1</f>
+        <v>0.16198091307712148</v>
       </c>
       <c r="G54" s="36">
-        <f t="shared" si="86"/>
-        <v>1.5</v>
+        <f t="shared" si="85"/>
+        <v>0.1947200898708108</v>
       </c>
       <c r="H54" s="36">
-        <f t="shared" si="86"/>
-        <v>0.39716312056737579</v>
+        <f t="shared" si="85"/>
+        <v>0.1811572611882486</v>
       </c>
       <c r="I54" s="36">
-        <f t="shared" si="86"/>
-        <v>0.74666666666666659</v>
+        <f t="shared" si="85"/>
+        <v>0.17407485061327188</v>
       </c>
       <c r="J54" s="37">
-        <f t="shared" si="86"/>
-        <v>0.46987951807228923</v>
+        <f t="shared" si="85"/>
+        <v>0.18817980022197567</v>
       </c>
       <c r="K54" s="36">
-        <f t="shared" si="86"/>
-        <v>0.34054054054054061</v>
+        <f t="shared" si="85"/>
+        <v>0.18434937052708555</v>
       </c>
       <c r="L54" s="36">
-        <f t="shared" si="86"/>
-        <v>0.53299492385786795</v>
+        <f t="shared" si="85"/>
+        <v>0.2141163412542253</v>
       </c>
       <c r="M54" s="36">
-        <f t="shared" si="86"/>
-        <v>0.56106870229007644</v>
+        <f t="shared" si="85"/>
+        <v>0.21554533684539479</v>
       </c>
       <c r="N54" s="37">
-        <f t="shared" si="86"/>
-        <v>-0.38524590163934425</v>
+        <f t="shared" si="85"/>
+        <v>0.24431367054317876</v>
       </c>
       <c r="O54" s="36">
-        <f t="shared" si="86"/>
-        <v>-0.41532258064516125</v>
+        <f t="shared" si="85"/>
+        <v>0.23884086097388857</v>
       </c>
       <c r="P54" s="36">
-        <f t="shared" si="86"/>
-        <v>-0.51655629139072845</v>
+        <f t="shared" si="85"/>
+        <v>0.20315811344275914</v>
       </c>
       <c r="Q54" s="36">
-        <f t="shared" si="86"/>
-        <v>-0.32029339853300731</v>
+        <f t="shared" si="85"/>
+        <v>0.19432915855584532</v>
       </c>
       <c r="R54" s="37">
-        <f t="shared" si="86"/>
-        <v>1.0466666666666669</v>
+        <f t="shared" si="85"/>
+        <v>0.14807446888371745</v>
       </c>
       <c r="S54" s="36">
-        <f t="shared" si="86"/>
-        <v>0.86206896551724133</v>
+        <f t="shared" si="85"/>
+        <v>0.15690532986791039</v>
       </c>
       <c r="T54" s="36">
-        <f t="shared" si="86"/>
-        <v>0.87671232876712324</v>
+        <f t="shared" si="85"/>
+        <v>0.16723077985770529</v>
       </c>
       <c r="U54" s="36">
         <f t="shared" si="85"/>
-        <v>-5.3956834532374098E-2</v>
+        <v>0.16655390860446517</v>
       </c>
       <c r="V54" s="37">
         <f t="shared" si="85"/>
-        <v>-0.40065146579804556</v>
+        <v>0.10383496256579594</v>
       </c>
       <c r="W54" s="36">
         <f t="shared" si="85"/>
-        <v>0.1074074074074074</v>
+        <v>-8.0845694589770423E-2</v>
       </c>
       <c r="X54" s="36">
         <f t="shared" si="85"/>
-        <v>-0.43065693430656937</v>
+        <v>9.7615102378979746E-2</v>
       </c>
       <c r="Y54" s="36">
         <f t="shared" si="85"/>
+        <v>0.21787842041440397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A55" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="37"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36">
+        <f t="shared" ref="U55:Y57" si="86">U4/Q4-1</f>
+        <v>0.529549444119368</v>
+      </c>
+      <c r="V55" s="37">
+        <f t="shared" si="86"/>
+        <v>0.52164383561643834</v>
+      </c>
+      <c r="W55" s="36">
+        <f t="shared" si="85"/>
+        <v>0.43190476190476201</v>
+      </c>
+      <c r="X55" s="36">
+        <f t="shared" si="85"/>
+        <v>0.44766708701134927</v>
+      </c>
+      <c r="Y55" s="36">
+        <f t="shared" si="85"/>
+        <v>0.46557000765110934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="37">
+        <f t="shared" ref="F56:T57" si="87">F5/B5-1</f>
+        <v>0.24011976047904193</v>
+      </c>
+      <c r="G56" s="36">
+        <f t="shared" si="87"/>
+        <v>0.33251533742331296</v>
+      </c>
+      <c r="H56" s="36">
+        <f t="shared" si="87"/>
+        <v>0.38790644609241309</v>
+      </c>
+      <c r="I56" s="36">
+        <f t="shared" si="87"/>
+        <v>0.61970490242741549</v>
+      </c>
+      <c r="J56" s="37">
+        <f t="shared" si="87"/>
+        <v>0.49444712699179139</v>
+      </c>
+      <c r="K56" s="36">
+        <f t="shared" si="87"/>
+        <v>0.42265193370165743</v>
+      </c>
+      <c r="L56" s="36">
+        <f t="shared" si="87"/>
+        <v>0.3995067817509248</v>
+      </c>
+      <c r="M56" s="36">
+        <f t="shared" si="87"/>
+        <v>0.37731413458712892</v>
+      </c>
+      <c r="N56" s="37">
+        <f t="shared" si="87"/>
+        <v>0.40678513731825516</v>
+      </c>
+      <c r="O56" s="36">
+        <f t="shared" si="87"/>
+        <v>0.43203883495145634</v>
+      </c>
+      <c r="P56" s="36">
+        <f t="shared" si="87"/>
+        <v>0.3627019089574155</v>
+      </c>
+      <c r="Q56" s="36">
+        <f t="shared" si="87"/>
+        <v>1.7921911670578217E-2</v>
+      </c>
+      <c r="R56" s="37">
+        <f t="shared" si="87"/>
+        <v>-0.16858061552595316</v>
+      </c>
+      <c r="S56" s="36">
+        <f t="shared" si="87"/>
+        <v>-7.7966101694915246E-2</v>
+      </c>
+      <c r="T56" s="36">
+        <f t="shared" si="87"/>
+        <v>-0.12715517241379315</v>
+      </c>
+      <c r="U56" s="36">
+        <f t="shared" si="86"/>
+        <v>0.10333263466778453</v>
+      </c>
+      <c r="V56" s="37">
+        <f t="shared" si="86"/>
+        <v>0.22513812154696122</v>
+      </c>
+      <c r="W56" s="36">
+        <f t="shared" si="86"/>
+        <v>0.25588235294117645</v>
+      </c>
+      <c r="X56" s="36">
+        <f t="shared" si="86"/>
+        <v>0.35259259259259257</v>
+      </c>
+      <c r="Y56" s="36">
+        <f t="shared" si="86"/>
+        <v>0.26785714285714279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="37">
+        <f t="shared" si="87"/>
+        <v>1.0750000000000002</v>
+      </c>
+      <c r="G57" s="36">
+        <f t="shared" si="87"/>
+        <v>1.5</v>
+      </c>
+      <c r="H57" s="36">
+        <f t="shared" si="87"/>
+        <v>0.39716312056737579</v>
+      </c>
+      <c r="I57" s="36">
+        <f t="shared" si="87"/>
+        <v>0.74666666666666659</v>
+      </c>
+      <c r="J57" s="37">
+        <f t="shared" si="87"/>
+        <v>0.46987951807228923</v>
+      </c>
+      <c r="K57" s="36">
+        <f t="shared" si="87"/>
+        <v>0.34054054054054061</v>
+      </c>
+      <c r="L57" s="36">
+        <f t="shared" si="87"/>
+        <v>0.53299492385786795</v>
+      </c>
+      <c r="M57" s="36">
+        <f t="shared" si="87"/>
+        <v>0.56106870229007644</v>
+      </c>
+      <c r="N57" s="37">
+        <f t="shared" si="87"/>
+        <v>-0.38524590163934425</v>
+      </c>
+      <c r="O57" s="36">
+        <f t="shared" si="87"/>
+        <v>-0.41532258064516125</v>
+      </c>
+      <c r="P57" s="36">
+        <f t="shared" si="87"/>
+        <v>-0.51655629139072845</v>
+      </c>
+      <c r="Q57" s="36">
+        <f t="shared" si="87"/>
+        <v>-0.32029339853300731</v>
+      </c>
+      <c r="R57" s="37">
+        <f t="shared" si="87"/>
+        <v>1.0466666666666669</v>
+      </c>
+      <c r="S57" s="36">
+        <f t="shared" si="87"/>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="T57" s="36">
+        <f t="shared" si="87"/>
+        <v>0.87671232876712324</v>
+      </c>
+      <c r="U57" s="36">
+        <f t="shared" si="86"/>
+        <v>-5.3956834532374098E-2</v>
+      </c>
+      <c r="V57" s="37">
+        <f t="shared" si="86"/>
+        <v>-0.40065146579804556</v>
+      </c>
+      <c r="W57" s="36">
+        <f t="shared" si="86"/>
+        <v>0.1074074074074074</v>
+      </c>
+      <c r="X57" s="36">
+        <f t="shared" si="86"/>
+        <v>-0.43065693430656937</v>
+      </c>
+      <c r="Y57" s="36">
+        <f t="shared" si="86"/>
         <v>-0.26235741444866922</v>
       </c>
     </row>
@@ -10754,12 +10931,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="64" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:2" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -10767,47 +10944,47 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="51" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:2" s="63" customFormat="1" x14ac:dyDescent="0.15">
@@ -10820,51 +10997,51 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
